--- a/masks/code/TKIDModule_spreadsheet_20200512_AW.xlsx
+++ b/masks/code/TKIDModule_spreadsheet_20200512_AW.xlsx
@@ -2409,28 +2409,28 @@
         <v>40</v>
       </c>
       <c r="D25" s="1" t="n">
-        <v>0</v>
+        <v>-7.35</v>
       </c>
       <c r="E25" s="1" t="n">
-        <v>0</v>
+        <v>-0.319</v>
       </c>
       <c r="F25" s="1" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="G25" s="1" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="H25" s="1" t="n">
-        <v>0</v>
+        <v>-7.75</v>
       </c>
       <c r="I25" s="1" t="n">
-        <v>0</v>
+        <v>-6.949999999999999</v>
       </c>
       <c r="J25" s="1" t="n">
-        <v>0</v>
+        <v>-0.119</v>
       </c>
       <c r="K25" s="1" t="n">
-        <v>0</v>
+        <v>-0.519</v>
       </c>
       <c r="L25" s="1" t="n"/>
       <c r="M25" s="1" t="n">
@@ -2440,14 +2440,16 @@
         <v>0</v>
       </c>
       <c r="O25" s="1" t="n">
-        <v>0</v>
+        <v>-7.35</v>
       </c>
       <c r="P25" s="1" t="n">
-        <v>0</v>
+        <v>-0.319</v>
       </c>
       <c r="Q25" s="1" t="n"/>
       <c r="R25" s="1" t="n"/>
-      <c r="S25" s="1" t="s"/>
+      <c r="S25" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="T25" s="1" t="n">
         <v>1</v>
       </c>
@@ -16603,28 +16605,28 @@
         <v>221</v>
       </c>
       <c r="D222" s="1" t="n">
-        <v>0</v>
+        <v>-7.35</v>
       </c>
       <c r="E222" s="1" t="n">
-        <v>0</v>
+        <v>-0.769</v>
       </c>
       <c r="F222" s="1" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="G222" s="1" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="H222" s="1" t="n">
-        <v>0</v>
+        <v>-7.75</v>
       </c>
       <c r="I222" s="1" t="n">
-        <v>0</v>
+        <v>-6.949999999999999</v>
       </c>
       <c r="J222" s="1" t="n">
-        <v>0</v>
+        <v>-0.569</v>
       </c>
       <c r="K222" s="1" t="n">
-        <v>0</v>
+        <v>-0.9690000000000001</v>
       </c>
       <c r="L222" s="1" t="n"/>
       <c r="M222" s="1" t="n">
@@ -16634,14 +16636,16 @@
         <v>0</v>
       </c>
       <c r="O222" s="1" t="n">
-        <v>0</v>
+        <v>-7.35</v>
       </c>
       <c r="P222" s="1" t="n">
-        <v>0</v>
+        <v>-0.769</v>
       </c>
       <c r="Q222" s="1" t="n"/>
       <c r="R222" s="1" t="n"/>
-      <c r="S222" s="1" t="s"/>
+      <c r="S222" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="T222" s="1" t="n">
         <v>1</v>
       </c>

--- a/masks/code/TKIDModule_spreadsheet_20200512_AW.xlsx
+++ b/masks/code/TKIDModule_spreadsheet_20200512_AW.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="278">
   <si>
     <t>AGA Marks</t>
   </si>
@@ -184,6 +184,9 @@
   </si>
   <si>
     <t>picframe_revX_2000</t>
+  </si>
+  <si>
+    <t>pixel_even_GP</t>
   </si>
   <si>
     <t>pixel_odd_GP</t>
@@ -1210,7 +1213,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB284"/>
+  <dimension ref="A1:AB283"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2941,13 +2944,13 @@
         <v>0</v>
       </c>
       <c r="N32" s="1" t="n">
-        <v>-4.2</v>
+        <v>0</v>
       </c>
       <c r="O32" s="1" t="n">
         <v>-0.34</v>
       </c>
       <c r="P32" s="1" t="n">
-        <v>-3.5</v>
+        <v>-7.7</v>
       </c>
       <c r="Q32" s="1" t="n"/>
       <c r="R32" s="1" t="n"/>
@@ -2955,22 +2958,22 @@
         <v>32</v>
       </c>
       <c r="T32" s="1" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="U32" s="1" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="V32" s="1" t="n">
-        <v>4.2</v>
+        <v>0.1</v>
       </c>
       <c r="W32" s="1" t="n">
-        <v>-0.342</v>
+        <v>-0.542</v>
       </c>
       <c r="X32" s="1" t="n">
-        <v>16.8</v>
+        <v>60</v>
       </c>
       <c r="Y32" s="1" t="n">
-        <v>8.4</v>
+        <v>51.2</v>
       </c>
       <c r="Z32" s="1" t="n"/>
       <c r="AA32" s="1" t="n"/>
@@ -3027,22 +3030,22 @@
         <v>32</v>
       </c>
       <c r="T33" s="1" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="U33" s="1" t="n">
         <v>2</v>
       </c>
       <c r="V33" s="1" t="n">
-        <v>0.1</v>
+        <v>4.2</v>
       </c>
       <c r="W33" s="1" t="n">
-        <v>-0.542</v>
+        <v>-0.342</v>
       </c>
       <c r="X33" s="1" t="n">
-        <v>60</v>
+        <v>8.4</v>
       </c>
       <c r="Y33" s="1" t="n">
-        <v>51.2</v>
+        <v>67.2</v>
       </c>
       <c r="Z33" s="1" t="n"/>
       <c r="AA33" s="1" t="n"/>
@@ -3099,22 +3102,22 @@
         <v>32</v>
       </c>
       <c r="T34" s="1" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="U34" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V34" s="1" t="n">
-        <v>4.2</v>
+        <v>21.7</v>
       </c>
       <c r="W34" s="1" t="n">
-        <v>-0.342</v>
+        <v>33.658</v>
       </c>
       <c r="X34" s="1" t="n">
-        <v>8.4</v>
+        <v>0</v>
       </c>
       <c r="Y34" s="1" t="n">
-        <v>67.2</v>
+        <v>0</v>
       </c>
       <c r="Z34" s="1" t="n"/>
       <c r="AA34" s="1" t="n"/>
@@ -3126,31 +3129,31 @@
       </c>
       <c r="B35" s="1" t="n"/>
       <c r="C35" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D35" s="1" t="n">
-        <v>-0.34</v>
+        <v>-5.2</v>
       </c>
       <c r="E35" s="1" t="n">
-        <v>-7.7</v>
+        <v>4.4</v>
       </c>
       <c r="F35" s="1" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G35" s="1" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="G35" s="1" t="n">
-        <v>0.4</v>
-      </c>
       <c r="H35" s="1" t="n">
-        <v>-4.74</v>
+        <v>-5.4</v>
       </c>
       <c r="I35" s="1" t="n">
-        <v>4.06</v>
+        <v>-5</v>
       </c>
       <c r="J35" s="1" t="n">
-        <v>-7.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="K35" s="1" t="n">
-        <v>-7.9</v>
+        <v>0</v>
       </c>
       <c r="L35" s="1" t="n"/>
       <c r="M35" s="1" t="n">
@@ -3160,10 +3163,10 @@
         <v>0</v>
       </c>
       <c r="O35" s="1" t="n">
-        <v>-0.34</v>
+        <v>-5.2</v>
       </c>
       <c r="P35" s="1" t="n">
-        <v>-7.7</v>
+        <v>4.4</v>
       </c>
       <c r="Q35" s="1" t="n"/>
       <c r="R35" s="1" t="n"/>
@@ -3171,22 +3174,22 @@
         <v>32</v>
       </c>
       <c r="T35" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U35" s="1" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="V35" s="1" t="n">
-        <v>21.7</v>
+        <v>0</v>
       </c>
       <c r="W35" s="1" t="n">
-        <v>33.658</v>
+        <v>-0.342</v>
       </c>
       <c r="X35" s="1" t="n">
-        <v>0</v>
+        <v>68.2</v>
       </c>
       <c r="Y35" s="1" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="Z35" s="1" t="n"/>
       <c r="AA35" s="1" t="n"/>
@@ -3243,22 +3246,22 @@
         <v>32</v>
       </c>
       <c r="T36" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U36" s="1" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="V36" s="1" t="n">
-        <v>0</v>
+        <v>25.9</v>
       </c>
       <c r="W36" s="1" t="n">
-        <v>-0.342</v>
+        <v>29.258</v>
       </c>
       <c r="X36" s="1" t="n">
-        <v>68.2</v>
+        <v>0</v>
       </c>
       <c r="Y36" s="1" t="n">
-        <v>8.4</v>
+        <v>0</v>
       </c>
       <c r="Z36" s="1" t="n"/>
       <c r="AA36" s="1" t="n"/>
@@ -3321,10 +3324,10 @@
         <v>1</v>
       </c>
       <c r="V37" s="1" t="n">
-        <v>25.9</v>
+        <v>25.7</v>
       </c>
       <c r="W37" s="1" t="n">
-        <v>29.258</v>
+        <v>29.058</v>
       </c>
       <c r="X37" s="1" t="n">
         <v>0</v>
@@ -3342,31 +3345,31 @@
       </c>
       <c r="B38" s="1" t="n"/>
       <c r="C38" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D38" s="1" t="n">
-        <v>-5.2</v>
+        <v>-10.14</v>
       </c>
       <c r="E38" s="1" t="n">
-        <v>4.4</v>
+        <v>-6.325</v>
       </c>
       <c r="F38" s="1" t="n">
         <v>0.4</v>
       </c>
       <c r="G38" s="1" t="n">
-        <v>8.800000000000001</v>
+        <v>8.9</v>
       </c>
       <c r="H38" s="1" t="n">
-        <v>-5.4</v>
+        <v>-10.34</v>
       </c>
       <c r="I38" s="1" t="n">
-        <v>-5</v>
+        <v>-9.940000000000001</v>
       </c>
       <c r="J38" s="1" t="n">
-        <v>8.800000000000001</v>
+        <v>-1.875</v>
       </c>
       <c r="K38" s="1" t="n">
-        <v>0</v>
+        <v>-10.775</v>
       </c>
       <c r="L38" s="1" t="n"/>
       <c r="M38" s="1" t="n">
@@ -3376,10 +3379,10 @@
         <v>0</v>
       </c>
       <c r="O38" s="1" t="n">
-        <v>-5.2</v>
+        <v>-10.14</v>
       </c>
       <c r="P38" s="1" t="n">
-        <v>4.4</v>
+        <v>-6.325</v>
       </c>
       <c r="Q38" s="1" t="n"/>
       <c r="R38" s="1" t="n"/>
@@ -3390,19 +3393,19 @@
         <v>1</v>
       </c>
       <c r="U38" s="1" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="V38" s="1" t="n">
-        <v>25.7</v>
+        <v>34.3</v>
       </c>
       <c r="W38" s="1" t="n">
-        <v>29.058</v>
+        <v>-0.442</v>
       </c>
       <c r="X38" s="1" t="n">
         <v>0</v>
       </c>
       <c r="Y38" s="1" t="n">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="Z38" s="1" t="n"/>
       <c r="AA38" s="1" t="n"/>
@@ -3414,31 +3417,31 @@
       </c>
       <c r="B39" s="1" t="n"/>
       <c r="C39" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D39" s="1" t="n">
-        <v>-10.14</v>
+        <v>-2.6</v>
       </c>
       <c r="E39" s="1" t="n">
-        <v>-6.325</v>
+        <v>-3.9</v>
       </c>
       <c r="F39" s="1" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="G39" s="1" t="n">
-        <v>8.9</v>
+        <v>0.9</v>
       </c>
       <c r="H39" s="1" t="n">
-        <v>-10.34</v>
+        <v>-3.05</v>
       </c>
       <c r="I39" s="1" t="n">
-        <v>-9.940000000000001</v>
+        <v>-2.15</v>
       </c>
       <c r="J39" s="1" t="n">
-        <v>-1.875</v>
+        <v>-3.45</v>
       </c>
       <c r="K39" s="1" t="n">
-        <v>-10.775</v>
+        <v>-4.35</v>
       </c>
       <c r="L39" s="1" t="n"/>
       <c r="M39" s="1" t="n">
@@ -3448,10 +3451,10 @@
         <v>0</v>
       </c>
       <c r="O39" s="1" t="n">
-        <v>-10.14</v>
+        <v>-2.6</v>
       </c>
       <c r="P39" s="1" t="n">
-        <v>-6.325</v>
+        <v>-3.9</v>
       </c>
       <c r="Q39" s="1" t="n"/>
       <c r="R39" s="1" t="n"/>
@@ -3459,22 +3462,22 @@
         <v>32</v>
       </c>
       <c r="T39" s="1" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="U39" s="1" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="V39" s="1" t="n">
-        <v>34.3</v>
+        <v>13.5</v>
       </c>
       <c r="W39" s="1" t="n">
-        <v>-0.442</v>
+        <v>35.945</v>
       </c>
       <c r="X39" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y39" s="1" t="n">
-        <v>8.5</v>
+        <v>0</v>
       </c>
       <c r="Z39" s="1" t="n"/>
       <c r="AA39" s="1" t="n"/>
@@ -3537,7 +3540,7 @@
         <v>1</v>
       </c>
       <c r="V40" s="1" t="n">
-        <v>13.5</v>
+        <v>-21.2</v>
       </c>
       <c r="W40" s="1" t="n">
         <v>35.945</v>
@@ -3558,44 +3561,44 @@
       </c>
       <c r="B41" s="1" t="n"/>
       <c r="C41" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D41" s="1" t="n">
-        <v>-2.6</v>
+        <v>-1.467</v>
       </c>
       <c r="E41" s="1" t="n">
-        <v>-3.9</v>
+        <v>-0.96</v>
       </c>
       <c r="F41" s="1" t="n">
-        <v>0.9</v>
+        <v>1.634</v>
       </c>
       <c r="G41" s="1" t="n">
-        <v>0.9</v>
+        <v>0.62</v>
       </c>
       <c r="H41" s="1" t="n">
-        <v>-3.05</v>
+        <v>-2.284</v>
       </c>
       <c r="I41" s="1" t="n">
-        <v>-2.15</v>
+        <v>-0.6500000000000001</v>
       </c>
       <c r="J41" s="1" t="n">
-        <v>-3.45</v>
+        <v>-0.6499999999999999</v>
       </c>
       <c r="K41" s="1" t="n">
-        <v>-4.35</v>
+        <v>-1.27</v>
       </c>
       <c r="L41" s="1" t="n"/>
       <c r="M41" s="1" t="n">
-        <v>0</v>
+        <v>-1.629</v>
       </c>
       <c r="N41" s="1" t="n">
-        <v>0</v>
+        <v>-3.916</v>
       </c>
       <c r="O41" s="1" t="n">
-        <v>-2.6</v>
+        <v>0.1619999999999999</v>
       </c>
       <c r="P41" s="1" t="n">
-        <v>-3.9</v>
+        <v>2.956</v>
       </c>
       <c r="Q41" s="1" t="n"/>
       <c r="R41" s="1" t="n"/>
@@ -3603,22 +3606,22 @@
         <v>32</v>
       </c>
       <c r="T41" s="1" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="U41" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V41" s="1" t="n">
-        <v>-21.2</v>
+        <v>-29.4</v>
       </c>
       <c r="W41" s="1" t="n">
-        <v>35.945</v>
+        <v>-4.542</v>
       </c>
       <c r="X41" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y41" s="1" t="n">
-        <v>0</v>
+        <v>16.8</v>
       </c>
       <c r="Z41" s="1" t="n"/>
       <c r="AA41" s="1" t="n"/>
@@ -3630,13 +3633,13 @@
       </c>
       <c r="B42" s="1" t="n"/>
       <c r="C42" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D42" s="1" t="n">
         <v>-1.467</v>
       </c>
       <c r="E42" s="1" t="n">
-        <v>-0.96</v>
+        <v>-1.63</v>
       </c>
       <c r="F42" s="1" t="n">
         <v>1.634</v>
@@ -3651,23 +3654,23 @@
         <v>-0.6500000000000001</v>
       </c>
       <c r="J42" s="1" t="n">
-        <v>-0.6499999999999999</v>
+        <v>-1.32</v>
       </c>
       <c r="K42" s="1" t="n">
-        <v>-1.27</v>
+        <v>-1.94</v>
       </c>
       <c r="L42" s="1" t="n"/>
       <c r="M42" s="1" t="n">
-        <v>-1.629</v>
+        <v>1.629</v>
       </c>
       <c r="N42" s="1" t="n">
-        <v>-3.916</v>
+        <v>3.916</v>
       </c>
       <c r="O42" s="1" t="n">
-        <v>0.1619999999999999</v>
+        <v>-3.096</v>
       </c>
       <c r="P42" s="1" t="n">
-        <v>2.956</v>
+        <v>-5.545999999999999</v>
       </c>
       <c r="Q42" s="1" t="n"/>
       <c r="R42" s="1" t="n"/>
@@ -3681,7 +3684,7 @@
         <v>3</v>
       </c>
       <c r="V42" s="1" t="n">
-        <v>-29.4</v>
+        <v>29.4</v>
       </c>
       <c r="W42" s="1" t="n">
         <v>-4.542</v>
@@ -3730,16 +3733,16 @@
       </c>
       <c r="L43" s="1" t="n"/>
       <c r="M43" s="1" t="n">
-        <v>1.629</v>
+        <v>0</v>
       </c>
       <c r="N43" s="1" t="n">
-        <v>3.916</v>
+        <v>0</v>
       </c>
       <c r="O43" s="1" t="n">
-        <v>-3.096</v>
+        <v>-1.467</v>
       </c>
       <c r="P43" s="1" t="n">
-        <v>-5.545999999999999</v>
+        <v>-1.63</v>
       </c>
       <c r="Q43" s="1" t="n"/>
       <c r="R43" s="1" t="n"/>
@@ -3750,19 +3753,19 @@
         <v>1</v>
       </c>
       <c r="U43" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V43" s="1" t="n">
-        <v>29.4</v>
+        <v>22.629</v>
       </c>
       <c r="W43" s="1" t="n">
-        <v>-4.542</v>
+        <v>-33.658</v>
       </c>
       <c r="X43" s="1" t="n">
         <v>0</v>
       </c>
       <c r="Y43" s="1" t="n">
-        <v>16.8</v>
+        <v>0</v>
       </c>
       <c r="Z43" s="1" t="n"/>
       <c r="AA43" s="1" t="n"/>
@@ -3774,31 +3777,31 @@
       </c>
       <c r="B44" s="1" t="n"/>
       <c r="C44" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D44" s="1" t="n">
-        <v>-1.467</v>
+        <v>-3.45</v>
       </c>
       <c r="E44" s="1" t="n">
-        <v>-1.63</v>
+        <v>-9.625</v>
       </c>
       <c r="F44" s="1" t="n">
-        <v>1.634</v>
+        <v>9.9</v>
       </c>
       <c r="G44" s="1" t="n">
-        <v>0.62</v>
+        <v>1.3</v>
       </c>
       <c r="H44" s="1" t="n">
-        <v>-2.284</v>
+        <v>-8.4</v>
       </c>
       <c r="I44" s="1" t="n">
-        <v>-0.6500000000000001</v>
+        <v>1.5</v>
       </c>
       <c r="J44" s="1" t="n">
-        <v>-1.32</v>
+        <v>-8.975</v>
       </c>
       <c r="K44" s="1" t="n">
-        <v>-1.94</v>
+        <v>-10.275</v>
       </c>
       <c r="L44" s="1" t="n"/>
       <c r="M44" s="1" t="n">
@@ -3808,10 +3811,10 @@
         <v>0</v>
       </c>
       <c r="O44" s="1" t="n">
-        <v>-1.467</v>
+        <v>-3.45</v>
       </c>
       <c r="P44" s="1" t="n">
-        <v>-1.63</v>
+        <v>-9.625</v>
       </c>
       <c r="Q44" s="1" t="n"/>
       <c r="R44" s="1" t="n"/>
@@ -3819,22 +3822,22 @@
         <v>32</v>
       </c>
       <c r="T44" s="1" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U44" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V44" s="1" t="n">
-        <v>22.629</v>
+        <v>-3.85</v>
       </c>
       <c r="W44" s="1" t="n">
-        <v>-33.658</v>
+        <v>0</v>
       </c>
       <c r="X44" s="1" t="n">
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="Y44" s="1" t="n">
-        <v>0</v>
+        <v>71.29000000000001</v>
       </c>
       <c r="Z44" s="1" t="n"/>
       <c r="AA44" s="1" t="n"/>
@@ -3846,44 +3849,44 @@
       </c>
       <c r="B45" s="1" t="n"/>
       <c r="C45" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D45" s="1" t="n">
-        <v>-3.45</v>
+        <v>-7.55</v>
       </c>
       <c r="E45" s="1" t="n">
-        <v>-9.625</v>
+        <v>-2.619</v>
       </c>
       <c r="F45" s="1" t="n">
-        <v>9.9</v>
+        <v>1.2</v>
       </c>
       <c r="G45" s="1" t="n">
-        <v>1.3</v>
+        <v>3.2</v>
       </c>
       <c r="H45" s="1" t="n">
-        <v>-8.4</v>
+        <v>-8.15</v>
       </c>
       <c r="I45" s="1" t="n">
-        <v>1.5</v>
+        <v>-6.95</v>
       </c>
       <c r="J45" s="1" t="n">
-        <v>-8.975</v>
+        <v>-1.019</v>
       </c>
       <c r="K45" s="1" t="n">
-        <v>-10.275</v>
+        <v>-4.219</v>
       </c>
       <c r="L45" s="1" t="n"/>
       <c r="M45" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N45" s="1" t="n">
-        <v>0</v>
+        <v>-0.013</v>
       </c>
       <c r="O45" s="1" t="n">
-        <v>-3.45</v>
+        <v>-7.55</v>
       </c>
       <c r="P45" s="1" t="n">
-        <v>-9.625</v>
+        <v>-2.606</v>
       </c>
       <c r="Q45" s="1" t="n"/>
       <c r="R45" s="1" t="n"/>
@@ -3891,26 +3894,28 @@
         <v>32</v>
       </c>
       <c r="T45" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="U45" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="V45" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" s="1" t="n">
+        <v>-0.328</v>
+      </c>
+      <c r="X45" s="1" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="Y45" s="1" t="n">
         <v>4</v>
-      </c>
-      <c r="U45" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="V45" s="1" t="n">
-        <v>-3.85</v>
-      </c>
-      <c r="W45" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="X45" s="1" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="Y45" s="1" t="n">
-        <v>71.29000000000001</v>
       </c>
       <c r="Z45" s="1" t="n"/>
       <c r="AA45" s="1" t="n"/>
-      <c r="AB45" s="1" t="s"/>
+      <c r="AB45" s="1" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="46" spans="1:28">
       <c r="A46" s="1" t="s">
@@ -3918,44 +3923,44 @@
       </c>
       <c r="B46" s="1" t="n"/>
       <c r="C46" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D46" s="1" t="n">
-        <v>-7.55</v>
+        <v>8.5</v>
       </c>
       <c r="E46" s="1" t="n">
-        <v>-2.619</v>
+        <v>-2.25</v>
       </c>
       <c r="F46" s="1" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="G46" s="1" t="n">
-        <v>3.2</v>
+        <v>0.6</v>
       </c>
       <c r="H46" s="1" t="n">
-        <v>-8.15</v>
+        <v>8.15</v>
       </c>
       <c r="I46" s="1" t="n">
-        <v>-6.95</v>
+        <v>8.85</v>
       </c>
       <c r="J46" s="1" t="n">
-        <v>-1.019</v>
+        <v>-1.95</v>
       </c>
       <c r="K46" s="1" t="n">
-        <v>-4.219</v>
+        <v>-2.55</v>
       </c>
       <c r="L46" s="1" t="n"/>
       <c r="M46" s="1" t="n">
-        <v>0</v>
+        <v>-2.701</v>
       </c>
       <c r="N46" s="1" t="n">
-        <v>-0.013</v>
+        <v>-3.986</v>
       </c>
       <c r="O46" s="1" t="n">
-        <v>-7.55</v>
+        <v>11.201</v>
       </c>
       <c r="P46" s="1" t="n">
-        <v>-2.606</v>
+        <v>1.736</v>
       </c>
       <c r="Q46" s="1" t="n"/>
       <c r="R46" s="1" t="n"/>
@@ -3963,28 +3968,26 @@
         <v>32</v>
       </c>
       <c r="T46" s="1" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="U46" s="1" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="V46" s="1" t="n">
-        <v>0</v>
+        <v>-29.4</v>
       </c>
       <c r="W46" s="1" t="n">
-        <v>-0.328</v>
+        <v>-4.542</v>
       </c>
       <c r="X46" s="1" t="n">
-        <v>8.4</v>
+        <v>0</v>
       </c>
       <c r="Y46" s="1" t="n">
-        <v>4</v>
+        <v>16.8</v>
       </c>
       <c r="Z46" s="1" t="n"/>
       <c r="AA46" s="1" t="n"/>
-      <c r="AB46" s="1" t="s">
-        <v>52</v>
-      </c>
+      <c r="AB46" s="1" t="s"/>
     </row>
     <row r="47" spans="1:28">
       <c r="A47" s="1" t="s">
@@ -4020,16 +4023,16 @@
       </c>
       <c r="L47" s="1" t="n"/>
       <c r="M47" s="1" t="n">
-        <v>-2.701</v>
+        <v>2.705</v>
       </c>
       <c r="N47" s="1" t="n">
-        <v>-3.986</v>
+        <v>3.988</v>
       </c>
       <c r="O47" s="1" t="n">
-        <v>11.201</v>
+        <v>5.795</v>
       </c>
       <c r="P47" s="1" t="n">
-        <v>1.736</v>
+        <v>-6.238</v>
       </c>
       <c r="Q47" s="1" t="n"/>
       <c r="R47" s="1" t="n"/>
@@ -4043,7 +4046,7 @@
         <v>3</v>
       </c>
       <c r="V47" s="1" t="n">
-        <v>-29.4</v>
+        <v>29.4</v>
       </c>
       <c r="W47" s="1" t="n">
         <v>-4.542</v>
@@ -4092,16 +4095,16 @@
       </c>
       <c r="L48" s="1" t="n"/>
       <c r="M48" s="1" t="n">
-        <v>2.705</v>
+        <v>0</v>
       </c>
       <c r="N48" s="1" t="n">
-        <v>3.988</v>
+        <v>0</v>
       </c>
       <c r="O48" s="1" t="n">
-        <v>5.795</v>
+        <v>8.5</v>
       </c>
       <c r="P48" s="1" t="n">
-        <v>-6.238</v>
+        <v>-2.25</v>
       </c>
       <c r="Q48" s="1" t="n"/>
       <c r="R48" s="1" t="n"/>
@@ -4112,19 +4115,19 @@
         <v>1</v>
       </c>
       <c r="U48" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V48" s="1" t="n">
-        <v>29.4</v>
+        <v>23.705</v>
       </c>
       <c r="W48" s="1" t="n">
-        <v>-4.542</v>
+        <v>-33.728</v>
       </c>
       <c r="X48" s="1" t="n">
         <v>0</v>
       </c>
       <c r="Y48" s="1" t="n">
-        <v>16.8</v>
+        <v>0</v>
       </c>
       <c r="Z48" s="1" t="n"/>
       <c r="AA48" s="1" t="n"/>
@@ -4136,31 +4139,31 @@
       </c>
       <c r="B49" s="1" t="n"/>
       <c r="C49" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D49" s="1" t="n">
-        <v>8.5</v>
+        <v>4.83</v>
       </c>
       <c r="E49" s="1" t="n">
-        <v>-2.25</v>
+        <v>-8.220000000000001</v>
       </c>
       <c r="F49" s="1" t="n">
-        <v>0.7</v>
+        <v>1.44</v>
       </c>
       <c r="G49" s="1" t="n">
-        <v>0.6</v>
+        <v>1.44</v>
       </c>
       <c r="H49" s="1" t="n">
-        <v>8.15</v>
+        <v>4.11</v>
       </c>
       <c r="I49" s="1" t="n">
-        <v>8.85</v>
+        <v>5.55</v>
       </c>
       <c r="J49" s="1" t="n">
-        <v>-1.95</v>
+        <v>-7.500000000000001</v>
       </c>
       <c r="K49" s="1" t="n">
-        <v>-2.55</v>
+        <v>-8.940000000000001</v>
       </c>
       <c r="L49" s="1" t="n"/>
       <c r="M49" s="1" t="n">
@@ -4170,10 +4173,10 @@
         <v>0</v>
       </c>
       <c r="O49" s="1" t="n">
-        <v>8.5</v>
+        <v>4.83</v>
       </c>
       <c r="P49" s="1" t="n">
-        <v>-2.25</v>
+        <v>-8.220000000000001</v>
       </c>
       <c r="Q49" s="1" t="n"/>
       <c r="R49" s="1" t="n"/>
@@ -4181,22 +4184,22 @@
         <v>32</v>
       </c>
       <c r="T49" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U49" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V49" s="1" t="n">
-        <v>23.705</v>
+        <v>0</v>
       </c>
       <c r="W49" s="1" t="n">
-        <v>-33.728</v>
+        <v>6.103</v>
       </c>
       <c r="X49" s="1" t="n">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="Y49" s="1" t="n">
-        <v>0</v>
+        <v>50.4725</v>
       </c>
       <c r="Z49" s="1" t="n"/>
       <c r="AA49" s="1" t="n"/>
@@ -4208,31 +4211,31 @@
       </c>
       <c r="B50" s="1" t="n"/>
       <c r="C50" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D50" s="1" t="n">
-        <v>4.83</v>
+        <v>-6.4</v>
       </c>
       <c r="E50" s="1" t="n">
-        <v>-8.220000000000001</v>
+        <v>4.2</v>
       </c>
       <c r="F50" s="1" t="n">
-        <v>1.44</v>
+        <v>1</v>
       </c>
       <c r="G50" s="1" t="n">
-        <v>1.44</v>
+        <v>2.4</v>
       </c>
       <c r="H50" s="1" t="n">
-        <v>4.11</v>
+        <v>-6.9</v>
       </c>
       <c r="I50" s="1" t="n">
-        <v>5.55</v>
+        <v>-5.9</v>
       </c>
       <c r="J50" s="1" t="n">
-        <v>-7.500000000000001</v>
+        <v>5.4</v>
       </c>
       <c r="K50" s="1" t="n">
-        <v>-8.940000000000001</v>
+        <v>3</v>
       </c>
       <c r="L50" s="1" t="n"/>
       <c r="M50" s="1" t="n">
@@ -4242,10 +4245,10 @@
         <v>0</v>
       </c>
       <c r="O50" s="1" t="n">
-        <v>4.83</v>
+        <v>-6.4</v>
       </c>
       <c r="P50" s="1" t="n">
-        <v>-8.220000000000001</v>
+        <v>4.2</v>
       </c>
       <c r="Q50" s="1" t="n"/>
       <c r="R50" s="1" t="n"/>
@@ -4253,22 +4256,22 @@
         <v>32</v>
       </c>
       <c r="T50" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U50" s="1" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="V50" s="1" t="n">
-        <v>0</v>
+        <v>-36.32</v>
       </c>
       <c r="W50" s="1" t="n">
-        <v>6.103</v>
+        <v>-2.808</v>
       </c>
       <c r="X50" s="1" t="n">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="Y50" s="1" t="n">
-        <v>50.4725</v>
+        <v>1.995</v>
       </c>
       <c r="Z50" s="1" t="n"/>
       <c r="AA50" s="1" t="n"/>
@@ -4280,44 +4283,44 @@
       </c>
       <c r="B51" s="1" t="n"/>
       <c r="C51" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D51" s="1" t="n">
-        <v>-6.4</v>
+        <v>4.54</v>
       </c>
       <c r="E51" s="1" t="n">
-        <v>4.2</v>
+        <v>-2.986</v>
       </c>
       <c r="F51" s="1" t="n">
-        <v>1</v>
+        <v>8.619999999999999</v>
       </c>
       <c r="G51" s="1" t="n">
-        <v>2.4</v>
+        <v>0.8</v>
       </c>
       <c r="H51" s="1" t="n">
-        <v>-6.9</v>
+        <v>0.2300000000000004</v>
       </c>
       <c r="I51" s="1" t="n">
-        <v>-5.9</v>
+        <v>8.85</v>
       </c>
       <c r="J51" s="1" t="n">
-        <v>5.4</v>
+        <v>-2.6</v>
       </c>
       <c r="K51" s="1" t="n">
-        <v>3</v>
+        <v>-3.4</v>
       </c>
       <c r="L51" s="1" t="n"/>
       <c r="M51" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N51" s="1" t="n">
-        <v>0</v>
+        <v>-3.943</v>
       </c>
       <c r="O51" s="1" t="n">
-        <v>-6.4</v>
+        <v>4.54</v>
       </c>
       <c r="P51" s="1" t="n">
-        <v>4.2</v>
+        <v>0.9569999999999999</v>
       </c>
       <c r="Q51" s="1" t="n"/>
       <c r="R51" s="1" t="n"/>
@@ -4325,22 +4328,22 @@
         <v>32</v>
       </c>
       <c r="T51" s="1" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U51" s="1" t="n">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="V51" s="1" t="n">
-        <v>-36.32</v>
+        <v>4.2</v>
       </c>
       <c r="W51" s="1" t="n">
-        <v>-2.808</v>
+        <v>-0.342</v>
       </c>
       <c r="X51" s="1" t="n">
-        <v>0</v>
+        <v>16.8</v>
       </c>
       <c r="Y51" s="1" t="n">
-        <v>1.995</v>
+        <v>8.4</v>
       </c>
       <c r="Z51" s="1" t="n"/>
       <c r="AA51" s="1" t="n"/>
@@ -4352,7 +4355,7 @@
       </c>
       <c r="B52" s="1" t="n"/>
       <c r="C52" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D52" s="1" t="n">
         <v>4.54</v>
@@ -4424,7 +4427,7 @@
       </c>
       <c r="B53" s="1" t="n"/>
       <c r="C53" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D53" s="1" t="n">
         <v>-6.62</v>
@@ -4496,7 +4499,7 @@
       </c>
       <c r="B54" s="1" t="n"/>
       <c r="C54" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D54" s="1" t="n">
         <v>6.9</v>
@@ -4568,7 +4571,7 @@
       </c>
       <c r="B55" s="1" t="n"/>
       <c r="C55" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D55" s="1" t="n">
         <v>-4.858</v>
@@ -4636,11 +4639,11 @@
     </row>
     <row r="56" spans="1:28">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B56" s="1" t="n"/>
       <c r="C56" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D56" s="1" t="n">
         <v>-7.89</v>
@@ -4708,11 +4711,11 @@
     </row>
     <row r="57" spans="1:28">
       <c r="A57" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B57" s="1" t="n"/>
       <c r="C57" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D57" s="1" t="n">
         <v>-2.25</v>
@@ -4780,11 +4783,11 @@
     </row>
     <row r="58" spans="1:28">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B58" s="1" t="n"/>
       <c r="C58" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D58" s="1" t="n">
         <v>2.2</v>
@@ -4852,11 +4855,11 @@
     </row>
     <row r="59" spans="1:28">
       <c r="A59" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B59" s="1" t="n"/>
       <c r="C59" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D59" s="1" t="n">
         <v>2.45</v>
@@ -4924,11 +4927,11 @@
     </row>
     <row r="60" spans="1:28">
       <c r="A60" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B60" s="1" t="n"/>
       <c r="C60" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D60" s="1" t="n">
         <v>-10.59</v>
@@ -4996,11 +4999,11 @@
     </row>
     <row r="61" spans="1:28">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B61" s="1" t="n"/>
       <c r="C61" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D61" s="1" t="n">
         <v>-9.975</v>
@@ -5042,7 +5045,7 @@
       <c r="Q61" s="1" t="n"/>
       <c r="R61" s="1" t="n"/>
       <c r="S61" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T61" s="1" t="n">
         <v>1</v>
@@ -5068,11 +5071,11 @@
     </row>
     <row r="62" spans="1:28">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B62" s="1" t="n"/>
       <c r="C62" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D62" s="1" t="n">
         <v>-8.925000000000001</v>
@@ -5114,7 +5117,7 @@
       <c r="Q62" s="1" t="n"/>
       <c r="R62" s="1" t="n"/>
       <c r="S62" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T62" s="1" t="n">
         <v>1</v>
@@ -5140,11 +5143,11 @@
     </row>
     <row r="63" spans="1:28">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B63" s="1" t="n"/>
       <c r="C63" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D63" s="1" t="n">
         <v>-7.875</v>
@@ -5186,7 +5189,7 @@
       <c r="Q63" s="1" t="n"/>
       <c r="R63" s="1" t="n"/>
       <c r="S63" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T63" s="1" t="n">
         <v>1</v>
@@ -5212,11 +5215,11 @@
     </row>
     <row r="64" spans="1:28">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B64" s="1" t="n"/>
       <c r="C64" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D64" s="1" t="n">
         <v>-6.825</v>
@@ -5258,7 +5261,7 @@
       <c r="Q64" s="1" t="n"/>
       <c r="R64" s="1" t="n"/>
       <c r="S64" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T64" s="1" t="n">
         <v>1</v>
@@ -5284,11 +5287,11 @@
     </row>
     <row r="65" spans="1:28">
       <c r="A65" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B65" s="1" t="n"/>
       <c r="C65" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D65" s="1" t="n">
         <v>-5.775</v>
@@ -5330,7 +5333,7 @@
       <c r="Q65" s="1" t="n"/>
       <c r="R65" s="1" t="n"/>
       <c r="S65" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T65" s="1" t="n">
         <v>1</v>
@@ -5356,11 +5359,11 @@
     </row>
     <row r="66" spans="1:28">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B66" s="1" t="n"/>
       <c r="C66" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D66" s="1" t="n">
         <v>-4.725</v>
@@ -5402,7 +5405,7 @@
       <c r="Q66" s="1" t="n"/>
       <c r="R66" s="1" t="n"/>
       <c r="S66" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T66" s="1" t="n">
         <v>1</v>
@@ -5428,11 +5431,11 @@
     </row>
     <row r="67" spans="1:28">
       <c r="A67" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B67" s="1" t="n"/>
       <c r="C67" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D67" s="1" t="n">
         <v>-3.675</v>
@@ -5474,7 +5477,7 @@
       <c r="Q67" s="1" t="n"/>
       <c r="R67" s="1" t="n"/>
       <c r="S67" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T67" s="1" t="n">
         <v>1</v>
@@ -5500,11 +5503,11 @@
     </row>
     <row r="68" spans="1:28">
       <c r="A68" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B68" s="1" t="n"/>
       <c r="C68" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D68" s="1" t="n">
         <v>-2.625</v>
@@ -5546,7 +5549,7 @@
       <c r="Q68" s="1" t="n"/>
       <c r="R68" s="1" t="n"/>
       <c r="S68" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T68" s="1" t="n">
         <v>1</v>
@@ -5572,11 +5575,11 @@
     </row>
     <row r="69" spans="1:28">
       <c r="A69" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B69" s="1" t="n"/>
       <c r="C69" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D69" s="1" t="n">
         <v>-1.575</v>
@@ -5618,7 +5621,7 @@
       <c r="Q69" s="1" t="n"/>
       <c r="R69" s="1" t="n"/>
       <c r="S69" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T69" s="1" t="n">
         <v>1</v>
@@ -5644,11 +5647,11 @@
     </row>
     <row r="70" spans="1:28">
       <c r="A70" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B70" s="1" t="n"/>
       <c r="C70" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D70" s="1" t="n">
         <v>-0.525</v>
@@ -5690,7 +5693,7 @@
       <c r="Q70" s="1" t="n"/>
       <c r="R70" s="1" t="n"/>
       <c r="S70" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T70" s="1" t="n">
         <v>1</v>
@@ -5716,11 +5719,11 @@
     </row>
     <row r="71" spans="1:28">
       <c r="A71" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B71" s="1" t="n"/>
       <c r="C71" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D71" s="1" t="n">
         <v>0.525</v>
@@ -5762,7 +5765,7 @@
       <c r="Q71" s="1" t="n"/>
       <c r="R71" s="1" t="n"/>
       <c r="S71" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T71" s="1" t="n">
         <v>1</v>
@@ -5788,11 +5791,11 @@
     </row>
     <row r="72" spans="1:28">
       <c r="A72" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B72" s="1" t="n"/>
       <c r="C72" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D72" s="1" t="n">
         <v>1.575</v>
@@ -5834,7 +5837,7 @@
       <c r="Q72" s="1" t="n"/>
       <c r="R72" s="1" t="n"/>
       <c r="S72" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T72" s="1" t="n">
         <v>1</v>
@@ -5860,11 +5863,11 @@
     </row>
     <row r="73" spans="1:28">
       <c r="A73" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B73" s="1" t="n"/>
       <c r="C73" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D73" s="1" t="n">
         <v>2.625</v>
@@ -5906,7 +5909,7 @@
       <c r="Q73" s="1" t="n"/>
       <c r="R73" s="1" t="n"/>
       <c r="S73" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T73" s="1" t="n">
         <v>1</v>
@@ -5932,11 +5935,11 @@
     </row>
     <row r="74" spans="1:28">
       <c r="A74" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B74" s="1" t="n"/>
       <c r="C74" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D74" s="1" t="n">
         <v>3.675</v>
@@ -5978,7 +5981,7 @@
       <c r="Q74" s="1" t="n"/>
       <c r="R74" s="1" t="n"/>
       <c r="S74" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T74" s="1" t="n">
         <v>1</v>
@@ -6004,11 +6007,11 @@
     </row>
     <row r="75" spans="1:28">
       <c r="A75" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B75" s="1" t="n"/>
       <c r="C75" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D75" s="1" t="n">
         <v>4.725</v>
@@ -6050,7 +6053,7 @@
       <c r="Q75" s="1" t="n"/>
       <c r="R75" s="1" t="n"/>
       <c r="S75" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T75" s="1" t="n">
         <v>1</v>
@@ -6076,11 +6079,11 @@
     </row>
     <row r="76" spans="1:28">
       <c r="A76" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B76" s="1" t="n"/>
       <c r="C76" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D76" s="1" t="n">
         <v>5.775</v>
@@ -6122,7 +6125,7 @@
       <c r="Q76" s="1" t="n"/>
       <c r="R76" s="1" t="n"/>
       <c r="S76" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T76" s="1" t="n">
         <v>1</v>
@@ -6148,11 +6151,11 @@
     </row>
     <row r="77" spans="1:28">
       <c r="A77" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B77" s="1" t="n"/>
       <c r="C77" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D77" s="1" t="n">
         <v>6.825</v>
@@ -6194,7 +6197,7 @@
       <c r="Q77" s="1" t="n"/>
       <c r="R77" s="1" t="n"/>
       <c r="S77" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T77" s="1" t="n">
         <v>1</v>
@@ -6220,11 +6223,11 @@
     </row>
     <row r="78" spans="1:28">
       <c r="A78" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B78" s="1" t="n"/>
       <c r="C78" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D78" s="1" t="n">
         <v>7.875</v>
@@ -6266,7 +6269,7 @@
       <c r="Q78" s="1" t="n"/>
       <c r="R78" s="1" t="n"/>
       <c r="S78" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T78" s="1" t="n">
         <v>1</v>
@@ -6292,11 +6295,11 @@
     </row>
     <row r="79" spans="1:28">
       <c r="A79" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B79" s="1" t="n"/>
       <c r="C79" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D79" s="1" t="n">
         <v>8.925000000000001</v>
@@ -6338,7 +6341,7 @@
       <c r="Q79" s="1" t="n"/>
       <c r="R79" s="1" t="n"/>
       <c r="S79" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T79" s="1" t="n">
         <v>1</v>
@@ -6364,11 +6367,11 @@
     </row>
     <row r="80" spans="1:28">
       <c r="A80" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B80" s="1" t="n"/>
       <c r="C80" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D80" s="1" t="n">
         <v>9.975</v>
@@ -6410,7 +6413,7 @@
       <c r="Q80" s="1" t="n"/>
       <c r="R80" s="1" t="n"/>
       <c r="S80" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T80" s="1" t="n">
         <v>1</v>
@@ -6436,11 +6439,11 @@
     </row>
     <row r="81" spans="1:28">
       <c r="A81" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B81" s="1" t="n"/>
       <c r="C81" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D81" s="1" t="n">
         <v>-9.975</v>
@@ -6482,7 +6485,7 @@
       <c r="Q81" s="1" t="n"/>
       <c r="R81" s="1" t="n"/>
       <c r="S81" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T81" s="1" t="n">
         <v>1</v>
@@ -6508,11 +6511,11 @@
     </row>
     <row r="82" spans="1:28">
       <c r="A82" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B82" s="1" t="n"/>
       <c r="C82" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D82" s="1" t="n">
         <v>-8.925000000000001</v>
@@ -6554,7 +6557,7 @@
       <c r="Q82" s="1" t="n"/>
       <c r="R82" s="1" t="n"/>
       <c r="S82" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T82" s="1" t="n">
         <v>1</v>
@@ -6580,11 +6583,11 @@
     </row>
     <row r="83" spans="1:28">
       <c r="A83" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B83" s="1" t="n"/>
       <c r="C83" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D83" s="1" t="n">
         <v>-7.875</v>
@@ -6626,7 +6629,7 @@
       <c r="Q83" s="1" t="n"/>
       <c r="R83" s="1" t="n"/>
       <c r="S83" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T83" s="1" t="n">
         <v>1</v>
@@ -6652,11 +6655,11 @@
     </row>
     <row r="84" spans="1:28">
       <c r="A84" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B84" s="1" t="n"/>
       <c r="C84" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D84" s="1" t="n">
         <v>-6.825</v>
@@ -6698,7 +6701,7 @@
       <c r="Q84" s="1" t="n"/>
       <c r="R84" s="1" t="n"/>
       <c r="S84" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T84" s="1" t="n">
         <v>1</v>
@@ -6724,11 +6727,11 @@
     </row>
     <row r="85" spans="1:28">
       <c r="A85" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B85" s="1" t="n"/>
       <c r="C85" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D85" s="1" t="n">
         <v>-5.775</v>
@@ -6770,7 +6773,7 @@
       <c r="Q85" s="1" t="n"/>
       <c r="R85" s="1" t="n"/>
       <c r="S85" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T85" s="1" t="n">
         <v>1</v>
@@ -6796,11 +6799,11 @@
     </row>
     <row r="86" spans="1:28">
       <c r="A86" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B86" s="1" t="n"/>
       <c r="C86" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D86" s="1" t="n">
         <v>-4.725</v>
@@ -6842,7 +6845,7 @@
       <c r="Q86" s="1" t="n"/>
       <c r="R86" s="1" t="n"/>
       <c r="S86" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T86" s="1" t="n">
         <v>1</v>
@@ -6868,11 +6871,11 @@
     </row>
     <row r="87" spans="1:28">
       <c r="A87" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B87" s="1" t="n"/>
       <c r="C87" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D87" s="1" t="n">
         <v>-3.675</v>
@@ -6914,7 +6917,7 @@
       <c r="Q87" s="1" t="n"/>
       <c r="R87" s="1" t="n"/>
       <c r="S87" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T87" s="1" t="n">
         <v>1</v>
@@ -6940,11 +6943,11 @@
     </row>
     <row r="88" spans="1:28">
       <c r="A88" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B88" s="1" t="n"/>
       <c r="C88" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D88" s="1" t="n">
         <v>-2.625</v>
@@ -6986,7 +6989,7 @@
       <c r="Q88" s="1" t="n"/>
       <c r="R88" s="1" t="n"/>
       <c r="S88" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T88" s="1" t="n">
         <v>1</v>
@@ -7012,11 +7015,11 @@
     </row>
     <row r="89" spans="1:28">
       <c r="A89" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B89" s="1" t="n"/>
       <c r="C89" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D89" s="1" t="n">
         <v>-1.575</v>
@@ -7058,7 +7061,7 @@
       <c r="Q89" s="1" t="n"/>
       <c r="R89" s="1" t="n"/>
       <c r="S89" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T89" s="1" t="n">
         <v>1</v>
@@ -7084,11 +7087,11 @@
     </row>
     <row r="90" spans="1:28">
       <c r="A90" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B90" s="1" t="n"/>
       <c r="C90" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D90" s="1" t="n">
         <v>-0.525</v>
@@ -7130,7 +7133,7 @@
       <c r="Q90" s="1" t="n"/>
       <c r="R90" s="1" t="n"/>
       <c r="S90" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T90" s="1" t="n">
         <v>1</v>
@@ -7156,11 +7159,11 @@
     </row>
     <row r="91" spans="1:28">
       <c r="A91" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B91" s="1" t="n"/>
       <c r="C91" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D91" s="1" t="n">
         <v>0.525</v>
@@ -7202,7 +7205,7 @@
       <c r="Q91" s="1" t="n"/>
       <c r="R91" s="1" t="n"/>
       <c r="S91" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T91" s="1" t="n">
         <v>1</v>
@@ -7228,11 +7231,11 @@
     </row>
     <row r="92" spans="1:28">
       <c r="A92" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B92" s="1" t="n"/>
       <c r="C92" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D92" s="1" t="n">
         <v>1.575</v>
@@ -7274,7 +7277,7 @@
       <c r="Q92" s="1" t="n"/>
       <c r="R92" s="1" t="n"/>
       <c r="S92" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T92" s="1" t="n">
         <v>1</v>
@@ -7300,11 +7303,11 @@
     </row>
     <row r="93" spans="1:28">
       <c r="A93" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B93" s="1" t="n"/>
       <c r="C93" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D93" s="1" t="n">
         <v>2.625</v>
@@ -7346,7 +7349,7 @@
       <c r="Q93" s="1" t="n"/>
       <c r="R93" s="1" t="n"/>
       <c r="S93" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T93" s="1" t="n">
         <v>1</v>
@@ -7372,11 +7375,11 @@
     </row>
     <row r="94" spans="1:28">
       <c r="A94" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B94" s="1" t="n"/>
       <c r="C94" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D94" s="1" t="n">
         <v>3.675</v>
@@ -7418,7 +7421,7 @@
       <c r="Q94" s="1" t="n"/>
       <c r="R94" s="1" t="n"/>
       <c r="S94" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T94" s="1" t="n">
         <v>1</v>
@@ -7444,11 +7447,11 @@
     </row>
     <row r="95" spans="1:28">
       <c r="A95" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B95" s="1" t="n"/>
       <c r="C95" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D95" s="1" t="n">
         <v>4.725</v>
@@ -7490,7 +7493,7 @@
       <c r="Q95" s="1" t="n"/>
       <c r="R95" s="1" t="n"/>
       <c r="S95" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T95" s="1" t="n">
         <v>1</v>
@@ -7516,11 +7519,11 @@
     </row>
     <row r="96" spans="1:28">
       <c r="A96" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B96" s="1" t="n"/>
       <c r="C96" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D96" s="1" t="n">
         <v>5.775</v>
@@ -7562,7 +7565,7 @@
       <c r="Q96" s="1" t="n"/>
       <c r="R96" s="1" t="n"/>
       <c r="S96" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T96" s="1" t="n">
         <v>1</v>
@@ -7588,11 +7591,11 @@
     </row>
     <row r="97" spans="1:28">
       <c r="A97" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B97" s="1" t="n"/>
       <c r="C97" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D97" s="1" t="n">
         <v>6.825</v>
@@ -7634,7 +7637,7 @@
       <c r="Q97" s="1" t="n"/>
       <c r="R97" s="1" t="n"/>
       <c r="S97" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T97" s="1" t="n">
         <v>1</v>
@@ -7660,11 +7663,11 @@
     </row>
     <row r="98" spans="1:28">
       <c r="A98" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B98" s="1" t="n"/>
       <c r="C98" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D98" s="1" t="n">
         <v>7.875</v>
@@ -7706,7 +7709,7 @@
       <c r="Q98" s="1" t="n"/>
       <c r="R98" s="1" t="n"/>
       <c r="S98" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T98" s="1" t="n">
         <v>1</v>
@@ -7732,11 +7735,11 @@
     </row>
     <row r="99" spans="1:28">
       <c r="A99" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B99" s="1" t="n"/>
       <c r="C99" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D99" s="1" t="n">
         <v>8.925000000000001</v>
@@ -7778,7 +7781,7 @@
       <c r="Q99" s="1" t="n"/>
       <c r="R99" s="1" t="n"/>
       <c r="S99" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T99" s="1" t="n">
         <v>1</v>
@@ -7804,11 +7807,11 @@
     </row>
     <row r="100" spans="1:28">
       <c r="A100" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B100" s="1" t="n"/>
       <c r="C100" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D100" s="1" t="n">
         <v>9.975</v>
@@ -7850,7 +7853,7 @@
       <c r="Q100" s="1" t="n"/>
       <c r="R100" s="1" t="n"/>
       <c r="S100" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T100" s="1" t="n">
         <v>1</v>
@@ -7876,11 +7879,11 @@
     </row>
     <row r="101" spans="1:28">
       <c r="A101" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B101" s="1" t="n"/>
       <c r="C101" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D101" s="1" t="n">
         <v>-9.975</v>
@@ -7922,7 +7925,7 @@
       <c r="Q101" s="1" t="n"/>
       <c r="R101" s="1" t="n"/>
       <c r="S101" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T101" s="1" t="n">
         <v>1</v>
@@ -7948,11 +7951,11 @@
     </row>
     <row r="102" spans="1:28">
       <c r="A102" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B102" s="1" t="n"/>
       <c r="C102" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D102" s="1" t="n">
         <v>-8.925000000000001</v>
@@ -7994,7 +7997,7 @@
       <c r="Q102" s="1" t="n"/>
       <c r="R102" s="1" t="n"/>
       <c r="S102" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T102" s="1" t="n">
         <v>1</v>
@@ -8020,11 +8023,11 @@
     </row>
     <row r="103" spans="1:28">
       <c r="A103" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B103" s="1" t="n"/>
       <c r="C103" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D103" s="1" t="n">
         <v>-7.875</v>
@@ -8066,7 +8069,7 @@
       <c r="Q103" s="1" t="n"/>
       <c r="R103" s="1" t="n"/>
       <c r="S103" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T103" s="1" t="n">
         <v>1</v>
@@ -8092,11 +8095,11 @@
     </row>
     <row r="104" spans="1:28">
       <c r="A104" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B104" s="1" t="n"/>
       <c r="C104" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D104" s="1" t="n">
         <v>-6.825</v>
@@ -8138,7 +8141,7 @@
       <c r="Q104" s="1" t="n"/>
       <c r="R104" s="1" t="n"/>
       <c r="S104" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T104" s="1" t="n">
         <v>1</v>
@@ -8164,11 +8167,11 @@
     </row>
     <row r="105" spans="1:28">
       <c r="A105" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B105" s="1" t="n"/>
       <c r="C105" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D105" s="1" t="n">
         <v>-5.775</v>
@@ -8210,7 +8213,7 @@
       <c r="Q105" s="1" t="n"/>
       <c r="R105" s="1" t="n"/>
       <c r="S105" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T105" s="1" t="n">
         <v>1</v>
@@ -8236,11 +8239,11 @@
     </row>
     <row r="106" spans="1:28">
       <c r="A106" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B106" s="1" t="n"/>
       <c r="C106" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D106" s="1" t="n">
         <v>-4.725</v>
@@ -8282,7 +8285,7 @@
       <c r="Q106" s="1" t="n"/>
       <c r="R106" s="1" t="n"/>
       <c r="S106" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T106" s="1" t="n">
         <v>1</v>
@@ -8308,11 +8311,11 @@
     </row>
     <row r="107" spans="1:28">
       <c r="A107" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B107" s="1" t="n"/>
       <c r="C107" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D107" s="1" t="n">
         <v>-3.675</v>
@@ -8354,7 +8357,7 @@
       <c r="Q107" s="1" t="n"/>
       <c r="R107" s="1" t="n"/>
       <c r="S107" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T107" s="1" t="n">
         <v>1</v>
@@ -8380,11 +8383,11 @@
     </row>
     <row r="108" spans="1:28">
       <c r="A108" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B108" s="1" t="n"/>
       <c r="C108" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D108" s="1" t="n">
         <v>-2.625</v>
@@ -8426,7 +8429,7 @@
       <c r="Q108" s="1" t="n"/>
       <c r="R108" s="1" t="n"/>
       <c r="S108" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T108" s="1" t="n">
         <v>1</v>
@@ -8452,11 +8455,11 @@
     </row>
     <row r="109" spans="1:28">
       <c r="A109" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B109" s="1" t="n"/>
       <c r="C109" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D109" s="1" t="n">
         <v>-1.575</v>
@@ -8498,7 +8501,7 @@
       <c r="Q109" s="1" t="n"/>
       <c r="R109" s="1" t="n"/>
       <c r="S109" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T109" s="1" t="n">
         <v>1</v>
@@ -8524,11 +8527,11 @@
     </row>
     <row r="110" spans="1:28">
       <c r="A110" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B110" s="1" t="n"/>
       <c r="C110" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D110" s="1" t="n">
         <v>-0.525</v>
@@ -8570,7 +8573,7 @@
       <c r="Q110" s="1" t="n"/>
       <c r="R110" s="1" t="n"/>
       <c r="S110" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T110" s="1" t="n">
         <v>1</v>
@@ -8596,11 +8599,11 @@
     </row>
     <row r="111" spans="1:28">
       <c r="A111" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B111" s="1" t="n"/>
       <c r="C111" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D111" s="1" t="n">
         <v>0.525</v>
@@ -8642,7 +8645,7 @@
       <c r="Q111" s="1" t="n"/>
       <c r="R111" s="1" t="n"/>
       <c r="S111" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T111" s="1" t="n">
         <v>1</v>
@@ -8668,11 +8671,11 @@
     </row>
     <row r="112" spans="1:28">
       <c r="A112" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B112" s="1" t="n"/>
       <c r="C112" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D112" s="1" t="n">
         <v>1.575</v>
@@ -8714,7 +8717,7 @@
       <c r="Q112" s="1" t="n"/>
       <c r="R112" s="1" t="n"/>
       <c r="S112" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T112" s="1" t="n">
         <v>1</v>
@@ -8740,11 +8743,11 @@
     </row>
     <row r="113" spans="1:28">
       <c r="A113" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B113" s="1" t="n"/>
       <c r="C113" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D113" s="1" t="n">
         <v>2.625</v>
@@ -8786,7 +8789,7 @@
       <c r="Q113" s="1" t="n"/>
       <c r="R113" s="1" t="n"/>
       <c r="S113" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T113" s="1" t="n">
         <v>1</v>
@@ -8812,11 +8815,11 @@
     </row>
     <row r="114" spans="1:28">
       <c r="A114" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B114" s="1" t="n"/>
       <c r="C114" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D114" s="1" t="n">
         <v>3.675</v>
@@ -8858,7 +8861,7 @@
       <c r="Q114" s="1" t="n"/>
       <c r="R114" s="1" t="n"/>
       <c r="S114" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T114" s="1" t="n">
         <v>1</v>
@@ -8884,11 +8887,11 @@
     </row>
     <row r="115" spans="1:28">
       <c r="A115" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B115" s="1" t="n"/>
       <c r="C115" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D115" s="1" t="n">
         <v>4.725</v>
@@ -8930,7 +8933,7 @@
       <c r="Q115" s="1" t="n"/>
       <c r="R115" s="1" t="n"/>
       <c r="S115" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T115" s="1" t="n">
         <v>1</v>
@@ -8956,11 +8959,11 @@
     </row>
     <row r="116" spans="1:28">
       <c r="A116" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B116" s="1" t="n"/>
       <c r="C116" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D116" s="1" t="n">
         <v>5.775</v>
@@ -9002,7 +9005,7 @@
       <c r="Q116" s="1" t="n"/>
       <c r="R116" s="1" t="n"/>
       <c r="S116" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T116" s="1" t="n">
         <v>1</v>
@@ -9028,11 +9031,11 @@
     </row>
     <row r="117" spans="1:28">
       <c r="A117" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B117" s="1" t="n"/>
       <c r="C117" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D117" s="1" t="n">
         <v>6.825</v>
@@ -9074,7 +9077,7 @@
       <c r="Q117" s="1" t="n"/>
       <c r="R117" s="1" t="n"/>
       <c r="S117" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T117" s="1" t="n">
         <v>1</v>
@@ -9100,11 +9103,11 @@
     </row>
     <row r="118" spans="1:28">
       <c r="A118" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B118" s="1" t="n"/>
       <c r="C118" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D118" s="1" t="n">
         <v>7.875</v>
@@ -9146,7 +9149,7 @@
       <c r="Q118" s="1" t="n"/>
       <c r="R118" s="1" t="n"/>
       <c r="S118" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T118" s="1" t="n">
         <v>1</v>
@@ -9172,11 +9175,11 @@
     </row>
     <row r="119" spans="1:28">
       <c r="A119" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B119" s="1" t="n"/>
       <c r="C119" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D119" s="1" t="n">
         <v>8.925000000000001</v>
@@ -9218,7 +9221,7 @@
       <c r="Q119" s="1" t="n"/>
       <c r="R119" s="1" t="n"/>
       <c r="S119" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T119" s="1" t="n">
         <v>1</v>
@@ -9244,11 +9247,11 @@
     </row>
     <row r="120" spans="1:28">
       <c r="A120" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B120" s="1" t="n"/>
       <c r="C120" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D120" s="1" t="n">
         <v>9.975</v>
@@ -9290,7 +9293,7 @@
       <c r="Q120" s="1" t="n"/>
       <c r="R120" s="1" t="n"/>
       <c r="S120" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T120" s="1" t="n">
         <v>1</v>
@@ -9316,11 +9319,11 @@
     </row>
     <row r="121" spans="1:28">
       <c r="A121" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B121" s="1" t="n"/>
       <c r="C121" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D121" s="1" t="n">
         <v>-9.975</v>
@@ -9362,7 +9365,7 @@
       <c r="Q121" s="1" t="n"/>
       <c r="R121" s="1" t="n"/>
       <c r="S121" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T121" s="1" t="n">
         <v>1</v>
@@ -9388,11 +9391,11 @@
     </row>
     <row r="122" spans="1:28">
       <c r="A122" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B122" s="1" t="n"/>
       <c r="C122" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D122" s="1" t="n">
         <v>-8.925000000000001</v>
@@ -9434,7 +9437,7 @@
       <c r="Q122" s="1" t="n"/>
       <c r="R122" s="1" t="n"/>
       <c r="S122" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T122" s="1" t="n">
         <v>1</v>
@@ -9460,11 +9463,11 @@
     </row>
     <row r="123" spans="1:28">
       <c r="A123" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B123" s="1" t="n"/>
       <c r="C123" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D123" s="1" t="n">
         <v>-7.875</v>
@@ -9506,7 +9509,7 @@
       <c r="Q123" s="1" t="n"/>
       <c r="R123" s="1" t="n"/>
       <c r="S123" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T123" s="1" t="n">
         <v>1</v>
@@ -9532,11 +9535,11 @@
     </row>
     <row r="124" spans="1:28">
       <c r="A124" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B124" s="1" t="n"/>
       <c r="C124" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D124" s="1" t="n">
         <v>-6.825</v>
@@ -9578,7 +9581,7 @@
       <c r="Q124" s="1" t="n"/>
       <c r="R124" s="1" t="n"/>
       <c r="S124" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T124" s="1" t="n">
         <v>1</v>
@@ -9604,11 +9607,11 @@
     </row>
     <row r="125" spans="1:28">
       <c r="A125" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B125" s="1" t="n"/>
       <c r="C125" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D125" s="1" t="n">
         <v>-5.775</v>
@@ -9650,7 +9653,7 @@
       <c r="Q125" s="1" t="n"/>
       <c r="R125" s="1" t="n"/>
       <c r="S125" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T125" s="1" t="n">
         <v>1</v>
@@ -9676,11 +9679,11 @@
     </row>
     <row r="126" spans="1:28">
       <c r="A126" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B126" s="1" t="n"/>
       <c r="C126" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D126" s="1" t="n">
         <v>-4.725</v>
@@ -9722,7 +9725,7 @@
       <c r="Q126" s="1" t="n"/>
       <c r="R126" s="1" t="n"/>
       <c r="S126" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T126" s="1" t="n">
         <v>1</v>
@@ -9748,11 +9751,11 @@
     </row>
     <row r="127" spans="1:28">
       <c r="A127" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B127" s="1" t="n"/>
       <c r="C127" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D127" s="1" t="n">
         <v>-3.675</v>
@@ -9794,7 +9797,7 @@
       <c r="Q127" s="1" t="n"/>
       <c r="R127" s="1" t="n"/>
       <c r="S127" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T127" s="1" t="n">
         <v>1</v>
@@ -9820,11 +9823,11 @@
     </row>
     <row r="128" spans="1:28">
       <c r="A128" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B128" s="1" t="n"/>
       <c r="C128" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D128" s="1" t="n">
         <v>-2.625</v>
@@ -9866,7 +9869,7 @@
       <c r="Q128" s="1" t="n"/>
       <c r="R128" s="1" t="n"/>
       <c r="S128" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T128" s="1" t="n">
         <v>1</v>
@@ -9892,11 +9895,11 @@
     </row>
     <row r="129" spans="1:28">
       <c r="A129" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B129" s="1" t="n"/>
       <c r="C129" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D129" s="1" t="n">
         <v>-1.575</v>
@@ -9938,7 +9941,7 @@
       <c r="Q129" s="1" t="n"/>
       <c r="R129" s="1" t="n"/>
       <c r="S129" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T129" s="1" t="n">
         <v>1</v>
@@ -9964,11 +9967,11 @@
     </row>
     <row r="130" spans="1:28">
       <c r="A130" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B130" s="1" t="n"/>
       <c r="C130" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D130" s="1" t="n">
         <v>-0.525</v>
@@ -10010,7 +10013,7 @@
       <c r="Q130" s="1" t="n"/>
       <c r="R130" s="1" t="n"/>
       <c r="S130" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T130" s="1" t="n">
         <v>1</v>
@@ -10036,11 +10039,11 @@
     </row>
     <row r="131" spans="1:28">
       <c r="A131" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B131" s="1" t="n"/>
       <c r="C131" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D131" s="1" t="n">
         <v>0.525</v>
@@ -10082,7 +10085,7 @@
       <c r="Q131" s="1" t="n"/>
       <c r="R131" s="1" t="n"/>
       <c r="S131" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T131" s="1" t="n">
         <v>1</v>
@@ -10108,11 +10111,11 @@
     </row>
     <row r="132" spans="1:28">
       <c r="A132" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B132" s="1" t="n"/>
       <c r="C132" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D132" s="1" t="n">
         <v>1.575</v>
@@ -10154,7 +10157,7 @@
       <c r="Q132" s="1" t="n"/>
       <c r="R132" s="1" t="n"/>
       <c r="S132" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T132" s="1" t="n">
         <v>1</v>
@@ -10180,11 +10183,11 @@
     </row>
     <row r="133" spans="1:28">
       <c r="A133" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B133" s="1" t="n"/>
       <c r="C133" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D133" s="1" t="n">
         <v>2.625</v>
@@ -10226,7 +10229,7 @@
       <c r="Q133" s="1" t="n"/>
       <c r="R133" s="1" t="n"/>
       <c r="S133" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T133" s="1" t="n">
         <v>1</v>
@@ -10252,11 +10255,11 @@
     </row>
     <row r="134" spans="1:28">
       <c r="A134" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B134" s="1" t="n"/>
       <c r="C134" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D134" s="1" t="n">
         <v>3.675</v>
@@ -10298,7 +10301,7 @@
       <c r="Q134" s="1" t="n"/>
       <c r="R134" s="1" t="n"/>
       <c r="S134" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T134" s="1" t="n">
         <v>1</v>
@@ -10324,11 +10327,11 @@
     </row>
     <row r="135" spans="1:28">
       <c r="A135" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B135" s="1" t="n"/>
       <c r="C135" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D135" s="1" t="n">
         <v>4.725</v>
@@ -10370,7 +10373,7 @@
       <c r="Q135" s="1" t="n"/>
       <c r="R135" s="1" t="n"/>
       <c r="S135" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T135" s="1" t="n">
         <v>1</v>
@@ -10396,11 +10399,11 @@
     </row>
     <row r="136" spans="1:28">
       <c r="A136" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B136" s="1" t="n"/>
       <c r="C136" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D136" s="1" t="n">
         <v>5.775</v>
@@ -10442,7 +10445,7 @@
       <c r="Q136" s="1" t="n"/>
       <c r="R136" s="1" t="n"/>
       <c r="S136" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T136" s="1" t="n">
         <v>1</v>
@@ -10468,11 +10471,11 @@
     </row>
     <row r="137" spans="1:28">
       <c r="A137" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B137" s="1" t="n"/>
       <c r="C137" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D137" s="1" t="n">
         <v>6.825</v>
@@ -10514,7 +10517,7 @@
       <c r="Q137" s="1" t="n"/>
       <c r="R137" s="1" t="n"/>
       <c r="S137" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T137" s="1" t="n">
         <v>1</v>
@@ -10540,11 +10543,11 @@
     </row>
     <row r="138" spans="1:28">
       <c r="A138" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B138" s="1" t="n"/>
       <c r="C138" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D138" s="1" t="n">
         <v>7.875</v>
@@ -10586,7 +10589,7 @@
       <c r="Q138" s="1" t="n"/>
       <c r="R138" s="1" t="n"/>
       <c r="S138" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T138" s="1" t="n">
         <v>1</v>
@@ -10612,11 +10615,11 @@
     </row>
     <row r="139" spans="1:28">
       <c r="A139" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B139" s="1" t="n"/>
       <c r="C139" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D139" s="1" t="n">
         <v>8.925000000000001</v>
@@ -10658,7 +10661,7 @@
       <c r="Q139" s="1" t="n"/>
       <c r="R139" s="1" t="n"/>
       <c r="S139" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T139" s="1" t="n">
         <v>1</v>
@@ -10684,11 +10687,11 @@
     </row>
     <row r="140" spans="1:28">
       <c r="A140" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B140" s="1" t="n"/>
       <c r="C140" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D140" s="1" t="n">
         <v>9.975</v>
@@ -10730,7 +10733,7 @@
       <c r="Q140" s="1" t="n"/>
       <c r="R140" s="1" t="n"/>
       <c r="S140" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T140" s="1" t="n">
         <v>1</v>
@@ -10756,11 +10759,11 @@
     </row>
     <row r="141" spans="1:28">
       <c r="A141" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B141" s="1" t="n"/>
       <c r="C141" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D141" s="1" t="n">
         <v>-9.975</v>
@@ -10802,7 +10805,7 @@
       <c r="Q141" s="1" t="n"/>
       <c r="R141" s="1" t="n"/>
       <c r="S141" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T141" s="1" t="n">
         <v>1</v>
@@ -10828,11 +10831,11 @@
     </row>
     <row r="142" spans="1:28">
       <c r="A142" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B142" s="1" t="n"/>
       <c r="C142" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D142" s="1" t="n">
         <v>-8.925000000000001</v>
@@ -10874,7 +10877,7 @@
       <c r="Q142" s="1" t="n"/>
       <c r="R142" s="1" t="n"/>
       <c r="S142" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T142" s="1" t="n">
         <v>1</v>
@@ -10900,11 +10903,11 @@
     </row>
     <row r="143" spans="1:28">
       <c r="A143" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B143" s="1" t="n"/>
       <c r="C143" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D143" s="1" t="n">
         <v>-7.875</v>
@@ -10946,7 +10949,7 @@
       <c r="Q143" s="1" t="n"/>
       <c r="R143" s="1" t="n"/>
       <c r="S143" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T143" s="1" t="n">
         <v>1</v>
@@ -10972,11 +10975,11 @@
     </row>
     <row r="144" spans="1:28">
       <c r="A144" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B144" s="1" t="n"/>
       <c r="C144" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D144" s="1" t="n">
         <v>-6.825</v>
@@ -11018,7 +11021,7 @@
       <c r="Q144" s="1" t="n"/>
       <c r="R144" s="1" t="n"/>
       <c r="S144" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T144" s="1" t="n">
         <v>1</v>
@@ -11044,11 +11047,11 @@
     </row>
     <row r="145" spans="1:28">
       <c r="A145" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B145" s="1" t="n"/>
       <c r="C145" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D145" s="1" t="n">
         <v>-5.775</v>
@@ -11090,7 +11093,7 @@
       <c r="Q145" s="1" t="n"/>
       <c r="R145" s="1" t="n"/>
       <c r="S145" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T145" s="1" t="n">
         <v>1</v>
@@ -11116,11 +11119,11 @@
     </row>
     <row r="146" spans="1:28">
       <c r="A146" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B146" s="1" t="n"/>
       <c r="C146" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D146" s="1" t="n">
         <v>-4.725</v>
@@ -11162,7 +11165,7 @@
       <c r="Q146" s="1" t="n"/>
       <c r="R146" s="1" t="n"/>
       <c r="S146" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T146" s="1" t="n">
         <v>1</v>
@@ -11188,11 +11191,11 @@
     </row>
     <row r="147" spans="1:28">
       <c r="A147" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B147" s="1" t="n"/>
       <c r="C147" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D147" s="1" t="n">
         <v>-3.675</v>
@@ -11234,7 +11237,7 @@
       <c r="Q147" s="1" t="n"/>
       <c r="R147" s="1" t="n"/>
       <c r="S147" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T147" s="1" t="n">
         <v>1</v>
@@ -11260,11 +11263,11 @@
     </row>
     <row r="148" spans="1:28">
       <c r="A148" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B148" s="1" t="n"/>
       <c r="C148" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D148" s="1" t="n">
         <v>-2.625</v>
@@ -11306,7 +11309,7 @@
       <c r="Q148" s="1" t="n"/>
       <c r="R148" s="1" t="n"/>
       <c r="S148" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T148" s="1" t="n">
         <v>1</v>
@@ -11332,11 +11335,11 @@
     </row>
     <row r="149" spans="1:28">
       <c r="A149" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B149" s="1" t="n"/>
       <c r="C149" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D149" s="1" t="n">
         <v>-1.575</v>
@@ -11378,7 +11381,7 @@
       <c r="Q149" s="1" t="n"/>
       <c r="R149" s="1" t="n"/>
       <c r="S149" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T149" s="1" t="n">
         <v>1</v>
@@ -11404,11 +11407,11 @@
     </row>
     <row r="150" spans="1:28">
       <c r="A150" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B150" s="1" t="n"/>
       <c r="C150" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D150" s="1" t="n">
         <v>-0.525</v>
@@ -11450,7 +11453,7 @@
       <c r="Q150" s="1" t="n"/>
       <c r="R150" s="1" t="n"/>
       <c r="S150" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T150" s="1" t="n">
         <v>1</v>
@@ -11476,11 +11479,11 @@
     </row>
     <row r="151" spans="1:28">
       <c r="A151" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B151" s="1" t="n"/>
       <c r="C151" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D151" s="1" t="n">
         <v>0.525</v>
@@ -11522,7 +11525,7 @@
       <c r="Q151" s="1" t="n"/>
       <c r="R151" s="1" t="n"/>
       <c r="S151" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T151" s="1" t="n">
         <v>1</v>
@@ -11548,11 +11551,11 @@
     </row>
     <row r="152" spans="1:28">
       <c r="A152" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B152" s="1" t="n"/>
       <c r="C152" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D152" s="1" t="n">
         <v>1.575</v>
@@ -11594,7 +11597,7 @@
       <c r="Q152" s="1" t="n"/>
       <c r="R152" s="1" t="n"/>
       <c r="S152" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T152" s="1" t="n">
         <v>1</v>
@@ -11620,11 +11623,11 @@
     </row>
     <row r="153" spans="1:28">
       <c r="A153" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B153" s="1" t="n"/>
       <c r="C153" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D153" s="1" t="n">
         <v>2.625</v>
@@ -11666,7 +11669,7 @@
       <c r="Q153" s="1" t="n"/>
       <c r="R153" s="1" t="n"/>
       <c r="S153" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T153" s="1" t="n">
         <v>1</v>
@@ -11692,11 +11695,11 @@
     </row>
     <row r="154" spans="1:28">
       <c r="A154" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B154" s="1" t="n"/>
       <c r="C154" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D154" s="1" t="n">
         <v>3.675</v>
@@ -11738,7 +11741,7 @@
       <c r="Q154" s="1" t="n"/>
       <c r="R154" s="1" t="n"/>
       <c r="S154" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T154" s="1" t="n">
         <v>1</v>
@@ -11764,11 +11767,11 @@
     </row>
     <row r="155" spans="1:28">
       <c r="A155" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B155" s="1" t="n"/>
       <c r="C155" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D155" s="1" t="n">
         <v>4.725</v>
@@ -11810,7 +11813,7 @@
       <c r="Q155" s="1" t="n"/>
       <c r="R155" s="1" t="n"/>
       <c r="S155" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T155" s="1" t="n">
         <v>1</v>
@@ -11836,11 +11839,11 @@
     </row>
     <row r="156" spans="1:28">
       <c r="A156" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B156" s="1" t="n"/>
       <c r="C156" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D156" s="1" t="n">
         <v>5.775</v>
@@ -11882,7 +11885,7 @@
       <c r="Q156" s="1" t="n"/>
       <c r="R156" s="1" t="n"/>
       <c r="S156" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T156" s="1" t="n">
         <v>1</v>
@@ -11908,11 +11911,11 @@
     </row>
     <row r="157" spans="1:28">
       <c r="A157" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B157" s="1" t="n"/>
       <c r="C157" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D157" s="1" t="n">
         <v>6.825</v>
@@ -11954,7 +11957,7 @@
       <c r="Q157" s="1" t="n"/>
       <c r="R157" s="1" t="n"/>
       <c r="S157" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T157" s="1" t="n">
         <v>1</v>
@@ -11980,11 +11983,11 @@
     </row>
     <row r="158" spans="1:28">
       <c r="A158" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B158" s="1" t="n"/>
       <c r="C158" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D158" s="1" t="n">
         <v>7.875</v>
@@ -12026,7 +12029,7 @@
       <c r="Q158" s="1" t="n"/>
       <c r="R158" s="1" t="n"/>
       <c r="S158" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T158" s="1" t="n">
         <v>1</v>
@@ -12052,11 +12055,11 @@
     </row>
     <row r="159" spans="1:28">
       <c r="A159" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B159" s="1" t="n"/>
       <c r="C159" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D159" s="1" t="n">
         <v>8.925000000000001</v>
@@ -12098,7 +12101,7 @@
       <c r="Q159" s="1" t="n"/>
       <c r="R159" s="1" t="n"/>
       <c r="S159" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T159" s="1" t="n">
         <v>1</v>
@@ -12124,11 +12127,11 @@
     </row>
     <row r="160" spans="1:28">
       <c r="A160" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B160" s="1" t="n"/>
       <c r="C160" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D160" s="1" t="n">
         <v>9.975</v>
@@ -12170,7 +12173,7 @@
       <c r="Q160" s="1" t="n"/>
       <c r="R160" s="1" t="n"/>
       <c r="S160" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T160" s="1" t="n">
         <v>1</v>
@@ -12196,11 +12199,11 @@
     </row>
     <row r="161" spans="1:28">
       <c r="A161" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B161" s="1" t="n"/>
       <c r="C161" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D161" s="1" t="n">
         <v>-9.975</v>
@@ -12242,7 +12245,7 @@
       <c r="Q161" s="1" t="n"/>
       <c r="R161" s="1" t="n"/>
       <c r="S161" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T161" s="1" t="n">
         <v>1</v>
@@ -12268,11 +12271,11 @@
     </row>
     <row r="162" spans="1:28">
       <c r="A162" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B162" s="1" t="n"/>
       <c r="C162" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D162" s="1" t="n">
         <v>-8.925000000000001</v>
@@ -12314,7 +12317,7 @@
       <c r="Q162" s="1" t="n"/>
       <c r="R162" s="1" t="n"/>
       <c r="S162" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T162" s="1" t="n">
         <v>1</v>
@@ -12340,11 +12343,11 @@
     </row>
     <row r="163" spans="1:28">
       <c r="A163" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B163" s="1" t="n"/>
       <c r="C163" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D163" s="1" t="n">
         <v>-7.875</v>
@@ -12386,7 +12389,7 @@
       <c r="Q163" s="1" t="n"/>
       <c r="R163" s="1" t="n"/>
       <c r="S163" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T163" s="1" t="n">
         <v>1</v>
@@ -12412,11 +12415,11 @@
     </row>
     <row r="164" spans="1:28">
       <c r="A164" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B164" s="1" t="n"/>
       <c r="C164" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D164" s="1" t="n">
         <v>-6.825</v>
@@ -12458,7 +12461,7 @@
       <c r="Q164" s="1" t="n"/>
       <c r="R164" s="1" t="n"/>
       <c r="S164" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T164" s="1" t="n">
         <v>1</v>
@@ -12484,11 +12487,11 @@
     </row>
     <row r="165" spans="1:28">
       <c r="A165" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B165" s="1" t="n"/>
       <c r="C165" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D165" s="1" t="n">
         <v>-5.775</v>
@@ -12530,7 +12533,7 @@
       <c r="Q165" s="1" t="n"/>
       <c r="R165" s="1" t="n"/>
       <c r="S165" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T165" s="1" t="n">
         <v>1</v>
@@ -12556,11 +12559,11 @@
     </row>
     <row r="166" spans="1:28">
       <c r="A166" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B166" s="1" t="n"/>
       <c r="C166" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D166" s="1" t="n">
         <v>-4.725</v>
@@ -12602,7 +12605,7 @@
       <c r="Q166" s="1" t="n"/>
       <c r="R166" s="1" t="n"/>
       <c r="S166" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T166" s="1" t="n">
         <v>1</v>
@@ -12628,11 +12631,11 @@
     </row>
     <row r="167" spans="1:28">
       <c r="A167" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B167" s="1" t="n"/>
       <c r="C167" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D167" s="1" t="n">
         <v>-3.675</v>
@@ -12674,7 +12677,7 @@
       <c r="Q167" s="1" t="n"/>
       <c r="R167" s="1" t="n"/>
       <c r="S167" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T167" s="1" t="n">
         <v>1</v>
@@ -12700,11 +12703,11 @@
     </row>
     <row r="168" spans="1:28">
       <c r="A168" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B168" s="1" t="n"/>
       <c r="C168" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D168" s="1" t="n">
         <v>-2.625</v>
@@ -12746,7 +12749,7 @@
       <c r="Q168" s="1" t="n"/>
       <c r="R168" s="1" t="n"/>
       <c r="S168" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T168" s="1" t="n">
         <v>1</v>
@@ -12772,11 +12775,11 @@
     </row>
     <row r="169" spans="1:28">
       <c r="A169" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B169" s="1" t="n"/>
       <c r="C169" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D169" s="1" t="n">
         <v>-1.575</v>
@@ -12818,7 +12821,7 @@
       <c r="Q169" s="1" t="n"/>
       <c r="R169" s="1" t="n"/>
       <c r="S169" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T169" s="1" t="n">
         <v>1</v>
@@ -12844,11 +12847,11 @@
     </row>
     <row r="170" spans="1:28">
       <c r="A170" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B170" s="1" t="n"/>
       <c r="C170" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D170" s="1" t="n">
         <v>-0.525</v>
@@ -12890,7 +12893,7 @@
       <c r="Q170" s="1" t="n"/>
       <c r="R170" s="1" t="n"/>
       <c r="S170" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T170" s="1" t="n">
         <v>1</v>
@@ -12916,11 +12919,11 @@
     </row>
     <row r="171" spans="1:28">
       <c r="A171" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B171" s="1" t="n"/>
       <c r="C171" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D171" s="1" t="n">
         <v>0.525</v>
@@ -12962,7 +12965,7 @@
       <c r="Q171" s="1" t="n"/>
       <c r="R171" s="1" t="n"/>
       <c r="S171" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T171" s="1" t="n">
         <v>1</v>
@@ -12988,11 +12991,11 @@
     </row>
     <row r="172" spans="1:28">
       <c r="A172" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B172" s="1" t="n"/>
       <c r="C172" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D172" s="1" t="n">
         <v>1.575</v>
@@ -13034,7 +13037,7 @@
       <c r="Q172" s="1" t="n"/>
       <c r="R172" s="1" t="n"/>
       <c r="S172" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T172" s="1" t="n">
         <v>1</v>
@@ -13060,11 +13063,11 @@
     </row>
     <row r="173" spans="1:28">
       <c r="A173" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B173" s="1" t="n"/>
       <c r="C173" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D173" s="1" t="n">
         <v>2.625</v>
@@ -13106,7 +13109,7 @@
       <c r="Q173" s="1" t="n"/>
       <c r="R173" s="1" t="n"/>
       <c r="S173" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T173" s="1" t="n">
         <v>1</v>
@@ -13132,11 +13135,11 @@
     </row>
     <row r="174" spans="1:28">
       <c r="A174" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B174" s="1" t="n"/>
       <c r="C174" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D174" s="1" t="n">
         <v>3.675</v>
@@ -13178,7 +13181,7 @@
       <c r="Q174" s="1" t="n"/>
       <c r="R174" s="1" t="n"/>
       <c r="S174" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T174" s="1" t="n">
         <v>1</v>
@@ -13204,11 +13207,11 @@
     </row>
     <row r="175" spans="1:28">
       <c r="A175" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B175" s="1" t="n"/>
       <c r="C175" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D175" s="1" t="n">
         <v>4.725</v>
@@ -13250,7 +13253,7 @@
       <c r="Q175" s="1" t="n"/>
       <c r="R175" s="1" t="n"/>
       <c r="S175" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T175" s="1" t="n">
         <v>1</v>
@@ -13276,11 +13279,11 @@
     </row>
     <row r="176" spans="1:28">
       <c r="A176" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B176" s="1" t="n"/>
       <c r="C176" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D176" s="1" t="n">
         <v>5.775</v>
@@ -13322,7 +13325,7 @@
       <c r="Q176" s="1" t="n"/>
       <c r="R176" s="1" t="n"/>
       <c r="S176" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T176" s="1" t="n">
         <v>1</v>
@@ -13348,11 +13351,11 @@
     </row>
     <row r="177" spans="1:28">
       <c r="A177" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B177" s="1" t="n"/>
       <c r="C177" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D177" s="1" t="n">
         <v>6.825</v>
@@ -13394,7 +13397,7 @@
       <c r="Q177" s="1" t="n"/>
       <c r="R177" s="1" t="n"/>
       <c r="S177" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T177" s="1" t="n">
         <v>1</v>
@@ -13420,11 +13423,11 @@
     </row>
     <row r="178" spans="1:28">
       <c r="A178" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B178" s="1" t="n"/>
       <c r="C178" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D178" s="1" t="n">
         <v>7.875</v>
@@ -13466,7 +13469,7 @@
       <c r="Q178" s="1" t="n"/>
       <c r="R178" s="1" t="n"/>
       <c r="S178" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T178" s="1" t="n">
         <v>1</v>
@@ -13492,11 +13495,11 @@
     </row>
     <row r="179" spans="1:28">
       <c r="A179" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B179" s="1" t="n"/>
       <c r="C179" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D179" s="1" t="n">
         <v>8.925000000000001</v>
@@ -13538,7 +13541,7 @@
       <c r="Q179" s="1" t="n"/>
       <c r="R179" s="1" t="n"/>
       <c r="S179" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T179" s="1" t="n">
         <v>1</v>
@@ -13564,11 +13567,11 @@
     </row>
     <row r="180" spans="1:28">
       <c r="A180" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B180" s="1" t="n"/>
       <c r="C180" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D180" s="1" t="n">
         <v>9.975</v>
@@ -13610,7 +13613,7 @@
       <c r="Q180" s="1" t="n"/>
       <c r="R180" s="1" t="n"/>
       <c r="S180" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T180" s="1" t="n">
         <v>1</v>
@@ -13636,11 +13639,11 @@
     </row>
     <row r="181" spans="1:28">
       <c r="A181" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B181" s="1" t="n"/>
       <c r="C181" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D181" s="1" t="n">
         <v>-9.975</v>
@@ -13682,7 +13685,7 @@
       <c r="Q181" s="1" t="n"/>
       <c r="R181" s="1" t="n"/>
       <c r="S181" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T181" s="1" t="n">
         <v>1</v>
@@ -13708,11 +13711,11 @@
     </row>
     <row r="182" spans="1:28">
       <c r="A182" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B182" s="1" t="n"/>
       <c r="C182" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D182" s="1" t="n">
         <v>-8.925000000000001</v>
@@ -13754,7 +13757,7 @@
       <c r="Q182" s="1" t="n"/>
       <c r="R182" s="1" t="n"/>
       <c r="S182" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T182" s="1" t="n">
         <v>1</v>
@@ -13780,11 +13783,11 @@
     </row>
     <row r="183" spans="1:28">
       <c r="A183" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B183" s="1" t="n"/>
       <c r="C183" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D183" s="1" t="n">
         <v>-7.875</v>
@@ -13826,7 +13829,7 @@
       <c r="Q183" s="1" t="n"/>
       <c r="R183" s="1" t="n"/>
       <c r="S183" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T183" s="1" t="n">
         <v>1</v>
@@ -13852,11 +13855,11 @@
     </row>
     <row r="184" spans="1:28">
       <c r="A184" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B184" s="1" t="n"/>
       <c r="C184" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D184" s="1" t="n">
         <v>-6.825</v>
@@ -13898,7 +13901,7 @@
       <c r="Q184" s="1" t="n"/>
       <c r="R184" s="1" t="n"/>
       <c r="S184" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T184" s="1" t="n">
         <v>1</v>
@@ -13924,11 +13927,11 @@
     </row>
     <row r="185" spans="1:28">
       <c r="A185" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B185" s="1" t="n"/>
       <c r="C185" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D185" s="1" t="n">
         <v>-5.775</v>
@@ -13970,7 +13973,7 @@
       <c r="Q185" s="1" t="n"/>
       <c r="R185" s="1" t="n"/>
       <c r="S185" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T185" s="1" t="n">
         <v>1</v>
@@ -13996,11 +13999,11 @@
     </row>
     <row r="186" spans="1:28">
       <c r="A186" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B186" s="1" t="n"/>
       <c r="C186" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D186" s="1" t="n">
         <v>-4.725</v>
@@ -14042,7 +14045,7 @@
       <c r="Q186" s="1" t="n"/>
       <c r="R186" s="1" t="n"/>
       <c r="S186" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T186" s="1" t="n">
         <v>1</v>
@@ -14068,11 +14071,11 @@
     </row>
     <row r="187" spans="1:28">
       <c r="A187" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B187" s="1" t="n"/>
       <c r="C187" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D187" s="1" t="n">
         <v>-3.675</v>
@@ -14114,7 +14117,7 @@
       <c r="Q187" s="1" t="n"/>
       <c r="R187" s="1" t="n"/>
       <c r="S187" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T187" s="1" t="n">
         <v>1</v>
@@ -14140,11 +14143,11 @@
     </row>
     <row r="188" spans="1:28">
       <c r="A188" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B188" s="1" t="n"/>
       <c r="C188" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D188" s="1" t="n">
         <v>-2.625</v>
@@ -14186,7 +14189,7 @@
       <c r="Q188" s="1" t="n"/>
       <c r="R188" s="1" t="n"/>
       <c r="S188" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T188" s="1" t="n">
         <v>1</v>
@@ -14212,11 +14215,11 @@
     </row>
     <row r="189" spans="1:28">
       <c r="A189" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B189" s="1" t="n"/>
       <c r="C189" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D189" s="1" t="n">
         <v>-3.15</v>
@@ -14284,11 +14287,11 @@
     </row>
     <row r="190" spans="1:28">
       <c r="A190" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B190" s="1" t="n"/>
       <c r="C190" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D190" s="1" t="n">
         <v>-3.15</v>
@@ -14356,11 +14359,11 @@
     </row>
     <row r="191" spans="1:28">
       <c r="A191" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B191" s="1" t="n"/>
       <c r="C191" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D191" s="1" t="n">
         <v>-3.15</v>
@@ -14428,11 +14431,11 @@
     </row>
     <row r="192" spans="1:28">
       <c r="A192" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B192" s="1" t="n"/>
       <c r="C192" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D192" s="1" t="n">
         <v>1.354</v>
@@ -14500,11 +14503,11 @@
     </row>
     <row r="193" spans="1:28">
       <c r="A193" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B193" s="1" t="n"/>
       <c r="C193" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D193" s="1" t="n">
         <v>1.354</v>
@@ -14572,11 +14575,11 @@
     </row>
     <row r="194" spans="1:28">
       <c r="A194" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B194" s="1" t="n"/>
       <c r="C194" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D194" s="1" t="n">
         <v>-6.45</v>
@@ -14646,11 +14649,11 @@
     </row>
     <row r="195" spans="1:28">
       <c r="A195" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B195" s="1" t="n"/>
       <c r="C195" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D195" s="1" t="n">
         <v>-9.199999999999999</v>
@@ -14720,11 +14723,11 @@
     </row>
     <row r="196" spans="1:28">
       <c r="A196" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B196" s="1" t="n"/>
       <c r="C196" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D196" s="1" t="n">
         <v>-0.15</v>
@@ -14792,11 +14795,11 @@
     </row>
     <row r="197" spans="1:28">
       <c r="A197" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B197" s="1" t="n"/>
       <c r="C197" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D197" s="1" t="n">
         <v>-0.15</v>
@@ -14864,11 +14867,11 @@
     </row>
     <row r="198" spans="1:28">
       <c r="A198" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B198" s="1" t="n"/>
       <c r="C198" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D198" s="1" t="n">
         <v>-0.35</v>
@@ -14936,11 +14939,11 @@
     </row>
     <row r="199" spans="1:28">
       <c r="A199" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B199" s="1" t="n"/>
       <c r="C199" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D199" s="1" t="n">
         <v>0.4</v>
@@ -15008,11 +15011,11 @@
     </row>
     <row r="200" spans="1:28">
       <c r="A200" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B200" s="1" t="n"/>
       <c r="C200" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D200" s="1" t="n">
         <v>0.4</v>
@@ -15080,11 +15083,11 @@
     </row>
     <row r="201" spans="1:28">
       <c r="A201" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B201" s="1" t="n"/>
       <c r="C201" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D201" s="1" t="n">
         <v>-2.942</v>
@@ -15152,11 +15155,11 @@
     </row>
     <row r="202" spans="1:28">
       <c r="A202" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B202" s="1" t="n"/>
       <c r="C202" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D202" s="1" t="n">
         <v>-2.942</v>
@@ -15224,11 +15227,11 @@
     </row>
     <row r="203" spans="1:28">
       <c r="A203" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B203" s="1" t="n"/>
       <c r="C203" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D203" s="1" t="n">
         <v>-5.45</v>
@@ -15296,11 +15299,11 @@
     </row>
     <row r="204" spans="1:28">
       <c r="A204" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B204" s="1" t="n"/>
       <c r="C204" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D204" s="1" t="n">
         <v>0.4</v>
@@ -15368,11 +15371,11 @@
     </row>
     <row r="205" spans="1:28">
       <c r="A205" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B205" s="1" t="n"/>
       <c r="C205" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D205" s="1" t="n">
         <v>-0.77</v>
@@ -15440,11 +15443,11 @@
     </row>
     <row r="206" spans="1:28">
       <c r="A206" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B206" s="1" t="n"/>
       <c r="C206" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D206" s="1" t="n">
         <v>-0.77</v>
@@ -15512,11 +15515,11 @@
     </row>
     <row r="207" spans="1:28">
       <c r="A207" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B207" s="1" t="n"/>
       <c r="C207" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D207" s="1" t="n">
         <v>-2.9</v>
@@ -15584,11 +15587,11 @@
     </row>
     <row r="208" spans="1:28">
       <c r="A208" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B208" s="1" t="n"/>
       <c r="C208" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D208" s="1" t="n">
         <v>8</v>
@@ -15656,11 +15659,11 @@
     </row>
     <row r="209" spans="1:28">
       <c r="A209" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B209" s="1" t="n"/>
       <c r="C209" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D209" s="1" t="n">
         <v>8</v>
@@ -15728,11 +15731,11 @@
     </row>
     <row r="210" spans="1:28">
       <c r="A210" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B210" s="1" t="n"/>
       <c r="C210" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D210" s="1" t="n">
         <v>6.8</v>
@@ -15800,11 +15803,11 @@
     </row>
     <row r="211" spans="1:28">
       <c r="A211" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B211" s="1" t="n"/>
       <c r="C211" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D211" s="1" t="n">
         <v>-9.24</v>
@@ -15872,11 +15875,11 @@
     </row>
     <row r="212" spans="1:28">
       <c r="A212" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B212" s="1" t="n"/>
       <c r="C212" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D212" s="1" t="n">
         <v>-9.24</v>
@@ -15944,11 +15947,11 @@
     </row>
     <row r="213" spans="1:28">
       <c r="A213" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B213" s="1" t="n"/>
       <c r="C213" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D213" s="1" t="n">
         <v>-6.3</v>
@@ -16018,11 +16021,11 @@
     </row>
     <row r="214" spans="1:28">
       <c r="A214" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B214" s="1" t="n"/>
       <c r="C214" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D214" s="1" t="n">
         <v>-6.3</v>
@@ -16090,11 +16093,11 @@
     </row>
     <row r="215" spans="1:28">
       <c r="A215" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B215" s="1" t="n"/>
       <c r="C215" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D215" s="1" t="n">
         <v>-6.3</v>
@@ -16162,11 +16165,11 @@
     </row>
     <row r="216" spans="1:28">
       <c r="A216" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B216" s="1" t="n"/>
       <c r="C216" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D216" s="1" t="n">
         <v>-10.05</v>
@@ -16234,11 +16237,11 @@
     </row>
     <row r="217" spans="1:28">
       <c r="A217" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B217" s="1" t="n"/>
       <c r="C217" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D217" s="1" t="n">
         <v>-10.05</v>
@@ -16306,11 +16309,11 @@
     </row>
     <row r="218" spans="1:28">
       <c r="A218" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B218" s="1" t="n"/>
       <c r="C218" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D218" s="1" t="n">
         <v>-5.9</v>
@@ -16380,11 +16383,11 @@
     </row>
     <row r="219" spans="1:28">
       <c r="A219" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B219" s="1" t="n"/>
       <c r="C219" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D219" s="1" t="n">
         <v>-5.9</v>
@@ -16454,11 +16457,11 @@
     </row>
     <row r="220" spans="1:28">
       <c r="A220" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B220" s="1" t="n"/>
       <c r="C220" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D220" s="1" t="n">
         <v>-5.9</v>
@@ -16526,11 +16529,11 @@
     </row>
     <row r="221" spans="1:28">
       <c r="A221" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B221" s="1" t="n"/>
       <c r="C221" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D221" s="1" t="n">
         <v>-5.9</v>
@@ -16598,11 +16601,11 @@
     </row>
     <row r="222" spans="1:28">
       <c r="A222" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B222" s="1" t="n"/>
       <c r="C222" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D222" s="1" t="n">
         <v>-7.35</v>
@@ -16670,11 +16673,11 @@
     </row>
     <row r="223" spans="1:28">
       <c r="A223" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B223" s="1" t="n"/>
       <c r="C223" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D223" s="1" t="n">
         <v>-3.549</v>
@@ -16742,11 +16745,11 @@
     </row>
     <row r="224" spans="1:28">
       <c r="A224" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B224" s="1" t="n"/>
       <c r="C224" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D224" s="1" t="n">
         <v>-3.549</v>
@@ -16814,11 +16817,11 @@
     </row>
     <row r="225" spans="1:28">
       <c r="A225" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B225" s="1" t="n"/>
       <c r="C225" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D225" s="1" t="n">
         <v>-3.549</v>
@@ -16886,11 +16889,11 @@
     </row>
     <row r="226" spans="1:28">
       <c r="A226" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B226" s="1" t="n"/>
       <c r="C226" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D226" s="1" t="n">
         <v>-2.9</v>
@@ -16958,11 +16961,11 @@
     </row>
     <row r="227" spans="1:28">
       <c r="A227" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B227" s="1" t="n"/>
       <c r="C227" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D227" s="1" t="n">
         <v>-2.9</v>
@@ -17030,11 +17033,11 @@
     </row>
     <row r="228" spans="1:28">
       <c r="A228" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B228" s="1" t="n"/>
       <c r="C228" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D228" s="1" t="n">
         <v>-2.9</v>
@@ -17102,11 +17105,11 @@
     </row>
     <row r="229" spans="1:28">
       <c r="A229" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B229" s="1" t="n"/>
       <c r="C229" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D229" s="1" t="n">
         <v>-1.67</v>
@@ -17174,11 +17177,11 @@
     </row>
     <row r="230" spans="1:28">
       <c r="A230" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B230" s="1" t="n"/>
       <c r="C230" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D230" s="1" t="n">
         <v>-1.67</v>
@@ -17246,11 +17249,11 @@
     </row>
     <row r="231" spans="1:28">
       <c r="A231" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B231" s="1" t="n"/>
       <c r="C231" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D231" s="1" t="n">
         <v>-8.800000000000001</v>
@@ -17318,11 +17321,11 @@
     </row>
     <row r="232" spans="1:28">
       <c r="A232" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B232" s="1" t="n"/>
       <c r="C232" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D232" s="1" t="n">
         <v>-0.34</v>
@@ -17353,13 +17356,13 @@
         <v>0</v>
       </c>
       <c r="N232" s="1" t="n">
-        <v>-4.2</v>
+        <v>0</v>
       </c>
       <c r="O232" s="1" t="n">
         <v>-0.34</v>
       </c>
       <c r="P232" s="1" t="n">
-        <v>-3.95</v>
+        <v>-8.15</v>
       </c>
       <c r="Q232" s="1" t="n"/>
       <c r="R232" s="1" t="n"/>
@@ -17367,22 +17370,22 @@
         <v>32</v>
       </c>
       <c r="T232" s="1" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="U232" s="1" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="V232" s="1" t="n">
-        <v>4.2</v>
+        <v>0.1</v>
       </c>
       <c r="W232" s="1" t="n">
-        <v>-0.342</v>
+        <v>-0.542</v>
       </c>
       <c r="X232" s="1" t="n">
-        <v>16.8</v>
+        <v>60</v>
       </c>
       <c r="Y232" s="1" t="n">
-        <v>8.4</v>
+        <v>51.2</v>
       </c>
       <c r="Z232" s="1" t="n"/>
       <c r="AA232" s="1" t="n"/>
@@ -17390,11 +17393,11 @@
     </row>
     <row r="233" spans="1:28">
       <c r="A233" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B233" s="1" t="n"/>
       <c r="C233" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D233" s="1" t="n">
         <v>-0.34</v>
@@ -17439,22 +17442,22 @@
         <v>32</v>
       </c>
       <c r="T233" s="1" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="U233" s="1" t="n">
         <v>2</v>
       </c>
       <c r="V233" s="1" t="n">
-        <v>0.1</v>
+        <v>4.2</v>
       </c>
       <c r="W233" s="1" t="n">
-        <v>-0.542</v>
+        <v>-0.342</v>
       </c>
       <c r="X233" s="1" t="n">
-        <v>60</v>
+        <v>8.4</v>
       </c>
       <c r="Y233" s="1" t="n">
-        <v>51.2</v>
+        <v>67.2</v>
       </c>
       <c r="Z233" s="1" t="n"/>
       <c r="AA233" s="1" t="n"/>
@@ -17462,11 +17465,11 @@
     </row>
     <row r="234" spans="1:28">
       <c r="A234" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B234" s="1" t="n"/>
       <c r="C234" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D234" s="1" t="n">
         <v>-0.34</v>
@@ -17511,22 +17514,22 @@
         <v>32</v>
       </c>
       <c r="T234" s="1" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="U234" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V234" s="1" t="n">
-        <v>4.2</v>
+        <v>21.7</v>
       </c>
       <c r="W234" s="1" t="n">
-        <v>-0.342</v>
+        <v>33.658</v>
       </c>
       <c r="X234" s="1" t="n">
-        <v>8.4</v>
+        <v>0</v>
       </c>
       <c r="Y234" s="1" t="n">
-        <v>67.2</v>
+        <v>0</v>
       </c>
       <c r="Z234" s="1" t="n"/>
       <c r="AA234" s="1" t="n"/>
@@ -17534,35 +17537,35 @@
     </row>
     <row r="235" spans="1:28">
       <c r="A235" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B235" s="1" t="n"/>
       <c r="C235" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D235" s="1" t="n">
-        <v>-0.34</v>
+        <v>-5.65</v>
       </c>
       <c r="E235" s="1" t="n">
-        <v>-8.15</v>
+        <v>4.4</v>
       </c>
       <c r="F235" s="1" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G235" s="1" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="G235" s="1" t="n">
-        <v>0.4</v>
-      </c>
       <c r="H235" s="1" t="n">
-        <v>-4.74</v>
+        <v>-5.850000000000001</v>
       </c>
       <c r="I235" s="1" t="n">
-        <v>4.06</v>
+        <v>-5.45</v>
       </c>
       <c r="J235" s="1" t="n">
-        <v>-7.95</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="K235" s="1" t="n">
-        <v>-8.35</v>
+        <v>0</v>
       </c>
       <c r="L235" s="1" t="n"/>
       <c r="M235" s="1" t="n">
@@ -17572,10 +17575,10 @@
         <v>0</v>
       </c>
       <c r="O235" s="1" t="n">
-        <v>-0.34</v>
+        <v>-5.65</v>
       </c>
       <c r="P235" s="1" t="n">
-        <v>-8.15</v>
+        <v>4.4</v>
       </c>
       <c r="Q235" s="1" t="n"/>
       <c r="R235" s="1" t="n"/>
@@ -17583,22 +17586,22 @@
         <v>32</v>
       </c>
       <c r="T235" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U235" s="1" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="V235" s="1" t="n">
-        <v>21.7</v>
+        <v>0</v>
       </c>
       <c r="W235" s="1" t="n">
-        <v>33.658</v>
+        <v>-0.342</v>
       </c>
       <c r="X235" s="1" t="n">
-        <v>0</v>
+        <v>68.2</v>
       </c>
       <c r="Y235" s="1" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="Z235" s="1" t="n"/>
       <c r="AA235" s="1" t="n"/>
@@ -17606,11 +17609,11 @@
     </row>
     <row r="236" spans="1:28">
       <c r="A236" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B236" s="1" t="n"/>
       <c r="C236" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D236" s="1" t="n">
         <v>-5.65</v>
@@ -17655,22 +17658,22 @@
         <v>32</v>
       </c>
       <c r="T236" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U236" s="1" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="V236" s="1" t="n">
-        <v>0</v>
+        <v>25.9</v>
       </c>
       <c r="W236" s="1" t="n">
-        <v>-0.342</v>
+        <v>29.258</v>
       </c>
       <c r="X236" s="1" t="n">
-        <v>68.2</v>
+        <v>0</v>
       </c>
       <c r="Y236" s="1" t="n">
-        <v>8.4</v>
+        <v>0</v>
       </c>
       <c r="Z236" s="1" t="n"/>
       <c r="AA236" s="1" t="n"/>
@@ -17678,11 +17681,11 @@
     </row>
     <row r="237" spans="1:28">
       <c r="A237" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B237" s="1" t="n"/>
       <c r="C237" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D237" s="1" t="n">
         <v>-5.65</v>
@@ -17733,10 +17736,10 @@
         <v>1</v>
       </c>
       <c r="V237" s="1" t="n">
-        <v>25.9</v>
+        <v>25.7</v>
       </c>
       <c r="W237" s="1" t="n">
-        <v>29.258</v>
+        <v>29.058</v>
       </c>
       <c r="X237" s="1" t="n">
         <v>0</v>
@@ -17750,35 +17753,35 @@
     </row>
     <row r="238" spans="1:28">
       <c r="A238" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B238" s="1" t="n"/>
       <c r="C238" s="1" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D238" s="1" t="n">
-        <v>-5.65</v>
+        <v>-1.72</v>
       </c>
       <c r="E238" s="1" t="n">
-        <v>4.4</v>
+        <v>-2.175</v>
       </c>
       <c r="F238" s="1" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="G238" s="1" t="n">
         <v>0.4</v>
       </c>
-      <c r="G238" s="1" t="n">
-        <v>8.800000000000001</v>
-      </c>
       <c r="H238" s="1" t="n">
-        <v>-5.850000000000001</v>
+        <v>-2.32</v>
       </c>
       <c r="I238" s="1" t="n">
-        <v>-5.45</v>
+        <v>-1.12</v>
       </c>
       <c r="J238" s="1" t="n">
-        <v>8.800000000000001</v>
+        <v>-1.975</v>
       </c>
       <c r="K238" s="1" t="n">
-        <v>0</v>
+        <v>-2.375</v>
       </c>
       <c r="L238" s="1" t="n"/>
       <c r="M238" s="1" t="n">
@@ -17788,10 +17791,10 @@
         <v>0</v>
       </c>
       <c r="O238" s="1" t="n">
-        <v>-5.65</v>
+        <v>-1.72</v>
       </c>
       <c r="P238" s="1" t="n">
-        <v>4.4</v>
+        <v>-2.175</v>
       </c>
       <c r="Q238" s="1" t="n"/>
       <c r="R238" s="1" t="n"/>
@@ -17802,19 +17805,19 @@
         <v>1</v>
       </c>
       <c r="U238" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V238" s="1" t="n">
-        <v>25.7</v>
+        <v>33.6</v>
       </c>
       <c r="W238" s="1" t="n">
-        <v>29.058</v>
+        <v>3.748</v>
       </c>
       <c r="X238" s="1" t="n">
         <v>0</v>
       </c>
       <c r="Y238" s="1" t="n">
-        <v>0</v>
+        <v>16.8</v>
       </c>
       <c r="Z238" s="1" t="n"/>
       <c r="AA238" s="1" t="n"/>
@@ -17822,11 +17825,11 @@
     </row>
     <row r="239" spans="1:28">
       <c r="A239" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B239" s="1" t="n"/>
       <c r="C239" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D239" s="1" t="n">
         <v>-1.72</v>
@@ -17877,10 +17880,10 @@
         <v>3</v>
       </c>
       <c r="V239" s="1" t="n">
-        <v>33.6</v>
+        <v>-33.6</v>
       </c>
       <c r="W239" s="1" t="n">
-        <v>3.748</v>
+        <v>-4.424</v>
       </c>
       <c r="X239" s="1" t="n">
         <v>0</v>
@@ -17894,35 +17897,35 @@
     </row>
     <row r="240" spans="1:28">
       <c r="A240" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B240" s="1" t="n"/>
       <c r="C240" s="1" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D240" s="1" t="n">
-        <v>-1.72</v>
+        <v>-4.617</v>
       </c>
       <c r="E240" s="1" t="n">
-        <v>-2.175</v>
+        <v>-1.615</v>
       </c>
       <c r="F240" s="1" t="n">
         <v>1.2</v>
       </c>
       <c r="G240" s="1" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="H240" s="1" t="n">
-        <v>-2.32</v>
+        <v>-5.217</v>
       </c>
       <c r="I240" s="1" t="n">
-        <v>-1.12</v>
+        <v>-4.017</v>
       </c>
       <c r="J240" s="1" t="n">
-        <v>-1.975</v>
+        <v>-1.315</v>
       </c>
       <c r="K240" s="1" t="n">
-        <v>-2.375</v>
+        <v>-1.915</v>
       </c>
       <c r="L240" s="1" t="n"/>
       <c r="M240" s="1" t="n">
@@ -17932,10 +17935,10 @@
         <v>0</v>
       </c>
       <c r="O240" s="1" t="n">
-        <v>-1.72</v>
+        <v>-4.617</v>
       </c>
       <c r="P240" s="1" t="n">
-        <v>-2.175</v>
+        <v>-1.615</v>
       </c>
       <c r="Q240" s="1" t="n"/>
       <c r="R240" s="1" t="n"/>
@@ -17943,22 +17946,22 @@
         <v>32</v>
       </c>
       <c r="T240" s="1" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="U240" s="1" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="V240" s="1" t="n">
-        <v>-33.6</v>
+        <v>0</v>
       </c>
       <c r="W240" s="1" t="n">
-        <v>-4.424</v>
+        <v>-0.343</v>
       </c>
       <c r="X240" s="1" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="Y240" s="1" t="n">
-        <v>16.8</v>
+        <v>8.4</v>
       </c>
       <c r="Z240" s="1" t="n"/>
       <c r="AA240" s="1" t="n"/>
@@ -17966,35 +17969,35 @@
     </row>
     <row r="241" spans="1:28">
       <c r="A241" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B241" s="1" t="n"/>
       <c r="C241" s="1" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D241" s="1" t="n">
-        <v>-4.617</v>
+        <v>-1.8</v>
       </c>
       <c r="E241" s="1" t="n">
-        <v>-1.615</v>
+        <v>-7.275</v>
       </c>
       <c r="F241" s="1" t="n">
         <v>1.2</v>
       </c>
       <c r="G241" s="1" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="H241" s="1" t="n">
-        <v>-5.217</v>
+        <v>-2.4</v>
       </c>
       <c r="I241" s="1" t="n">
-        <v>-4.017</v>
+        <v>-1.2</v>
       </c>
       <c r="J241" s="1" t="n">
-        <v>-1.315</v>
+        <v>-7.075</v>
       </c>
       <c r="K241" s="1" t="n">
-        <v>-1.915</v>
+        <v>-7.475000000000001</v>
       </c>
       <c r="L241" s="1" t="n"/>
       <c r="M241" s="1" t="n">
@@ -18004,10 +18007,10 @@
         <v>0</v>
       </c>
       <c r="O241" s="1" t="n">
-        <v>-4.617</v>
+        <v>-1.8</v>
       </c>
       <c r="P241" s="1" t="n">
-        <v>-1.615</v>
+        <v>-7.275</v>
       </c>
       <c r="Q241" s="1" t="n"/>
       <c r="R241" s="1" t="n"/>
@@ -18015,22 +18018,22 @@
         <v>32</v>
       </c>
       <c r="T241" s="1" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="U241" s="1" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="V241" s="1" t="n">
-        <v>0</v>
+        <v>-33.605</v>
       </c>
       <c r="W241" s="1" t="n">
-        <v>-0.343</v>
+        <v>-4.532</v>
       </c>
       <c r="X241" s="1" t="n">
-        <v>8.4</v>
+        <v>0</v>
       </c>
       <c r="Y241" s="1" t="n">
-        <v>8.4</v>
+        <v>16.8</v>
       </c>
       <c r="Z241" s="1" t="n"/>
       <c r="AA241" s="1" t="n"/>
@@ -18038,11 +18041,11 @@
     </row>
     <row r="242" spans="1:28">
       <c r="A242" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B242" s="1" t="n"/>
       <c r="C242" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D242" s="1" t="n">
         <v>-1.8</v>
@@ -18093,10 +18096,10 @@
         <v>3</v>
       </c>
       <c r="V242" s="1" t="n">
-        <v>-33.605</v>
+        <v>33.605</v>
       </c>
       <c r="W242" s="1" t="n">
-        <v>-4.532</v>
+        <v>3.847</v>
       </c>
       <c r="X242" s="1" t="n">
         <v>0</v>
@@ -18110,35 +18113,35 @@
     </row>
     <row r="243" spans="1:28">
       <c r="A243" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B243" s="1" t="n"/>
       <c r="C243" s="1" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D243" s="1" t="n">
-        <v>-1.8</v>
+        <v>-9.69</v>
       </c>
       <c r="E243" s="1" t="n">
-        <v>-7.275</v>
+        <v>-6.325</v>
       </c>
       <c r="F243" s="1" t="n">
-        <v>1.2</v>
+        <v>0.4</v>
       </c>
       <c r="G243" s="1" t="n">
-        <v>0.4</v>
+        <v>8.9</v>
       </c>
       <c r="H243" s="1" t="n">
-        <v>-2.4</v>
+        <v>-9.889999999999999</v>
       </c>
       <c r="I243" s="1" t="n">
-        <v>-1.2</v>
+        <v>-9.49</v>
       </c>
       <c r="J243" s="1" t="n">
-        <v>-7.075</v>
+        <v>-1.875</v>
       </c>
       <c r="K243" s="1" t="n">
-        <v>-7.475000000000001</v>
+        <v>-10.775</v>
       </c>
       <c r="L243" s="1" t="n"/>
       <c r="M243" s="1" t="n">
@@ -18148,10 +18151,10 @@
         <v>0</v>
       </c>
       <c r="O243" s="1" t="n">
-        <v>-1.8</v>
+        <v>-9.69</v>
       </c>
       <c r="P243" s="1" t="n">
-        <v>-7.275</v>
+        <v>-6.325</v>
       </c>
       <c r="Q243" s="1" t="n"/>
       <c r="R243" s="1" t="n"/>
@@ -18162,19 +18165,19 @@
         <v>1</v>
       </c>
       <c r="U243" s="1" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="V243" s="1" t="n">
-        <v>33.605</v>
+        <v>34.3</v>
       </c>
       <c r="W243" s="1" t="n">
-        <v>3.847</v>
+        <v>-0.442</v>
       </c>
       <c r="X243" s="1" t="n">
         <v>0</v>
       </c>
       <c r="Y243" s="1" t="n">
-        <v>16.8</v>
+        <v>8.5</v>
       </c>
       <c r="Z243" s="1" t="n"/>
       <c r="AA243" s="1" t="n"/>
@@ -18182,35 +18185,35 @@
     </row>
     <row r="244" spans="1:28">
       <c r="A244" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B244" s="1" t="n"/>
       <c r="C244" s="1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D244" s="1" t="n">
-        <v>-9.69</v>
+        <v>6.35</v>
       </c>
       <c r="E244" s="1" t="n">
-        <v>-6.325</v>
+        <v>-8.25</v>
       </c>
       <c r="F244" s="1" t="n">
-        <v>0.4</v>
+        <v>1.5</v>
       </c>
       <c r="G244" s="1" t="n">
-        <v>8.9</v>
+        <v>1.5</v>
       </c>
       <c r="H244" s="1" t="n">
-        <v>-9.889999999999999</v>
+        <v>5.6</v>
       </c>
       <c r="I244" s="1" t="n">
-        <v>-9.49</v>
+        <v>7.1</v>
       </c>
       <c r="J244" s="1" t="n">
-        <v>-1.875</v>
+        <v>-7.5</v>
       </c>
       <c r="K244" s="1" t="n">
-        <v>-10.775</v>
+        <v>-9</v>
       </c>
       <c r="L244" s="1" t="n"/>
       <c r="M244" s="1" t="n">
@@ -18220,10 +18223,10 @@
         <v>0</v>
       </c>
       <c r="O244" s="1" t="n">
-        <v>-9.69</v>
+        <v>6.35</v>
       </c>
       <c r="P244" s="1" t="n">
-        <v>-6.325</v>
+        <v>-8.25</v>
       </c>
       <c r="Q244" s="1" t="n"/>
       <c r="R244" s="1" t="n"/>
@@ -18234,19 +18237,19 @@
         <v>1</v>
       </c>
       <c r="U244" s="1" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="V244" s="1" t="n">
-        <v>34.3</v>
+        <v>-22.189</v>
       </c>
       <c r="W244" s="1" t="n">
-        <v>-0.442</v>
+        <v>34.091</v>
       </c>
       <c r="X244" s="1" t="n">
         <v>0</v>
       </c>
       <c r="Y244" s="1" t="n">
-        <v>8.5</v>
+        <v>0</v>
       </c>
       <c r="Z244" s="1" t="n"/>
       <c r="AA244" s="1" t="n"/>
@@ -18254,35 +18257,35 @@
     </row>
     <row r="245" spans="1:28">
       <c r="A245" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B245" s="1" t="n"/>
       <c r="C245" s="1" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D245" s="1" t="n">
-        <v>6.35</v>
+        <v>-5.25</v>
       </c>
       <c r="E245" s="1" t="n">
-        <v>-8.25</v>
+        <v>-4.2</v>
       </c>
       <c r="F245" s="1" t="n">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="G245" s="1" t="n">
         <v>1.5</v>
       </c>
       <c r="H245" s="1" t="n">
-        <v>5.6</v>
+        <v>-5.65</v>
       </c>
       <c r="I245" s="1" t="n">
-        <v>7.1</v>
+        <v>-4.85</v>
       </c>
       <c r="J245" s="1" t="n">
-        <v>-7.5</v>
+        <v>-3.45</v>
       </c>
       <c r="K245" s="1" t="n">
-        <v>-9</v>
+        <v>-4.95</v>
       </c>
       <c r="L245" s="1" t="n"/>
       <c r="M245" s="1" t="n">
@@ -18292,10 +18295,10 @@
         <v>0</v>
       </c>
       <c r="O245" s="1" t="n">
-        <v>6.35</v>
+        <v>-5.25</v>
       </c>
       <c r="P245" s="1" t="n">
-        <v>-8.25</v>
+        <v>-4.2</v>
       </c>
       <c r="Q245" s="1" t="n"/>
       <c r="R245" s="1" t="n"/>
@@ -18309,7 +18312,7 @@
         <v>1</v>
       </c>
       <c r="V245" s="1" t="n">
-        <v>-22.189</v>
+        <v>13.087</v>
       </c>
       <c r="W245" s="1" t="n">
         <v>34.091</v>
@@ -18326,35 +18329,35 @@
     </row>
     <row r="246" spans="1:28">
       <c r="A246" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B246" s="1" t="n"/>
       <c r="C246" s="1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D246" s="1" t="n">
-        <v>-5.25</v>
+        <v>5.45</v>
       </c>
       <c r="E246" s="1" t="n">
-        <v>-4.2</v>
+        <v>10.25</v>
       </c>
       <c r="F246" s="1" t="n">
-        <v>0.8</v>
+        <v>10.1</v>
       </c>
       <c r="G246" s="1" t="n">
         <v>1.5</v>
       </c>
       <c r="H246" s="1" t="n">
-        <v>-5.65</v>
+        <v>0.4000000000000004</v>
       </c>
       <c r="I246" s="1" t="n">
-        <v>-4.85</v>
+        <v>10.5</v>
       </c>
       <c r="J246" s="1" t="n">
-        <v>-3.45</v>
+        <v>11</v>
       </c>
       <c r="K246" s="1" t="n">
-        <v>-4.95</v>
+        <v>9.5</v>
       </c>
       <c r="L246" s="1" t="n"/>
       <c r="M246" s="1" t="n">
@@ -18364,10 +18367,10 @@
         <v>0</v>
       </c>
       <c r="O246" s="1" t="n">
-        <v>-5.25</v>
+        <v>5.45</v>
       </c>
       <c r="P246" s="1" t="n">
-        <v>-4.2</v>
+        <v>10.25</v>
       </c>
       <c r="Q246" s="1" t="n"/>
       <c r="R246" s="1" t="n"/>
@@ -18375,22 +18378,22 @@
         <v>32</v>
       </c>
       <c r="T246" s="1" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U246" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V246" s="1" t="n">
-        <v>13.087</v>
+        <v>-3.85</v>
       </c>
       <c r="W246" s="1" t="n">
-        <v>34.091</v>
+        <v>0</v>
       </c>
       <c r="X246" s="1" t="n">
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="Y246" s="1" t="n">
-        <v>0</v>
+        <v>71.29000000000001</v>
       </c>
       <c r="Z246" s="1" t="n"/>
       <c r="AA246" s="1" t="n"/>
@@ -18398,35 +18401,35 @@
     </row>
     <row r="247" spans="1:28">
       <c r="A247" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B247" s="1" t="n"/>
       <c r="C247" s="1" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D247" s="1" t="n">
-        <v>5.45</v>
+        <v>-1</v>
       </c>
       <c r="E247" s="1" t="n">
-        <v>10.25</v>
+        <v>3.9</v>
       </c>
       <c r="F247" s="1" t="n">
-        <v>10.1</v>
+        <v>7.9</v>
       </c>
       <c r="G247" s="1" t="n">
-        <v>1.5</v>
+        <v>7.8</v>
       </c>
       <c r="H247" s="1" t="n">
-        <v>0.4000000000000004</v>
+        <v>-4.95</v>
       </c>
       <c r="I247" s="1" t="n">
-        <v>10.5</v>
+        <v>2.95</v>
       </c>
       <c r="J247" s="1" t="n">
-        <v>11</v>
+        <v>7.8</v>
       </c>
       <c r="K247" s="1" t="n">
-        <v>9.5</v>
+        <v>0</v>
       </c>
       <c r="L247" s="1" t="n"/>
       <c r="M247" s="1" t="n">
@@ -18436,10 +18439,10 @@
         <v>0</v>
       </c>
       <c r="O247" s="1" t="n">
-        <v>5.45</v>
+        <v>-1</v>
       </c>
       <c r="P247" s="1" t="n">
-        <v>10.25</v>
+        <v>3.9</v>
       </c>
       <c r="Q247" s="1" t="n"/>
       <c r="R247" s="1" t="n"/>
@@ -18447,22 +18450,22 @@
         <v>32</v>
       </c>
       <c r="T247" s="1" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="U247" s="1" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="V247" s="1" t="n">
-        <v>-3.85</v>
+        <v>0</v>
       </c>
       <c r="W247" s="1" t="n">
-        <v>0</v>
+        <v>-0.342</v>
       </c>
       <c r="X247" s="1" t="n">
-        <v>6.4</v>
+        <v>8.4</v>
       </c>
       <c r="Y247" s="1" t="n">
-        <v>71.29000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="Z247" s="1" t="n"/>
       <c r="AA247" s="1" t="n"/>
@@ -18470,35 +18473,35 @@
     </row>
     <row r="248" spans="1:28">
       <c r="A248" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B248" s="1" t="n"/>
       <c r="C248" s="1" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D248" s="1" t="n">
-        <v>-1</v>
+        <v>-1.65</v>
       </c>
       <c r="E248" s="1" t="n">
-        <v>3.9</v>
+        <v>-3.9</v>
       </c>
       <c r="F248" s="1" t="n">
-        <v>7.9</v>
+        <v>0.9</v>
       </c>
       <c r="G248" s="1" t="n">
-        <v>7.8</v>
+        <v>0.9</v>
       </c>
       <c r="H248" s="1" t="n">
-        <v>-4.95</v>
+        <v>-2.1</v>
       </c>
       <c r="I248" s="1" t="n">
-        <v>2.95</v>
+        <v>-1.2</v>
       </c>
       <c r="J248" s="1" t="n">
-        <v>7.8</v>
+        <v>-3.45</v>
       </c>
       <c r="K248" s="1" t="n">
-        <v>0</v>
+        <v>-4.35</v>
       </c>
       <c r="L248" s="1" t="n"/>
       <c r="M248" s="1" t="n">
@@ -18508,10 +18511,10 @@
         <v>0</v>
       </c>
       <c r="O248" s="1" t="n">
-        <v>-1</v>
+        <v>-1.65</v>
       </c>
       <c r="P248" s="1" t="n">
-        <v>3.9</v>
+        <v>-3.9</v>
       </c>
       <c r="Q248" s="1" t="n"/>
       <c r="R248" s="1" t="n"/>
@@ -18519,22 +18522,22 @@
         <v>32</v>
       </c>
       <c r="T248" s="1" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="U248" s="1" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="V248" s="1" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="W248" s="1" t="n">
-        <v>-0.342</v>
+        <v>35.945</v>
       </c>
       <c r="X248" s="1" t="n">
-        <v>8.4</v>
+        <v>1</v>
       </c>
       <c r="Y248" s="1" t="n">
-        <v>8.4</v>
+        <v>0</v>
       </c>
       <c r="Z248" s="1" t="n"/>
       <c r="AA248" s="1" t="n"/>
@@ -18542,11 +18545,11 @@
     </row>
     <row r="249" spans="1:28">
       <c r="A249" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B249" s="1" t="n"/>
       <c r="C249" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D249" s="1" t="n">
         <v>-1.65</v>
@@ -18597,7 +18600,7 @@
         <v>1</v>
       </c>
       <c r="V249" s="1" t="n">
-        <v>13.5</v>
+        <v>-21.2</v>
       </c>
       <c r="W249" s="1" t="n">
         <v>35.945</v>
@@ -18614,35 +18617,35 @@
     </row>
     <row r="250" spans="1:28">
       <c r="A250" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B250" s="1" t="n"/>
       <c r="C250" s="1" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D250" s="1" t="n">
-        <v>-1.65</v>
+        <v>2.8</v>
       </c>
       <c r="E250" s="1" t="n">
-        <v>-3.9</v>
+        <v>-0.5</v>
       </c>
       <c r="F250" s="1" t="n">
-        <v>0.9</v>
+        <v>4</v>
       </c>
       <c r="G250" s="1" t="n">
         <v>0.9</v>
       </c>
       <c r="H250" s="1" t="n">
-        <v>-2.1</v>
+        <v>0.7999999999999998</v>
       </c>
       <c r="I250" s="1" t="n">
-        <v>-1.2</v>
+        <v>4.8</v>
       </c>
       <c r="J250" s="1" t="n">
-        <v>-3.45</v>
+        <v>-0.04999999999999999</v>
       </c>
       <c r="K250" s="1" t="n">
-        <v>-4.35</v>
+        <v>-0.95</v>
       </c>
       <c r="L250" s="1" t="n"/>
       <c r="M250" s="1" t="n">
@@ -18652,10 +18655,10 @@
         <v>0</v>
       </c>
       <c r="O250" s="1" t="n">
-        <v>-1.65</v>
+        <v>2.8</v>
       </c>
       <c r="P250" s="1" t="n">
-        <v>-3.9</v>
+        <v>-0.5</v>
       </c>
       <c r="Q250" s="1" t="n"/>
       <c r="R250" s="1" t="n"/>
@@ -18663,19 +18666,19 @@
         <v>32</v>
       </c>
       <c r="T250" s="1" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="U250" s="1" t="n">
         <v>1</v>
       </c>
       <c r="V250" s="1" t="n">
-        <v>-21.2</v>
+        <v>23.731</v>
       </c>
       <c r="W250" s="1" t="n">
-        <v>35.945</v>
+        <v>-33.685</v>
       </c>
       <c r="X250" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y250" s="1" t="n">
         <v>0</v>
@@ -18686,14 +18689,14 @@
     </row>
     <row r="251" spans="1:28">
       <c r="A251" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B251" s="1" t="n"/>
       <c r="C251" s="1" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D251" s="1" t="n">
-        <v>2.8</v>
+        <v>6.85</v>
       </c>
       <c r="E251" s="1" t="n">
         <v>-0.5</v>
@@ -18705,10 +18708,10 @@
         <v>0.9</v>
       </c>
       <c r="H251" s="1" t="n">
-        <v>0.7999999999999998</v>
+        <v>4.85</v>
       </c>
       <c r="I251" s="1" t="n">
-        <v>4.8</v>
+        <v>8.85</v>
       </c>
       <c r="J251" s="1" t="n">
         <v>-0.04999999999999999</v>
@@ -18718,16 +18721,16 @@
       </c>
       <c r="L251" s="1" t="n"/>
       <c r="M251" s="1" t="n">
-        <v>0</v>
+        <v>2.731</v>
       </c>
       <c r="N251" s="1" t="n">
-        <v>0</v>
+        <v>3.943</v>
       </c>
       <c r="O251" s="1" t="n">
-        <v>2.8</v>
+        <v>4.119</v>
       </c>
       <c r="P251" s="1" t="n">
-        <v>-0.5</v>
+        <v>-4.443</v>
       </c>
       <c r="Q251" s="1" t="n"/>
       <c r="R251" s="1" t="n"/>
@@ -18738,19 +18741,19 @@
         <v>1</v>
       </c>
       <c r="U251" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V251" s="1" t="n">
-        <v>23.731</v>
+        <v>29.4</v>
       </c>
       <c r="W251" s="1" t="n">
-        <v>-33.685</v>
+        <v>-4.542</v>
       </c>
       <c r="X251" s="1" t="n">
         <v>0</v>
       </c>
       <c r="Y251" s="1" t="n">
-        <v>0</v>
+        <v>16.8</v>
       </c>
       <c r="Z251" s="1" t="n"/>
       <c r="AA251" s="1" t="n"/>
@@ -18758,17 +18761,17 @@
     </row>
     <row r="252" spans="1:28">
       <c r="A252" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B252" s="1" t="n"/>
       <c r="C252" s="1" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D252" s="1" t="n">
         <v>6.85</v>
       </c>
       <c r="E252" s="1" t="n">
-        <v>-0.5</v>
+        <v>-1.45</v>
       </c>
       <c r="F252" s="1" t="n">
         <v>4</v>
@@ -18783,23 +18786,23 @@
         <v>8.85</v>
       </c>
       <c r="J252" s="1" t="n">
-        <v>-0.04999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="K252" s="1" t="n">
-        <v>-0.95</v>
+        <v>-1.9</v>
       </c>
       <c r="L252" s="1" t="n"/>
       <c r="M252" s="1" t="n">
-        <v>2.731</v>
+        <v>-2.731</v>
       </c>
       <c r="N252" s="1" t="n">
-        <v>3.943</v>
+        <v>-3.943</v>
       </c>
       <c r="O252" s="1" t="n">
-        <v>4.119</v>
+        <v>9.581</v>
       </c>
       <c r="P252" s="1" t="n">
-        <v>-4.443</v>
+        <v>2.493</v>
       </c>
       <c r="Q252" s="1" t="n"/>
       <c r="R252" s="1" t="n"/>
@@ -18813,7 +18816,7 @@
         <v>3</v>
       </c>
       <c r="V252" s="1" t="n">
-        <v>29.4</v>
+        <v>-29.4</v>
       </c>
       <c r="W252" s="1" t="n">
         <v>-4.542</v>
@@ -18830,48 +18833,48 @@
     </row>
     <row r="253" spans="1:28">
       <c r="A253" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B253" s="1" t="n"/>
       <c r="C253" s="1" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D253" s="1" t="n">
-        <v>6.85</v>
+        <v>0.45</v>
       </c>
       <c r="E253" s="1" t="n">
-        <v>-1.45</v>
+        <v>-1.85</v>
       </c>
       <c r="F253" s="1" t="n">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="G253" s="1" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H253" s="1" t="n">
-        <v>4.85</v>
+        <v>0.2</v>
       </c>
       <c r="I253" s="1" t="n">
-        <v>8.85</v>
+        <v>0.7</v>
       </c>
       <c r="J253" s="1" t="n">
-        <v>-1</v>
+        <v>-1.6</v>
       </c>
       <c r="K253" s="1" t="n">
-        <v>-1.9</v>
+        <v>-2.1</v>
       </c>
       <c r="L253" s="1" t="n"/>
       <c r="M253" s="1" t="n">
-        <v>-2.731</v>
+        <v>0</v>
       </c>
       <c r="N253" s="1" t="n">
-        <v>-3.943</v>
+        <v>0</v>
       </c>
       <c r="O253" s="1" t="n">
-        <v>9.581</v>
+        <v>0.45</v>
       </c>
       <c r="P253" s="1" t="n">
-        <v>2.493</v>
+        <v>-1.85</v>
       </c>
       <c r="Q253" s="1" t="n"/>
       <c r="R253" s="1" t="n"/>
@@ -18882,19 +18885,19 @@
         <v>1</v>
       </c>
       <c r="U253" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V253" s="1" t="n">
-        <v>-29.4</v>
+        <v>-25.758</v>
       </c>
       <c r="W253" s="1" t="n">
-        <v>-4.542</v>
+        <v>24.958</v>
       </c>
       <c r="X253" s="1" t="n">
         <v>0</v>
       </c>
       <c r="Y253" s="1" t="n">
-        <v>16.8</v>
+        <v>0</v>
       </c>
       <c r="Z253" s="1" t="n"/>
       <c r="AA253" s="1" t="n"/>
@@ -18902,14 +18905,14 @@
     </row>
     <row r="254" spans="1:28">
       <c r="A254" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B254" s="1" t="n"/>
       <c r="C254" s="1" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D254" s="1" t="n">
-        <v>0.45</v>
+        <v>-0.1</v>
       </c>
       <c r="E254" s="1" t="n">
         <v>-1.85</v>
@@ -18921,10 +18924,10 @@
         <v>0.5</v>
       </c>
       <c r="H254" s="1" t="n">
-        <v>0.2</v>
+        <v>-0.35</v>
       </c>
       <c r="I254" s="1" t="n">
-        <v>0.7</v>
+        <v>0.15</v>
       </c>
       <c r="J254" s="1" t="n">
         <v>-1.6</v>
@@ -18940,7 +18943,7 @@
         <v>0</v>
       </c>
       <c r="O254" s="1" t="n">
-        <v>0.45</v>
+        <v>-0.1</v>
       </c>
       <c r="P254" s="1" t="n">
         <v>-1.85</v>
@@ -18957,7 +18960,7 @@
         <v>1</v>
       </c>
       <c r="V254" s="1" t="n">
-        <v>-25.758</v>
+        <v>34.2</v>
       </c>
       <c r="W254" s="1" t="n">
         <v>24.958</v>
@@ -18974,11 +18977,11 @@
     </row>
     <row r="255" spans="1:28">
       <c r="A255" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B255" s="1" t="n"/>
       <c r="C255" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D255" s="1" t="n">
         <v>-0.1</v>
@@ -19029,10 +19032,10 @@
         <v>1</v>
       </c>
       <c r="V255" s="1" t="n">
-        <v>34.2</v>
+        <v>25.8</v>
       </c>
       <c r="W255" s="1" t="n">
-        <v>24.958</v>
+        <v>33.468</v>
       </c>
       <c r="X255" s="1" t="n">
         <v>0</v>
@@ -19046,17 +19049,17 @@
     </row>
     <row r="256" spans="1:28">
       <c r="A256" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B256" s="1" t="n"/>
       <c r="C256" s="1" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D256" s="1" t="n">
-        <v>-0.1</v>
+        <v>1</v>
       </c>
       <c r="E256" s="1" t="n">
-        <v>-1.85</v>
+        <v>-2.2</v>
       </c>
       <c r="F256" s="1" t="n">
         <v>0.5</v>
@@ -19065,16 +19068,16 @@
         <v>0.5</v>
       </c>
       <c r="H256" s="1" t="n">
-        <v>-0.35</v>
+        <v>0.75</v>
       </c>
       <c r="I256" s="1" t="n">
-        <v>0.15</v>
+        <v>1.25</v>
       </c>
       <c r="J256" s="1" t="n">
-        <v>-1.6</v>
+        <v>-1.95</v>
       </c>
       <c r="K256" s="1" t="n">
-        <v>-2.1</v>
+        <v>-2.45</v>
       </c>
       <c r="L256" s="1" t="n"/>
       <c r="M256" s="1" t="n">
@@ -19084,10 +19087,10 @@
         <v>0</v>
       </c>
       <c r="O256" s="1" t="n">
-        <v>-0.1</v>
+        <v>1</v>
       </c>
       <c r="P256" s="1" t="n">
-        <v>-1.85</v>
+        <v>-2.2</v>
       </c>
       <c r="Q256" s="1" t="n"/>
       <c r="R256" s="1" t="n"/>
@@ -19101,10 +19104,10 @@
         <v>1</v>
       </c>
       <c r="V256" s="1" t="n">
-        <v>25.8</v>
+        <v>-34.2</v>
       </c>
       <c r="W256" s="1" t="n">
-        <v>33.468</v>
+        <v>24.958</v>
       </c>
       <c r="X256" s="1" t="n">
         <v>0</v>
@@ -19118,11 +19121,11 @@
     </row>
     <row r="257" spans="1:28">
       <c r="A257" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B257" s="1" t="n"/>
       <c r="C257" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D257" s="1" t="n">
         <v>1</v>
@@ -19173,10 +19176,10 @@
         <v>1</v>
       </c>
       <c r="V257" s="1" t="n">
-        <v>-34.2</v>
+        <v>-25.758</v>
       </c>
       <c r="W257" s="1" t="n">
-        <v>24.958</v>
+        <v>33.468</v>
       </c>
       <c r="X257" s="1" t="n">
         <v>0</v>
@@ -19190,14 +19193,14 @@
     </row>
     <row r="258" spans="1:28">
       <c r="A258" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B258" s="1" t="n"/>
       <c r="C258" s="1" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D258" s="1" t="n">
-        <v>1</v>
+        <v>1.55</v>
       </c>
       <c r="E258" s="1" t="n">
         <v>-2.2</v>
@@ -19209,10 +19212,10 @@
         <v>0.5</v>
       </c>
       <c r="H258" s="1" t="n">
-        <v>0.75</v>
+        <v>1.3</v>
       </c>
       <c r="I258" s="1" t="n">
-        <v>1.25</v>
+        <v>1.8</v>
       </c>
       <c r="J258" s="1" t="n">
         <v>-1.95</v>
@@ -19228,7 +19231,7 @@
         <v>0</v>
       </c>
       <c r="O258" s="1" t="n">
-        <v>1</v>
+        <v>1.55</v>
       </c>
       <c r="P258" s="1" t="n">
         <v>-2.2</v>
@@ -19245,10 +19248,10 @@
         <v>1</v>
       </c>
       <c r="V258" s="1" t="n">
-        <v>-25.758</v>
+        <v>25.8</v>
       </c>
       <c r="W258" s="1" t="n">
-        <v>33.468</v>
+        <v>24.958</v>
       </c>
       <c r="X258" s="1" t="n">
         <v>0</v>
@@ -19262,48 +19265,48 @@
     </row>
     <row r="259" spans="1:28">
       <c r="A259" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B259" s="1" t="n"/>
       <c r="C259" s="1" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D259" s="1" t="n">
-        <v>1.55</v>
+        <v>-6.4</v>
       </c>
       <c r="E259" s="1" t="n">
-        <v>-2.2</v>
+        <v>-6.625</v>
       </c>
       <c r="F259" s="1" t="n">
         <v>0.5</v>
       </c>
       <c r="G259" s="1" t="n">
-        <v>0.5</v>
+        <v>4.3</v>
       </c>
       <c r="H259" s="1" t="n">
-        <v>1.3</v>
+        <v>-6.65</v>
       </c>
       <c r="I259" s="1" t="n">
-        <v>1.8</v>
+        <v>-6.15</v>
       </c>
       <c r="J259" s="1" t="n">
-        <v>-1.95</v>
+        <v>-4.475</v>
       </c>
       <c r="K259" s="1" t="n">
-        <v>-2.45</v>
+        <v>-8.775</v>
       </c>
       <c r="L259" s="1" t="n"/>
       <c r="M259" s="1" t="n">
-        <v>0</v>
+        <v>3.746</v>
       </c>
       <c r="N259" s="1" t="n">
-        <v>0</v>
+        <v>-1.931</v>
       </c>
       <c r="O259" s="1" t="n">
-        <v>1.55</v>
+        <v>-10.146</v>
       </c>
       <c r="P259" s="1" t="n">
-        <v>-2.2</v>
+        <v>-4.694</v>
       </c>
       <c r="Q259" s="1" t="n"/>
       <c r="R259" s="1" t="n"/>
@@ -19311,22 +19314,22 @@
         <v>32</v>
       </c>
       <c r="T259" s="1" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U259" s="1" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="V259" s="1" t="n">
-        <v>25.8</v>
+        <v>4.2</v>
       </c>
       <c r="W259" s="1" t="n">
-        <v>24.958</v>
+        <v>-0.342</v>
       </c>
       <c r="X259" s="1" t="n">
-        <v>0</v>
+        <v>16.8</v>
       </c>
       <c r="Y259" s="1" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="Z259" s="1" t="n"/>
       <c r="AA259" s="1" t="n"/>
@@ -19334,48 +19337,48 @@
     </row>
     <row r="260" spans="1:28">
       <c r="A260" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B260" s="1" t="n"/>
       <c r="C260" s="1" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D260" s="1" t="n">
-        <v>-6.4</v>
+        <v>-6.95</v>
       </c>
       <c r="E260" s="1" t="n">
-        <v>-6.625</v>
+        <v>-6.519</v>
       </c>
       <c r="F260" s="1" t="n">
         <v>0.5</v>
       </c>
       <c r="G260" s="1" t="n">
-        <v>4.3</v>
+        <v>4.506</v>
       </c>
       <c r="H260" s="1" t="n">
-        <v>-6.65</v>
+        <v>-7.2</v>
       </c>
       <c r="I260" s="1" t="n">
-        <v>-6.15</v>
+        <v>-6.7</v>
       </c>
       <c r="J260" s="1" t="n">
-        <v>-4.475</v>
+        <v>-4.269</v>
       </c>
       <c r="K260" s="1" t="n">
         <v>-8.775</v>
       </c>
       <c r="L260" s="1" t="n"/>
       <c r="M260" s="1" t="n">
-        <v>3.746</v>
+        <v>3.747</v>
       </c>
       <c r="N260" s="1" t="n">
-        <v>-1.931</v>
+        <v>1.816</v>
       </c>
       <c r="O260" s="1" t="n">
-        <v>-10.146</v>
+        <v>-10.697</v>
       </c>
       <c r="P260" s="1" t="n">
-        <v>-4.694</v>
+        <v>-8.335000000000001</v>
       </c>
       <c r="Q260" s="1" t="n"/>
       <c r="R260" s="1" t="n"/>
@@ -19389,7 +19392,7 @@
         <v>8</v>
       </c>
       <c r="V260" s="1" t="n">
-        <v>4.2</v>
+        <v>-4.2</v>
       </c>
       <c r="W260" s="1" t="n">
         <v>-0.342</v>
@@ -19406,48 +19409,48 @@
     </row>
     <row r="261" spans="1:28">
       <c r="A261" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B261" s="1" t="n"/>
       <c r="C261" s="1" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D261" s="1" t="n">
-        <v>-6.95</v>
+        <v>-7.5</v>
       </c>
       <c r="E261" s="1" t="n">
-        <v>-6.519</v>
+        <v>-6.675</v>
       </c>
       <c r="F261" s="1" t="n">
         <v>0.5</v>
       </c>
       <c r="G261" s="1" t="n">
-        <v>4.506</v>
+        <v>4.2</v>
       </c>
       <c r="H261" s="1" t="n">
-        <v>-7.2</v>
+        <v>-7.75</v>
       </c>
       <c r="I261" s="1" t="n">
-        <v>-6.7</v>
+        <v>-7.25</v>
       </c>
       <c r="J261" s="1" t="n">
-        <v>-4.269</v>
+        <v>-4.574999999999999</v>
       </c>
       <c r="K261" s="1" t="n">
         <v>-8.775</v>
       </c>
       <c r="L261" s="1" t="n"/>
       <c r="M261" s="1" t="n">
-        <v>3.747</v>
+        <v>-3.745</v>
       </c>
       <c r="N261" s="1" t="n">
-        <v>1.816</v>
+        <v>1.967</v>
       </c>
       <c r="O261" s="1" t="n">
-        <v>-10.697</v>
+        <v>-3.755</v>
       </c>
       <c r="P261" s="1" t="n">
-        <v>-8.335000000000001</v>
+        <v>-8.641999999999999</v>
       </c>
       <c r="Q261" s="1" t="n"/>
       <c r="R261" s="1" t="n"/>
@@ -19478,48 +19481,48 @@
     </row>
     <row r="262" spans="1:28">
       <c r="A262" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B262" s="1" t="n"/>
       <c r="C262" s="1" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D262" s="1" t="n">
-        <v>-7.5</v>
+        <v>-8.050000000000001</v>
       </c>
       <c r="E262" s="1" t="n">
-        <v>-6.675</v>
+        <v>-6.625</v>
       </c>
       <c r="F262" s="1" t="n">
         <v>0.5</v>
       </c>
       <c r="G262" s="1" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="H262" s="1" t="n">
-        <v>-7.75</v>
+        <v>-8.300000000000001</v>
       </c>
       <c r="I262" s="1" t="n">
-        <v>-7.25</v>
+        <v>-7.800000000000001</v>
       </c>
       <c r="J262" s="1" t="n">
-        <v>-4.574999999999999</v>
+        <v>-4.475</v>
       </c>
       <c r="K262" s="1" t="n">
         <v>-8.775</v>
       </c>
       <c r="L262" s="1" t="n"/>
       <c r="M262" s="1" t="n">
-        <v>-3.745</v>
+        <v>-3.746</v>
       </c>
       <c r="N262" s="1" t="n">
-        <v>1.967</v>
+        <v>-1.891</v>
       </c>
       <c r="O262" s="1" t="n">
-        <v>-3.755</v>
+        <v>-4.304</v>
       </c>
       <c r="P262" s="1" t="n">
-        <v>-8.641999999999999</v>
+        <v>-4.734</v>
       </c>
       <c r="Q262" s="1" t="n"/>
       <c r="R262" s="1" t="n"/>
@@ -19533,7 +19536,7 @@
         <v>8</v>
       </c>
       <c r="V262" s="1" t="n">
-        <v>-4.2</v>
+        <v>4.2</v>
       </c>
       <c r="W262" s="1" t="n">
         <v>-0.342</v>
@@ -19550,48 +19553,48 @@
     </row>
     <row r="263" spans="1:28">
       <c r="A263" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B263" s="1" t="n"/>
       <c r="C263" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D263" s="1" t="n">
-        <v>-8.050000000000001</v>
+        <v>-0.95</v>
       </c>
       <c r="E263" s="1" t="n">
-        <v>-6.625</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="F263" s="1" t="n">
-        <v>0.5</v>
+        <v>8</v>
       </c>
       <c r="G263" s="1" t="n">
-        <v>4.3</v>
+        <v>0.4</v>
       </c>
       <c r="H263" s="1" t="n">
-        <v>-8.300000000000001</v>
+        <v>-4.95</v>
       </c>
       <c r="I263" s="1" t="n">
-        <v>-7.800000000000001</v>
+        <v>3.05</v>
       </c>
       <c r="J263" s="1" t="n">
-        <v>-4.475</v>
+        <v>8.25</v>
       </c>
       <c r="K263" s="1" t="n">
-        <v>-8.775</v>
+        <v>7.850000000000001</v>
       </c>
       <c r="L263" s="1" t="n"/>
       <c r="M263" s="1" t="n">
-        <v>-3.746</v>
+        <v>0</v>
       </c>
       <c r="N263" s="1" t="n">
-        <v>-1.891</v>
+        <v>0</v>
       </c>
       <c r="O263" s="1" t="n">
-        <v>-4.304</v>
+        <v>-0.95</v>
       </c>
       <c r="P263" s="1" t="n">
-        <v>-4.734</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="Q263" s="1" t="n"/>
       <c r="R263" s="1" t="n"/>
@@ -19602,13 +19605,13 @@
         <v>4</v>
       </c>
       <c r="U263" s="1" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="V263" s="1" t="n">
-        <v>4.2</v>
+        <v>-4.2</v>
       </c>
       <c r="W263" s="1" t="n">
-        <v>-0.342</v>
+        <v>-4.122</v>
       </c>
       <c r="X263" s="1" t="n">
         <v>16.8</v>
@@ -19622,48 +19625,48 @@
     </row>
     <row r="264" spans="1:28">
       <c r="A264" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B264" s="1" t="n"/>
       <c r="C264" s="1" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D264" s="1" t="n">
-        <v>-0.95</v>
+        <v>3.85</v>
       </c>
       <c r="E264" s="1" t="n">
-        <v>8.050000000000001</v>
+        <v>-3.9</v>
       </c>
       <c r="F264" s="1" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G264" s="1" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="H264" s="1" t="n">
-        <v>-4.95</v>
+        <v>-1.15</v>
       </c>
       <c r="I264" s="1" t="n">
-        <v>3.05</v>
+        <v>8.85</v>
       </c>
       <c r="J264" s="1" t="n">
-        <v>8.25</v>
+        <v>-3.45</v>
       </c>
       <c r="K264" s="1" t="n">
-        <v>7.850000000000001</v>
+        <v>-4.35</v>
       </c>
       <c r="L264" s="1" t="n"/>
       <c r="M264" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N264" s="1" t="n">
-        <v>0</v>
+        <v>-3.943</v>
       </c>
       <c r="O264" s="1" t="n">
-        <v>-0.95</v>
+        <v>3.85</v>
       </c>
       <c r="P264" s="1" t="n">
-        <v>8.050000000000001</v>
+        <v>0.04300000000000015</v>
       </c>
       <c r="Q264" s="1" t="n"/>
       <c r="R264" s="1" t="n"/>
@@ -19674,13 +19677,13 @@
         <v>4</v>
       </c>
       <c r="U264" s="1" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="V264" s="1" t="n">
-        <v>-4.2</v>
+        <v>4.2</v>
       </c>
       <c r="W264" s="1" t="n">
-        <v>-4.122</v>
+        <v>-0.342</v>
       </c>
       <c r="X264" s="1" t="n">
         <v>16.8</v>
@@ -19694,17 +19697,17 @@
     </row>
     <row r="265" spans="1:28">
       <c r="A265" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B265" s="1" t="n"/>
       <c r="C265" s="1" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D265" s="1" t="n">
         <v>3.85</v>
       </c>
       <c r="E265" s="1" t="n">
-        <v>-3.9</v>
+        <v>-7</v>
       </c>
       <c r="F265" s="1" t="n">
         <v>10</v>
@@ -19719,23 +19722,23 @@
         <v>8.85</v>
       </c>
       <c r="J265" s="1" t="n">
-        <v>-3.45</v>
+        <v>-6.55</v>
       </c>
       <c r="K265" s="1" t="n">
-        <v>-4.35</v>
+        <v>-7.45</v>
       </c>
       <c r="L265" s="1" t="n"/>
       <c r="M265" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N265" s="1" t="n">
-        <v>-3.943</v>
+        <v>3.943</v>
       </c>
       <c r="O265" s="1" t="n">
         <v>3.85</v>
       </c>
       <c r="P265" s="1" t="n">
-        <v>0.04300000000000015</v>
+        <v>-10.943</v>
       </c>
       <c r="Q265" s="1" t="n"/>
       <c r="R265" s="1" t="n"/>
@@ -19749,7 +19752,7 @@
         <v>8</v>
       </c>
       <c r="V265" s="1" t="n">
-        <v>4.2</v>
+        <v>-4.2</v>
       </c>
       <c r="W265" s="1" t="n">
         <v>-0.342</v>
@@ -19766,48 +19769,48 @@
     </row>
     <row r="266" spans="1:28">
       <c r="A266" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B266" s="1" t="n"/>
       <c r="C266" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D266" s="1" t="n">
-        <v>3.85</v>
+        <v>-0.95</v>
       </c>
       <c r="E266" s="1" t="n">
-        <v>-7</v>
+        <v>8.5</v>
       </c>
       <c r="F266" s="1" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G266" s="1" t="n">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="H266" s="1" t="n">
-        <v>-1.15</v>
+        <v>-4.95</v>
       </c>
       <c r="I266" s="1" t="n">
-        <v>8.85</v>
+        <v>3.05</v>
       </c>
       <c r="J266" s="1" t="n">
-        <v>-6.55</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="K266" s="1" t="n">
-        <v>-7.45</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="L266" s="1" t="n"/>
       <c r="M266" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N266" s="1" t="n">
-        <v>3.943</v>
+        <v>0</v>
       </c>
       <c r="O266" s="1" t="n">
-        <v>3.85</v>
+        <v>-0.95</v>
       </c>
       <c r="P266" s="1" t="n">
-        <v>-10.943</v>
+        <v>8.5</v>
       </c>
       <c r="Q266" s="1" t="n"/>
       <c r="R266" s="1" t="n"/>
@@ -19818,13 +19821,13 @@
         <v>4</v>
       </c>
       <c r="U266" s="1" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="V266" s="1" t="n">
-        <v>-4.2</v>
+        <v>4.2</v>
       </c>
       <c r="W266" s="1" t="n">
-        <v>-0.342</v>
+        <v>3.437</v>
       </c>
       <c r="X266" s="1" t="n">
         <v>16.8</v>
@@ -19838,35 +19841,35 @@
     </row>
     <row r="267" spans="1:28">
       <c r="A267" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B267" s="1" t="n"/>
       <c r="C267" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D267" s="1" t="n">
-        <v>-0.95</v>
+        <v>9.9</v>
       </c>
       <c r="E267" s="1" t="n">
-        <v>8.5</v>
+        <v>-4.45</v>
       </c>
       <c r="F267" s="1" t="n">
-        <v>8</v>
+        <v>0.5</v>
       </c>
       <c r="G267" s="1" t="n">
-        <v>0.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H267" s="1" t="n">
-        <v>-4.95</v>
+        <v>9.65</v>
       </c>
       <c r="I267" s="1" t="n">
-        <v>3.05</v>
+        <v>10.15</v>
       </c>
       <c r="J267" s="1" t="n">
-        <v>8.699999999999999</v>
+        <v>-0.04999999999999982</v>
       </c>
       <c r="K267" s="1" t="n">
-        <v>8.300000000000001</v>
+        <v>-8.850000000000001</v>
       </c>
       <c r="L267" s="1" t="n"/>
       <c r="M267" s="1" t="n">
@@ -19876,10 +19879,10 @@
         <v>0</v>
       </c>
       <c r="O267" s="1" t="n">
-        <v>-0.95</v>
+        <v>9.9</v>
       </c>
       <c r="P267" s="1" t="n">
-        <v>8.5</v>
+        <v>-4.45</v>
       </c>
       <c r="Q267" s="1" t="n"/>
       <c r="R267" s="1" t="n"/>
@@ -19887,19 +19890,19 @@
         <v>32</v>
       </c>
       <c r="T267" s="1" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="U267" s="1" t="n">
         <v>6</v>
       </c>
       <c r="V267" s="1" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="W267" s="1" t="n">
-        <v>3.437</v>
+        <v>-0.292</v>
       </c>
       <c r="X267" s="1" t="n">
-        <v>16.8</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="Y267" s="1" t="n">
         <v>8.4</v>
@@ -19910,11 +19913,11 @@
     </row>
     <row r="268" spans="1:28">
       <c r="A268" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B268" s="1" t="n"/>
       <c r="C268" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D268" s="1" t="n">
         <v>9.9</v>
@@ -19962,19 +19965,19 @@
         <v>2</v>
       </c>
       <c r="U268" s="1" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="V268" s="1" t="n">
-        <v>0</v>
+        <v>0.021</v>
       </c>
       <c r="W268" s="1" t="n">
-        <v>-0.292</v>
+        <v>29.213</v>
       </c>
       <c r="X268" s="1" t="n">
-        <v>68.40000000000001</v>
+        <v>51.558</v>
       </c>
       <c r="Y268" s="1" t="n">
-        <v>8.4</v>
+        <v>0</v>
       </c>
       <c r="Z268" s="1" t="n"/>
       <c r="AA268" s="1" t="n"/>
@@ -19982,29 +19985,29 @@
     </row>
     <row r="269" spans="1:28">
       <c r="A269" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B269" s="1" t="n"/>
       <c r="C269" s="1" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D269" s="1" t="n">
-        <v>9.9</v>
+        <v>9.25</v>
       </c>
       <c r="E269" s="1" t="n">
         <v>-4.45</v>
       </c>
       <c r="F269" s="1" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="G269" s="1" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="H269" s="1" t="n">
-        <v>9.65</v>
+        <v>8.9</v>
       </c>
       <c r="I269" s="1" t="n">
-        <v>10.15</v>
+        <v>9.6</v>
       </c>
       <c r="J269" s="1" t="n">
         <v>-0.04999999999999982</v>
@@ -20020,7 +20023,7 @@
         <v>0</v>
       </c>
       <c r="O269" s="1" t="n">
-        <v>9.9</v>
+        <v>9.25</v>
       </c>
       <c r="P269" s="1" t="n">
         <v>-4.45</v>
@@ -20031,22 +20034,22 @@
         <v>32</v>
       </c>
       <c r="T269" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U269" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V269" s="1" t="n">
-        <v>0.021</v>
+        <v>34.126</v>
       </c>
       <c r="W269" s="1" t="n">
-        <v>29.213</v>
+        <v>3.913</v>
       </c>
       <c r="X269" s="1" t="n">
-        <v>51.558</v>
+        <v>0</v>
       </c>
       <c r="Y269" s="1" t="n">
-        <v>0</v>
+        <v>16.8</v>
       </c>
       <c r="Z269" s="1" t="n"/>
       <c r="AA269" s="1" t="n"/>
@@ -20054,14 +20057,14 @@
     </row>
     <row r="270" spans="1:28">
       <c r="A270" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B270" s="1" t="n"/>
       <c r="C270" s="1" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D270" s="1" t="n">
-        <v>9.25</v>
+        <v>10.55</v>
       </c>
       <c r="E270" s="1" t="n">
         <v>-4.45</v>
@@ -20073,10 +20076,10 @@
         <v>8.800000000000001</v>
       </c>
       <c r="H270" s="1" t="n">
-        <v>8.9</v>
+        <v>10.2</v>
       </c>
       <c r="I270" s="1" t="n">
-        <v>9.6</v>
+        <v>10.9</v>
       </c>
       <c r="J270" s="1" t="n">
         <v>-0.04999999999999982</v>
@@ -20092,7 +20095,7 @@
         <v>0</v>
       </c>
       <c r="O270" s="1" t="n">
-        <v>9.25</v>
+        <v>10.55</v>
       </c>
       <c r="P270" s="1" t="n">
         <v>-4.45</v>
@@ -20109,10 +20112,10 @@
         <v>3</v>
       </c>
       <c r="V270" s="1" t="n">
-        <v>34.126</v>
+        <v>-34.126</v>
       </c>
       <c r="W270" s="1" t="n">
-        <v>3.913</v>
+        <v>-4.497</v>
       </c>
       <c r="X270" s="1" t="n">
         <v>0</v>
@@ -20126,48 +20129,48 @@
     </row>
     <row r="271" spans="1:28">
       <c r="A271" s="1" t="s">
-        <v>210</v>
+        <v>256</v>
       </c>
       <c r="B271" s="1" t="n"/>
       <c r="C271" s="1" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="D271" s="1" t="n">
-        <v>10.55</v>
+        <v>0.55</v>
       </c>
       <c r="E271" s="1" t="n">
-        <v>-4.45</v>
+        <v>-0.85</v>
       </c>
       <c r="F271" s="1" t="n">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="G271" s="1" t="n">
-        <v>8.800000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="H271" s="1" t="n">
-        <v>10.2</v>
+        <v>0.35</v>
       </c>
       <c r="I271" s="1" t="n">
-        <v>10.9</v>
+        <v>0.75</v>
       </c>
       <c r="J271" s="1" t="n">
-        <v>-0.04999999999999982</v>
+        <v>-0.6</v>
       </c>
       <c r="K271" s="1" t="n">
-        <v>-8.850000000000001</v>
+        <v>-1.1</v>
       </c>
       <c r="L271" s="1" t="n"/>
       <c r="M271" s="1" t="n">
-        <v>0</v>
+        <v>-1.309</v>
       </c>
       <c r="N271" s="1" t="n">
-        <v>0</v>
+        <v>-3.916</v>
       </c>
       <c r="O271" s="1" t="n">
-        <v>10.55</v>
+        <v>1.859</v>
       </c>
       <c r="P271" s="1" t="n">
-        <v>-4.45</v>
+        <v>3.066</v>
       </c>
       <c r="Q271" s="1" t="n"/>
       <c r="R271" s="1" t="n"/>
@@ -20181,10 +20184,10 @@
         <v>3</v>
       </c>
       <c r="V271" s="1" t="n">
-        <v>-34.126</v>
+        <v>-29.4</v>
       </c>
       <c r="W271" s="1" t="n">
-        <v>-4.497</v>
+        <v>-4.542</v>
       </c>
       <c r="X271" s="1" t="n">
         <v>0</v>
@@ -20198,11 +20201,11 @@
     </row>
     <row r="272" spans="1:28">
       <c r="A272" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B272" s="1" t="n"/>
       <c r="C272" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D272" s="1" t="n">
         <v>0.55</v>
@@ -20230,16 +20233,16 @@
       </c>
       <c r="L272" s="1" t="n"/>
       <c r="M272" s="1" t="n">
-        <v>-1.309</v>
+        <v>1.309</v>
       </c>
       <c r="N272" s="1" t="n">
-        <v>-3.916</v>
+        <v>3.916</v>
       </c>
       <c r="O272" s="1" t="n">
-        <v>1.859</v>
+        <v>-0.7589999999999999</v>
       </c>
       <c r="P272" s="1" t="n">
-        <v>3.066</v>
+        <v>-4.766</v>
       </c>
       <c r="Q272" s="1" t="n"/>
       <c r="R272" s="1" t="n"/>
@@ -20253,7 +20256,7 @@
         <v>3</v>
       </c>
       <c r="V272" s="1" t="n">
-        <v>-29.4</v>
+        <v>29.4</v>
       </c>
       <c r="W272" s="1" t="n">
         <v>-4.542</v>
@@ -20270,11 +20273,11 @@
     </row>
     <row r="273" spans="1:28">
       <c r="A273" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B273" s="1" t="n"/>
       <c r="C273" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D273" s="1" t="n">
         <v>0.55</v>
@@ -20302,16 +20305,16 @@
       </c>
       <c r="L273" s="1" t="n"/>
       <c r="M273" s="1" t="n">
-        <v>1.309</v>
+        <v>0</v>
       </c>
       <c r="N273" s="1" t="n">
-        <v>3.916</v>
+        <v>0</v>
       </c>
       <c r="O273" s="1" t="n">
-        <v>-0.7589999999999999</v>
+        <v>0.55</v>
       </c>
       <c r="P273" s="1" t="n">
-        <v>-4.766</v>
+        <v>-0.85</v>
       </c>
       <c r="Q273" s="1" t="n"/>
       <c r="R273" s="1" t="n"/>
@@ -20322,19 +20325,19 @@
         <v>1</v>
       </c>
       <c r="U273" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V273" s="1" t="n">
-        <v>29.4</v>
+        <v>22.309</v>
       </c>
       <c r="W273" s="1" t="n">
-        <v>-4.542</v>
+        <v>-33.658</v>
       </c>
       <c r="X273" s="1" t="n">
         <v>0</v>
       </c>
       <c r="Y273" s="1" t="n">
-        <v>16.8</v>
+        <v>0</v>
       </c>
       <c r="Z273" s="1" t="n"/>
       <c r="AA273" s="1" t="n"/>
@@ -20342,48 +20345,48 @@
     </row>
     <row r="274" spans="1:28">
       <c r="A274" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B274" s="1" t="n"/>
       <c r="C274" s="1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D274" s="1" t="n">
-        <v>0.55</v>
+        <v>6.65</v>
       </c>
       <c r="E274" s="1" t="n">
-        <v>-0.85</v>
+        <v>-4.7</v>
       </c>
       <c r="F274" s="1" t="n">
-        <v>0.4</v>
+        <v>4.4</v>
       </c>
       <c r="G274" s="1" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H274" s="1" t="n">
-        <v>0.35</v>
+        <v>4.45</v>
       </c>
       <c r="I274" s="1" t="n">
-        <v>0.75</v>
+        <v>8.850000000000001</v>
       </c>
       <c r="J274" s="1" t="n">
-        <v>-0.6</v>
+        <v>-4.4</v>
       </c>
       <c r="K274" s="1" t="n">
-        <v>-1.1</v>
+        <v>-5</v>
       </c>
       <c r="L274" s="1" t="n"/>
       <c r="M274" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N274" s="1" t="n">
-        <v>0</v>
+        <v>-3.916</v>
       </c>
       <c r="O274" s="1" t="n">
-        <v>0.55</v>
+        <v>6.65</v>
       </c>
       <c r="P274" s="1" t="n">
-        <v>-0.85</v>
+        <v>-0.7840000000000003</v>
       </c>
       <c r="Q274" s="1" t="n"/>
       <c r="R274" s="1" t="n"/>
@@ -20391,22 +20394,22 @@
         <v>32</v>
       </c>
       <c r="T274" s="1" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U274" s="1" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="V274" s="1" t="n">
-        <v>22.309</v>
+        <v>4.2</v>
       </c>
       <c r="W274" s="1" t="n">
-        <v>-33.658</v>
+        <v>-0.342</v>
       </c>
       <c r="X274" s="1" t="n">
-        <v>0</v>
+        <v>16.8</v>
       </c>
       <c r="Y274" s="1" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="Z274" s="1" t="n"/>
       <c r="AA274" s="1" t="n"/>
@@ -20414,17 +20417,17 @@
     </row>
     <row r="275" spans="1:28">
       <c r="A275" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B275" s="1" t="n"/>
       <c r="C275" s="1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D275" s="1" t="n">
-        <v>6.65</v>
+        <v>-2.02</v>
       </c>
       <c r="E275" s="1" t="n">
-        <v>-4.7</v>
+        <v>-6.2</v>
       </c>
       <c r="F275" s="1" t="n">
         <v>4.4</v>
@@ -20433,29 +20436,29 @@
         <v>0.6</v>
       </c>
       <c r="H275" s="1" t="n">
-        <v>4.45</v>
+        <v>-4.220000000000001</v>
       </c>
       <c r="I275" s="1" t="n">
-        <v>8.850000000000001</v>
+        <v>0.1800000000000002</v>
       </c>
       <c r="J275" s="1" t="n">
-        <v>-4.4</v>
+        <v>-5.9</v>
       </c>
       <c r="K275" s="1" t="n">
-        <v>-5</v>
+        <v>-6.5</v>
       </c>
       <c r="L275" s="1" t="n"/>
       <c r="M275" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N275" s="1" t="n">
-        <v>-3.916</v>
+        <v>3.916</v>
       </c>
       <c r="O275" s="1" t="n">
-        <v>6.65</v>
+        <v>-2.02</v>
       </c>
       <c r="P275" s="1" t="n">
-        <v>-0.7840000000000003</v>
+        <v>-10.116</v>
       </c>
       <c r="Q275" s="1" t="n"/>
       <c r="R275" s="1" t="n"/>
@@ -20469,7 +20472,7 @@
         <v>8</v>
       </c>
       <c r="V275" s="1" t="n">
-        <v>4.2</v>
+        <v>-4.2</v>
       </c>
       <c r="W275" s="1" t="n">
         <v>-0.342</v>
@@ -20486,48 +20489,48 @@
     </row>
     <row r="276" spans="1:28">
       <c r="A276" s="1" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="B276" s="1" t="n"/>
       <c r="C276" s="1" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="D276" s="1" t="n">
-        <v>-2.02</v>
+        <v>5.65</v>
       </c>
       <c r="E276" s="1" t="n">
-        <v>-6.2</v>
+        <v>-2.25</v>
       </c>
       <c r="F276" s="1" t="n">
-        <v>4.4</v>
+        <v>1.6</v>
       </c>
       <c r="G276" s="1" t="n">
         <v>0.6</v>
       </c>
       <c r="H276" s="1" t="n">
-        <v>-4.220000000000001</v>
+        <v>4.850000000000001</v>
       </c>
       <c r="I276" s="1" t="n">
-        <v>0.1800000000000002</v>
+        <v>6.45</v>
       </c>
       <c r="J276" s="1" t="n">
-        <v>-5.9</v>
+        <v>-1.95</v>
       </c>
       <c r="K276" s="1" t="n">
-        <v>-6.5</v>
+        <v>-2.55</v>
       </c>
       <c r="L276" s="1" t="n"/>
       <c r="M276" s="1" t="n">
-        <v>0</v>
+        <v>-1.629</v>
       </c>
       <c r="N276" s="1" t="n">
-        <v>3.916</v>
+        <v>-3.916</v>
       </c>
       <c r="O276" s="1" t="n">
-        <v>-2.02</v>
+        <v>7.279</v>
       </c>
       <c r="P276" s="1" t="n">
-        <v>-10.116</v>
+        <v>1.666</v>
       </c>
       <c r="Q276" s="1" t="n"/>
       <c r="R276" s="1" t="n"/>
@@ -20535,22 +20538,22 @@
         <v>32</v>
       </c>
       <c r="T276" s="1" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U276" s="1" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="V276" s="1" t="n">
-        <v>-4.2</v>
+        <v>-29.4</v>
       </c>
       <c r="W276" s="1" t="n">
-        <v>-0.342</v>
+        <v>-4.542</v>
       </c>
       <c r="X276" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y276" s="1" t="n">
         <v>16.8</v>
-      </c>
-      <c r="Y276" s="1" t="n">
-        <v>8.4</v>
       </c>
       <c r="Z276" s="1" t="n"/>
       <c r="AA276" s="1" t="n"/>
@@ -20558,14 +20561,14 @@
     </row>
     <row r="277" spans="1:28">
       <c r="A277" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B277" s="1" t="n"/>
       <c r="C277" s="1" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D277" s="1" t="n">
-        <v>5.65</v>
+        <v>7.3</v>
       </c>
       <c r="E277" s="1" t="n">
         <v>-2.25</v>
@@ -20577,10 +20580,10 @@
         <v>0.6</v>
       </c>
       <c r="H277" s="1" t="n">
-        <v>4.850000000000001</v>
+        <v>6.5</v>
       </c>
       <c r="I277" s="1" t="n">
-        <v>6.45</v>
+        <v>8.1</v>
       </c>
       <c r="J277" s="1" t="n">
         <v>-1.95</v>
@@ -20590,16 +20593,16 @@
       </c>
       <c r="L277" s="1" t="n"/>
       <c r="M277" s="1" t="n">
-        <v>-1.629</v>
+        <v>1.629</v>
       </c>
       <c r="N277" s="1" t="n">
-        <v>-3.916</v>
+        <v>3.916</v>
       </c>
       <c r="O277" s="1" t="n">
-        <v>7.279</v>
+        <v>5.670999999999999</v>
       </c>
       <c r="P277" s="1" t="n">
-        <v>1.666</v>
+        <v>-6.166</v>
       </c>
       <c r="Q277" s="1" t="n"/>
       <c r="R277" s="1" t="n"/>
@@ -20613,7 +20616,7 @@
         <v>3</v>
       </c>
       <c r="V277" s="1" t="n">
-        <v>-29.4</v>
+        <v>29.4</v>
       </c>
       <c r="W277" s="1" t="n">
         <v>-4.542</v>
@@ -20630,11 +20633,11 @@
     </row>
     <row r="278" spans="1:28">
       <c r="A278" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B278" s="1" t="n"/>
       <c r="C278" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D278" s="1" t="n">
         <v>7.3</v>
@@ -20662,16 +20665,16 @@
       </c>
       <c r="L278" s="1" t="n"/>
       <c r="M278" s="1" t="n">
-        <v>1.629</v>
+        <v>0</v>
       </c>
       <c r="N278" s="1" t="n">
-        <v>3.916</v>
+        <v>0</v>
       </c>
       <c r="O278" s="1" t="n">
-        <v>5.670999999999999</v>
+        <v>7.3</v>
       </c>
       <c r="P278" s="1" t="n">
-        <v>-6.166</v>
+        <v>-2.25</v>
       </c>
       <c r="Q278" s="1" t="n"/>
       <c r="R278" s="1" t="n"/>
@@ -20682,19 +20685,19 @@
         <v>1</v>
       </c>
       <c r="U278" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V278" s="1" t="n">
-        <v>29.4</v>
+        <v>22.629</v>
       </c>
       <c r="W278" s="1" t="n">
-        <v>-4.542</v>
+        <v>-33.658</v>
       </c>
       <c r="X278" s="1" t="n">
         <v>0</v>
       </c>
       <c r="Y278" s="1" t="n">
-        <v>16.8</v>
+        <v>0</v>
       </c>
       <c r="Z278" s="1" t="n"/>
       <c r="AA278" s="1" t="n"/>
@@ -20702,48 +20705,48 @@
     </row>
     <row r="279" spans="1:28">
       <c r="A279" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B279" s="1" t="n"/>
       <c r="C279" s="1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D279" s="1" t="n">
-        <v>7.3</v>
+        <v>6.35</v>
       </c>
       <c r="E279" s="1" t="n">
-        <v>-2.25</v>
+        <v>-5.35</v>
       </c>
       <c r="F279" s="1" t="n">
-        <v>1.6</v>
+        <v>5</v>
       </c>
       <c r="G279" s="1" t="n">
         <v>0.6</v>
       </c>
       <c r="H279" s="1" t="n">
-        <v>6.5</v>
+        <v>3.85</v>
       </c>
       <c r="I279" s="1" t="n">
-        <v>8.1</v>
+        <v>8.85</v>
       </c>
       <c r="J279" s="1" t="n">
-        <v>-1.95</v>
+        <v>-5.05</v>
       </c>
       <c r="K279" s="1" t="n">
-        <v>-2.55</v>
+        <v>-5.649999999999999</v>
       </c>
       <c r="L279" s="1" t="n"/>
       <c r="M279" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N279" s="1" t="n">
-        <v>0</v>
+        <v>-3.916</v>
       </c>
       <c r="O279" s="1" t="n">
-        <v>7.3</v>
+        <v>6.35</v>
       </c>
       <c r="P279" s="1" t="n">
-        <v>-2.25</v>
+        <v>-1.434</v>
       </c>
       <c r="Q279" s="1" t="n"/>
       <c r="R279" s="1" t="n"/>
@@ -20751,22 +20754,22 @@
         <v>32</v>
       </c>
       <c r="T279" s="1" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U279" s="1" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="V279" s="1" t="n">
-        <v>22.629</v>
+        <v>4.2</v>
       </c>
       <c r="W279" s="1" t="n">
-        <v>-33.658</v>
+        <v>-0.342</v>
       </c>
       <c r="X279" s="1" t="n">
-        <v>0</v>
+        <v>16.8</v>
       </c>
       <c r="Y279" s="1" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="Z279" s="1" t="n"/>
       <c r="AA279" s="1" t="n"/>
@@ -20774,11 +20777,11 @@
     </row>
     <row r="280" spans="1:28">
       <c r="A280" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B280" s="1" t="n"/>
       <c r="C280" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D280" s="1" t="n">
         <v>6.35</v>
@@ -20809,13 +20812,13 @@
         <v>0</v>
       </c>
       <c r="N280" s="1" t="n">
-        <v>-3.916</v>
+        <v>3.916</v>
       </c>
       <c r="O280" s="1" t="n">
         <v>6.35</v>
       </c>
       <c r="P280" s="1" t="n">
-        <v>-1.434</v>
+        <v>-9.266</v>
       </c>
       <c r="Q280" s="1" t="n"/>
       <c r="R280" s="1" t="n"/>
@@ -20829,7 +20832,7 @@
         <v>8</v>
       </c>
       <c r="V280" s="1" t="n">
-        <v>4.2</v>
+        <v>-4.2</v>
       </c>
       <c r="W280" s="1" t="n">
         <v>-0.342</v>
@@ -20846,48 +20849,48 @@
     </row>
     <row r="281" spans="1:28">
       <c r="A281" s="1" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="B281" s="1" t="n"/>
       <c r="C281" s="1" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="D281" s="1" t="n">
-        <v>6.35</v>
+        <v>5.85</v>
       </c>
       <c r="E281" s="1" t="n">
-        <v>-5.35</v>
+        <v>-9.625</v>
       </c>
       <c r="F281" s="1" t="n">
-        <v>5</v>
+        <v>8.6</v>
       </c>
       <c r="G281" s="1" t="n">
-        <v>0.6</v>
+        <v>1.15</v>
       </c>
       <c r="H281" s="1" t="n">
-        <v>3.85</v>
+        <v>1.55</v>
       </c>
       <c r="I281" s="1" t="n">
-        <v>8.85</v>
+        <v>10.15</v>
       </c>
       <c r="J281" s="1" t="n">
-        <v>-5.05</v>
+        <v>-9.050000000000001</v>
       </c>
       <c r="K281" s="1" t="n">
-        <v>-5.649999999999999</v>
+        <v>-10.2</v>
       </c>
       <c r="L281" s="1" t="n"/>
       <c r="M281" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N281" s="1" t="n">
-        <v>3.916</v>
+        <v>0</v>
       </c>
       <c r="O281" s="1" t="n">
-        <v>6.35</v>
+        <v>5.85</v>
       </c>
       <c r="P281" s="1" t="n">
-        <v>-9.266</v>
+        <v>-9.625</v>
       </c>
       <c r="Q281" s="1" t="n"/>
       <c r="R281" s="1" t="n"/>
@@ -20895,22 +20898,22 @@
         <v>32</v>
       </c>
       <c r="T281" s="1" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="U281" s="1" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="V281" s="1" t="n">
-        <v>-4.2</v>
+        <v>0</v>
       </c>
       <c r="W281" s="1" t="n">
-        <v>-0.342</v>
+        <v>-35.42</v>
       </c>
       <c r="X281" s="1" t="n">
-        <v>16.8</v>
+        <v>8.1</v>
       </c>
       <c r="Y281" s="1" t="n">
-        <v>8.4</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="Z281" s="1" t="n"/>
       <c r="AA281" s="1" t="n"/>
@@ -20918,35 +20921,35 @@
     </row>
     <row r="282" spans="1:28">
       <c r="A282" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B282" s="1" t="n"/>
       <c r="C282" s="1" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D282" s="1" t="n">
-        <v>5.85</v>
+        <v>-9.84</v>
       </c>
       <c r="E282" s="1" t="n">
-        <v>-9.625</v>
+        <v>1.125</v>
       </c>
       <c r="F282" s="1" t="n">
-        <v>8.6</v>
+        <v>0.7</v>
       </c>
       <c r="G282" s="1" t="n">
-        <v>1.15</v>
+        <v>5.9</v>
       </c>
       <c r="H282" s="1" t="n">
-        <v>1.55</v>
+        <v>-10.19</v>
       </c>
       <c r="I282" s="1" t="n">
-        <v>10.15</v>
+        <v>-9.49</v>
       </c>
       <c r="J282" s="1" t="n">
-        <v>-9.050000000000001</v>
+        <v>4.075</v>
       </c>
       <c r="K282" s="1" t="n">
-        <v>-10.2</v>
+        <v>-1.825</v>
       </c>
       <c r="L282" s="1" t="n"/>
       <c r="M282" s="1" t="n">
@@ -20956,10 +20959,10 @@
         <v>0</v>
       </c>
       <c r="O282" s="1" t="n">
-        <v>5.85</v>
+        <v>-9.84</v>
       </c>
       <c r="P282" s="1" t="n">
-        <v>-9.625</v>
+        <v>1.125</v>
       </c>
       <c r="Q282" s="1" t="n"/>
       <c r="R282" s="1" t="n"/>
@@ -20967,128 +20970,56 @@
         <v>32</v>
       </c>
       <c r="T282" s="1" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="U282" s="1" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="V282" s="1" t="n">
-        <v>0</v>
+        <v>-36.625</v>
       </c>
       <c r="W282" s="1" t="n">
-        <v>-35.42</v>
+        <v>-0.603</v>
       </c>
       <c r="X282" s="1" t="n">
-        <v>8.1</v>
+        <v>0</v>
       </c>
       <c r="Y282" s="1" t="n">
-        <v>0.6899999999999999</v>
+        <v>5.495</v>
       </c>
       <c r="Z282" s="1" t="n"/>
       <c r="AA282" s="1" t="n"/>
       <c r="AB282" s="1" t="s"/>
     </row>
     <row r="283" spans="1:28">
-      <c r="A283" s="1" t="s">
-        <v>263</v>
-      </c>
+      <c r="A283" s="1" t="n"/>
       <c r="B283" s="1" t="n"/>
-      <c r="C283" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="D283" s="1" t="n">
-        <v>-9.84</v>
-      </c>
-      <c r="E283" s="1" t="n">
-        <v>1.125</v>
-      </c>
-      <c r="F283" s="1" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="G283" s="1" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="H283" s="1" t="n">
-        <v>-10.19</v>
-      </c>
-      <c r="I283" s="1" t="n">
-        <v>-9.49</v>
-      </c>
-      <c r="J283" s="1" t="n">
-        <v>4.075</v>
-      </c>
-      <c r="K283" s="1" t="n">
-        <v>-1.825</v>
-      </c>
+      <c r="C283" s="1" t="n"/>
+      <c r="D283" s="1" t="n"/>
+      <c r="E283" s="1" t="n"/>
+      <c r="F283" s="1" t="n"/>
+      <c r="G283" s="1" t="n"/>
+      <c r="H283" s="1" t="n"/>
+      <c r="I283" s="1" t="n"/>
+      <c r="J283" s="1" t="n"/>
+      <c r="K283" s="1" t="n"/>
       <c r="L283" s="1" t="n"/>
-      <c r="M283" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N283" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="O283" s="1" t="n">
-        <v>-9.84</v>
-      </c>
-      <c r="P283" s="1" t="n">
-        <v>1.125</v>
-      </c>
+      <c r="M283" s="1" t="n"/>
+      <c r="N283" s="1" t="n"/>
+      <c r="O283" s="1" t="n"/>
+      <c r="P283" s="1" t="n"/>
       <c r="Q283" s="1" t="n"/>
       <c r="R283" s="1" t="n"/>
-      <c r="S283" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T283" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="U283" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="V283" s="1" t="n">
-        <v>-36.625</v>
-      </c>
-      <c r="W283" s="1" t="n">
-        <v>-0.603</v>
-      </c>
-      <c r="X283" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y283" s="1" t="n">
-        <v>5.495</v>
-      </c>
+      <c r="S283" s="1" t="n"/>
+      <c r="T283" s="1" t="n"/>
+      <c r="U283" s="1" t="n"/>
+      <c r="V283" s="1" t="n"/>
+      <c r="W283" s="1" t="n"/>
+      <c r="X283" s="1" t="n"/>
+      <c r="Y283" s="1" t="n"/>
       <c r="Z283" s="1" t="n"/>
       <c r="AA283" s="1" t="n"/>
-      <c r="AB283" s="1" t="s"/>
-    </row>
-    <row r="284" spans="1:28">
-      <c r="A284" s="1" t="n"/>
-      <c r="B284" s="1" t="n"/>
-      <c r="C284" s="1" t="n"/>
-      <c r="D284" s="1" t="n"/>
-      <c r="E284" s="1" t="n"/>
-      <c r="F284" s="1" t="n"/>
-      <c r="G284" s="1" t="n"/>
-      <c r="H284" s="1" t="n"/>
-      <c r="I284" s="1" t="n"/>
-      <c r="J284" s="1" t="n"/>
-      <c r="K284" s="1" t="n"/>
-      <c r="L284" s="1" t="n"/>
-      <c r="M284" s="1" t="n"/>
-      <c r="N284" s="1" t="n"/>
-      <c r="O284" s="1" t="n"/>
-      <c r="P284" s="1" t="n"/>
-      <c r="Q284" s="1" t="n"/>
-      <c r="R284" s="1" t="n"/>
-      <c r="S284" s="1" t="n"/>
-      <c r="T284" s="1" t="n"/>
-      <c r="U284" s="1" t="n"/>
-      <c r="V284" s="1" t="n"/>
-      <c r="W284" s="1" t="n"/>
-      <c r="X284" s="1" t="n"/>
-      <c r="Y284" s="1" t="n"/>
-      <c r="Z284" s="1" t="n"/>
-      <c r="AA284" s="1" t="n"/>
-      <c r="AB284" s="1" t="n"/>
+      <c r="AB283" s="1" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -21155,39 +21086,39 @@
       <c r="A1" s="1" t="n"/>
       <c r="B1" s="1" t="n"/>
       <c r="C1" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="I1" s="1" t="n"/>
       <c r="J1" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="N1" s="1" t="n"/>
       <c r="O1" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>273</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>272</v>
       </c>
       <c r="S1" s="1" t="n"/>
       <c r="T1" s="1" t="n"/>
@@ -21201,10 +21132,10 @@
     </row>
     <row r="2" spans="1:27">
       <c r="A2" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>29</v>
@@ -21226,7 +21157,7 @@
       </c>
       <c r="I2" s="1" t="n"/>
       <c r="J2" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>4</v>
@@ -21239,7 +21170,7 @@
       </c>
       <c r="N2" s="1" t="n"/>
       <c r="O2" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>5</v>
@@ -22000,10 +21931,10 @@
     </row>
     <row r="21" spans="1:27">
       <c r="A21" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>202</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>201</v>
       </c>
       <c r="C21" s="1" t="n">
         <v>9</v>
@@ -22738,10 +22669,10 @@
     </row>
     <row r="39" spans="1:27">
       <c r="A39" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>204</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>203</v>
       </c>
       <c r="C39" s="1" t="n">
         <v>9</v>
@@ -23476,10 +23407,10 @@
     </row>
     <row r="57" spans="1:27">
       <c r="A57" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C57" s="1" t="n">
         <v>7</v>
@@ -24050,10 +23981,10 @@
     </row>
     <row r="71" spans="1:27">
       <c r="A71" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C71" s="1" t="n">
         <v>8</v>
@@ -24468,10 +24399,10 @@
     </row>
     <row r="81" spans="1:27">
       <c r="A81" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C81" s="1" t="n">
         <v>8</v>

--- a/masks/code/TKIDModule_spreadsheet_20200512_AW.xlsx
+++ b/masks/code/TKIDModule_spreadsheet_20200512_AW.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13665" windowHeight="7425" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13665" windowHeight="7425"/>
   </bookViews>
   <sheets>
     <sheet name="Patches" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="967" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="970" uniqueCount="287">
   <si>
     <t>AGA Marks</t>
   </si>
@@ -880,6 +880,9 @@
   <si>
     <t>Drop R1C1, R1C3, R1C5, R2C2, R2C4</t>
   </si>
+  <si>
+    <t>Drop R1C1, R1C2, R1C9, R2C1, R2C8, R2C9. R3C9, R4C1, R7C9, R8C1, R11C9, R12C1, R15C1, R15C9, R16C1, R16C9</t>
+  </si>
 </sst>
 </file>
 
@@ -939,8 +942,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1255,8 +1261,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:AC155"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:XFD18"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="AC67" sqref="AC67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1594,18 +1600,18 @@
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
-      <c r="T12" s="3" t="s">
+      <c r="T12" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="U12" s="4"/>
-      <c r="V12" s="4"/>
-      <c r="W12" s="4"/>
-      <c r="X12" s="4"/>
-      <c r="Y12" s="4"/>
-      <c r="Z12" s="3" t="s">
+      <c r="U12" s="5"/>
+      <c r="V12" s="5"/>
+      <c r="W12" s="5"/>
+      <c r="X12" s="5"/>
+      <c r="Y12" s="5"/>
+      <c r="Z12" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="AA12" s="4"/>
+      <c r="AA12" s="5"/>
       <c r="AB12" s="1"/>
       <c r="AC12" s="1"/>
     </row>
@@ -1613,50 +1619,50 @@
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="4"/>
-      <c r="F13" s="3" t="s">
+      <c r="E13" s="5"/>
+      <c r="F13" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G13" s="4"/>
-      <c r="H13" s="3" t="s">
+      <c r="G13" s="5"/>
+      <c r="H13" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
       <c r="L13" s="1"/>
-      <c r="M13" s="3" t="s">
+      <c r="M13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N13" s="4"/>
-      <c r="O13" s="3" t="s">
+      <c r="N13" s="5"/>
+      <c r="O13" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="P13" s="4"/>
+      <c r="P13" s="5"/>
       <c r="Q13" s="1" t="s">
         <v>14</v>
       </c>
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
-      <c r="T13" s="3" t="s">
+      <c r="T13" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="U13" s="4"/>
-      <c r="V13" s="3" t="s">
+      <c r="U13" s="5"/>
+      <c r="V13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="W13" s="4"/>
-      <c r="X13" s="3" t="s">
+      <c r="W13" s="5"/>
+      <c r="X13" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="Y13" s="4"/>
-      <c r="Z13" s="3" t="s">
+      <c r="Y13" s="5"/>
+      <c r="Z13" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="AA13" s="4"/>
+      <c r="AA13" s="5"/>
       <c r="AB13" s="1"/>
       <c r="AC13" s="1"/>
     </row>
@@ -4014,7 +4020,9 @@
       <c r="AB45" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AC45" s="1"/>
+      <c r="AC45" s="1" t="s">
+        <v>286</v>
+      </c>
     </row>
     <row r="46" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A46" s="1" t="s">
@@ -5563,7 +5571,9 @@
       <c r="AB66" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AC66" s="1"/>
+      <c r="AC66" s="3" t="s">
+        <v>286</v>
+      </c>
     </row>
     <row r="67" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A67" s="1" t="s">
@@ -5638,7 +5648,9 @@
       <c r="AB67" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AC67" s="1"/>
+      <c r="AC67" s="3" t="s">
+        <v>286</v>
+      </c>
     </row>
     <row r="68" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A68" s="1" t="s">
@@ -12064,17 +12076,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="O13:P13"/>
     <mergeCell ref="T12:Y12"/>
     <mergeCell ref="T13:U13"/>
     <mergeCell ref="V13:W13"/>
     <mergeCell ref="X13:Y13"/>
     <mergeCell ref="Z12:AA12"/>
     <mergeCell ref="Z13:AA13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="O13:P13"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -12111,18 +12123,18 @@
     <row r="1" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="3" t="s">
+      <c r="D1" s="5"/>
+      <c r="E1" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="F1" s="4"/>
-      <c r="G1" s="3" t="s">
+      <c r="F1" s="5"/>
+      <c r="G1" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="H1" s="4"/>
+      <c r="H1" s="5"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1" t="s">
         <v>270</v>
@@ -27748,7 +27760,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -27779,68 +27791,68 @@
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
-      <c r="T1" s="3" t="s">
+      <c r="T1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
-      <c r="X1" s="4"/>
-      <c r="Y1" s="4"/>
-      <c r="Z1" s="3" t="s">
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="5"/>
+      <c r="X1" s="5"/>
+      <c r="Y1" s="5"/>
+      <c r="Z1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="AA1" s="4"/>
+      <c r="AA1" s="5"/>
       <c r="AB1" s="1"/>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="3" t="s">
+      <c r="E2" s="5"/>
+      <c r="F2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="3" t="s">
+      <c r="G2" s="5"/>
+      <c r="H2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
       <c r="L2" s="1"/>
-      <c r="M2" s="3" t="s">
+      <c r="M2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="4"/>
-      <c r="O2" s="3" t="s">
+      <c r="N2" s="5"/>
+      <c r="O2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="P2" s="4"/>
+      <c r="P2" s="5"/>
       <c r="Q2" s="1" t="s">
         <v>14</v>
       </c>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
-      <c r="T2" s="3" t="s">
+      <c r="T2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="U2" s="4"/>
-      <c r="V2" s="3" t="s">
+      <c r="U2" s="5"/>
+      <c r="V2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="W2" s="4"/>
-      <c r="X2" s="3" t="s">
+      <c r="W2" s="5"/>
+      <c r="X2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="Y2" s="4"/>
-      <c r="Z2" s="3" t="s">
+      <c r="Y2" s="5"/>
+      <c r="Z2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="AA2" s="4"/>
+      <c r="AA2" s="5"/>
       <c r="AB2" s="1"/>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.45">

--- a/masks/code/TKIDModule_spreadsheet_20200512_AW.xlsx
+++ b/masks/code/TKIDModule_spreadsheet_20200512_AW.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13665" windowHeight="7425" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13665" windowHeight="7425"/>
   </bookViews>
   <sheets>
     <sheet name="Patches" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="970" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="287">
   <si>
     <t>AGA Marks</t>
   </si>
@@ -942,7 +942,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -953,6 +953,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1265,8 +1266,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:AC155"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="AC67" sqref="AC67"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A68" sqref="A68:XFD69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1274,17 +1275,17 @@
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
     <col min="3" max="3" width="44" customWidth="1"/>
-    <col min="4" max="5" width="8" hidden="1" customWidth="1"/>
-    <col min="6" max="7" width="7" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="22" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="23" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="22" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="21" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="6" hidden="1" customWidth="1"/>
-    <col min="13" max="14" width="8" hidden="1" customWidth="1"/>
-    <col min="15" max="16" width="21" hidden="1" customWidth="1"/>
-    <col min="17" max="18" width="6" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="30" hidden="1" customWidth="1"/>
+    <col min="4" max="5" width="8" customWidth="1"/>
+    <col min="6" max="7" width="7" customWidth="1"/>
+    <col min="8" max="8" width="22" customWidth="1"/>
+    <col min="9" max="9" width="23" customWidth="1"/>
+    <col min="10" max="10" width="22" customWidth="1"/>
+    <col min="11" max="11" width="21" customWidth="1"/>
+    <col min="12" max="12" width="6" customWidth="1"/>
+    <col min="13" max="14" width="8" customWidth="1"/>
+    <col min="15" max="16" width="21" customWidth="1"/>
+    <col min="17" max="18" width="6" customWidth="1"/>
+    <col min="19" max="19" width="30" customWidth="1"/>
     <col min="20" max="21" width="6" customWidth="1"/>
     <col min="22" max="22" width="9" customWidth="1"/>
     <col min="23" max="23" width="20" customWidth="1"/>
@@ -1293,7 +1294,7 @@
     <col min="26" max="26" width="6" customWidth="1"/>
     <col min="27" max="27" width="11.06640625" customWidth="1"/>
     <col min="28" max="28" width="7" customWidth="1"/>
-    <col min="29" max="29" width="37.73046875" customWidth="1"/>
+    <col min="29" max="29" width="75.46484375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="1:29" x14ac:dyDescent="0.45">
@@ -1604,18 +1605,18 @@
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
-      <c r="T12" s="6" t="s">
+      <c r="T12" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="U12" s="7"/>
-      <c r="V12" s="7"/>
-      <c r="W12" s="7"/>
-      <c r="X12" s="7"/>
-      <c r="Y12" s="7"/>
-      <c r="Z12" s="6" t="s">
+      <c r="U12" s="8"/>
+      <c r="V12" s="8"/>
+      <c r="W12" s="8"/>
+      <c r="X12" s="8"/>
+      <c r="Y12" s="8"/>
+      <c r="Z12" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="AA12" s="7"/>
+      <c r="AA12" s="8"/>
       <c r="AB12" s="1"/>
       <c r="AC12" s="1"/>
     </row>
@@ -1623,50 +1624,50 @@
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="6" t="s">
+      <c r="E13" s="8"/>
+      <c r="F13" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G13" s="7"/>
-      <c r="H13" s="6" t="s">
+      <c r="G13" s="8"/>
+      <c r="H13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
       <c r="L13" s="1"/>
-      <c r="M13" s="6" t="s">
+      <c r="M13" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="N13" s="7"/>
-      <c r="O13" s="6" t="s">
+      <c r="N13" s="8"/>
+      <c r="O13" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="P13" s="7"/>
+      <c r="P13" s="8"/>
       <c r="Q13" s="1" t="s">
         <v>14</v>
       </c>
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
-      <c r="T13" s="6" t="s">
+      <c r="T13" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="U13" s="7"/>
-      <c r="V13" s="6" t="s">
+      <c r="U13" s="8"/>
+      <c r="V13" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="W13" s="7"/>
-      <c r="X13" s="6" t="s">
+      <c r="W13" s="8"/>
+      <c r="X13" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="Y13" s="7"/>
-      <c r="Z13" s="6" t="s">
+      <c r="Y13" s="8"/>
+      <c r="Z13" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="AA13" s="7"/>
+      <c r="AA13" s="8"/>
       <c r="AB13" s="1"/>
       <c r="AC13" s="1"/>
     </row>
@@ -5502,158 +5503,152 @@
         <v>279</v>
       </c>
     </row>
-    <row r="66" spans="1:29" x14ac:dyDescent="0.45">
-      <c r="A66" s="1" t="s">
+    <row r="66" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A66" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="B66" s="1"/>
-      <c r="C66" s="1" t="s">
+      <c r="B66" s="5"/>
+      <c r="C66" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="D66" s="1">
+      <c r="D66" s="5">
         <v>-6.45</v>
       </c>
-      <c r="E66" s="1">
-        <v>6.95</v>
-      </c>
-      <c r="F66" s="1">
+      <c r="E66" s="5">
+        <v>7</v>
+      </c>
+      <c r="F66" s="5">
         <v>1.1000000000000001</v>
       </c>
-      <c r="G66" s="1">
-        <v>3</v>
-      </c>
-      <c r="H66" s="1">
+      <c r="G66" s="5">
+        <v>3.1</v>
+      </c>
+      <c r="H66" s="5">
         <v>-7</v>
       </c>
-      <c r="I66" s="1">
+      <c r="I66" s="5">
         <v>-5.9</v>
       </c>
-      <c r="J66" s="1">
-        <v>8.4499999999999993</v>
-      </c>
-      <c r="K66" s="1">
+      <c r="J66" s="5">
+        <v>8.5500000000000007</v>
+      </c>
+      <c r="K66" s="5">
         <v>5.45</v>
       </c>
-      <c r="L66" s="1"/>
-      <c r="M66" s="1">
-        <v>0</v>
-      </c>
-      <c r="N66" s="1">
+      <c r="L66" s="5"/>
+      <c r="M66" s="5">
+        <v>0</v>
+      </c>
+      <c r="N66" s="5">
         <v>-1.2999999999999999E-2</v>
       </c>
-      <c r="O66" s="1">
+      <c r="O66" s="5">
         <v>-6.45</v>
       </c>
-      <c r="P66" s="1">
-        <v>6.9630000000000001</v>
-      </c>
-      <c r="Q66" s="1"/>
-      <c r="R66" s="1"/>
-      <c r="S66" s="1" t="s">
+      <c r="P66" s="5">
+        <v>7.0129999999999999</v>
+      </c>
+      <c r="Q66" s="5"/>
+      <c r="R66" s="5"/>
+      <c r="S66" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="T66" s="1">
+      <c r="T66" s="5">
         <v>9</v>
       </c>
-      <c r="U66" s="1">
+      <c r="U66" s="5">
         <v>16</v>
       </c>
-      <c r="V66" s="1">
-        <v>0</v>
-      </c>
-      <c r="W66" s="1">
+      <c r="V66" s="5">
+        <v>0</v>
+      </c>
+      <c r="W66" s="5">
         <v>-0.32800000000000001</v>
       </c>
-      <c r="X66" s="1">
+      <c r="X66" s="5">
         <v>8.4</v>
       </c>
-      <c r="Y66" s="1">
+      <c r="Y66" s="5">
         <v>4</v>
       </c>
-      <c r="Z66" s="1"/>
-      <c r="AA66" s="1"/>
-      <c r="AB66" s="1" t="s">
+      <c r="Z66" s="5"/>
+      <c r="AA66" s="5"/>
+      <c r="AB66" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="AC66" s="3" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="67" spans="1:29" x14ac:dyDescent="0.45">
-      <c r="A67" s="1" t="s">
+    </row>
+    <row r="67" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A67" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="B67" s="1"/>
-      <c r="C67" s="1" t="s">
+      <c r="B67" s="5"/>
+      <c r="C67" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="D67" s="1">
+      <c r="D67" s="5">
         <v>-9.1999999999999993</v>
       </c>
-      <c r="E67" s="1">
+      <c r="E67" s="5">
         <v>8.5749999999999993</v>
       </c>
-      <c r="F67" s="1">
+      <c r="F67" s="5">
         <v>1.2</v>
       </c>
-      <c r="G67" s="1">
+      <c r="G67" s="5">
         <v>3.2</v>
       </c>
-      <c r="H67" s="1">
+      <c r="H67" s="5">
         <v>-9.7999999999999989</v>
       </c>
-      <c r="I67" s="1">
+      <c r="I67" s="5">
         <v>-8.6</v>
       </c>
-      <c r="J67" s="1">
+      <c r="J67" s="5">
         <v>10.175000000000001</v>
       </c>
-      <c r="K67" s="1">
+      <c r="K67" s="5">
         <v>6.9749999999999996</v>
       </c>
-      <c r="L67" s="1"/>
-      <c r="M67" s="1">
-        <v>0</v>
-      </c>
-      <c r="N67" s="1">
+      <c r="L67" s="5"/>
+      <c r="M67" s="5">
+        <v>0</v>
+      </c>
+      <c r="N67" s="5">
         <v>-1.2999999999999999E-2</v>
       </c>
-      <c r="O67" s="1">
+      <c r="O67" s="5">
         <v>-9.1999999999999993</v>
       </c>
-      <c r="P67" s="1">
+      <c r="P67" s="5">
         <v>8.5879999999999992</v>
       </c>
-      <c r="Q67" s="1"/>
-      <c r="R67" s="1"/>
-      <c r="S67" s="1" t="s">
+      <c r="Q67" s="5"/>
+      <c r="R67" s="5"/>
+      <c r="S67" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="T67" s="1">
+      <c r="T67" s="5">
         <v>9</v>
       </c>
-      <c r="U67" s="1">
+      <c r="U67" s="5">
         <v>16</v>
       </c>
-      <c r="V67" s="1">
-        <v>0</v>
-      </c>
-      <c r="W67" s="1">
+      <c r="V67" s="5">
+        <v>0</v>
+      </c>
+      <c r="W67" s="5">
         <v>-0.32800000000000001</v>
       </c>
-      <c r="X67" s="1">
+      <c r="X67" s="5">
         <v>8.4</v>
       </c>
-      <c r="Y67" s="1">
+      <c r="Y67" s="5">
         <v>4</v>
       </c>
-      <c r="Z67" s="1"/>
-      <c r="AA67" s="1"/>
-      <c r="AB67" s="1" t="s">
+      <c r="Z67" s="5"/>
+      <c r="AA67" s="5"/>
+      <c r="AB67" s="5" t="s">
         <v>52</v>
-      </c>
-      <c r="AC67" s="3" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="68" spans="1:29" x14ac:dyDescent="0.45">
@@ -12080,17 +12075,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="O13:P13"/>
     <mergeCell ref="T12:Y12"/>
     <mergeCell ref="T13:U13"/>
     <mergeCell ref="V13:W13"/>
     <mergeCell ref="X13:Y13"/>
     <mergeCell ref="Z12:AA12"/>
     <mergeCell ref="Z13:AA13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="O13:P13"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -12100,13 +12095,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB501"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A358" workbookViewId="0">
+    <sheetView topLeftCell="A358" workbookViewId="0">
       <selection sqref="A1:A501"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9.06640625" style="5"/>
+    <col min="1" max="1" width="9.06640625" style="4"/>
     <col min="2" max="2" width="35" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
     <col min="4" max="4" width="7" customWidth="1"/>
@@ -12128,21 +12123,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A1" s="4"/>
+      <c r="A1" s="3"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="E1" s="7"/>
-      <c r="F1" s="6" t="s">
+      <c r="E1" s="8"/>
+      <c r="F1" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="G1" s="7"/>
-      <c r="H1" s="6" t="s">
+      <c r="G1" s="8"/>
+      <c r="H1" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="I1" s="7"/>
+      <c r="I1" s="8"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1" t="s">
         <v>270</v>
@@ -12180,7 +12175,7 @@
       <c r="AB1" s="1"/>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A2" s="4"/>
+      <c r="A2" s="3"/>
       <c r="B2" s="1" t="s">
         <v>275</v>
       </c>
@@ -12242,7 +12237,7 @@
       <c r="AB2" s="1"/>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A3" s="4"/>
+      <c r="A3" s="3"/>
       <c r="B3" s="1" t="s">
         <v>51</v>
       </c>
@@ -12304,7 +12299,7 @@
       <c r="AB3" s="1"/>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A4" s="4"/>
+      <c r="A4" s="3"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -12350,7 +12345,7 @@
       <c r="AB4" s="1"/>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A5" s="4"/>
+      <c r="A5" s="3"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -12396,7 +12391,7 @@
       <c r="AB5" s="1"/>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A6" s="4"/>
+      <c r="A6" s="3"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -12442,7 +12437,7 @@
       <c r="AB6" s="1"/>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A7" s="4"/>
+      <c r="A7" s="3"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -12488,7 +12483,7 @@
       <c r="AB7" s="1"/>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A8" s="4"/>
+      <c r="A8" s="3"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -12534,7 +12529,7 @@
       <c r="AB8" s="1"/>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A9" s="4"/>
+      <c r="A9" s="3"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -12580,7 +12575,7 @@
       <c r="AB9" s="1"/>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A10" s="4"/>
+      <c r="A10" s="3"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -12626,7 +12621,7 @@
       <c r="AB10" s="1"/>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A11" s="4"/>
+      <c r="A11" s="3"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -12672,7 +12667,7 @@
       <c r="AB11" s="1"/>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A12" s="4"/>
+      <c r="A12" s="3"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -12710,7 +12705,7 @@
       <c r="AB12" s="1"/>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A13" s="4"/>
+      <c r="A13" s="3"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -12748,7 +12743,7 @@
       <c r="AB13" s="1"/>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A14" s="4"/>
+      <c r="A14" s="3"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -12786,7 +12781,7 @@
       <c r="AB14" s="1"/>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A15" s="4"/>
+      <c r="A15" s="3"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -12824,7 +12819,7 @@
       <c r="AB15" s="1"/>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A16" s="4"/>
+      <c r="A16" s="3"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -12862,7 +12857,7 @@
       <c r="AB16" s="1"/>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A17" s="4"/>
+      <c r="A17" s="3"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -12900,7 +12895,7 @@
       <c r="AB17" s="1"/>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A18" s="4"/>
+      <c r="A18" s="3"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -12938,7 +12933,7 @@
       <c r="AB18" s="1"/>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A19" s="4"/>
+      <c r="A19" s="3"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -12968,7 +12963,7 @@
       <c r="AB19" s="1"/>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A20" s="4"/>
+      <c r="A20" s="3"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -12998,7 +12993,7 @@
       <c r="AB20" s="1"/>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A21" s="4"/>
+      <c r="A21" s="3"/>
       <c r="B21" s="1" t="s">
         <v>203</v>
       </c>
@@ -13060,7 +13055,7 @@
       <c r="AB21" s="1"/>
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A22" s="4"/>
+      <c r="A22" s="3"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -13106,7 +13101,7 @@
       <c r="AB22" s="1"/>
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A23" s="4"/>
+      <c r="A23" s="3"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -13152,7 +13147,7 @@
       <c r="AB23" s="1"/>
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A24" s="4"/>
+      <c r="A24" s="3"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -13198,7 +13193,7 @@
       <c r="AB24" s="1"/>
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A25" s="4"/>
+      <c r="A25" s="3"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -13244,7 +13239,7 @@
       <c r="AB25" s="1"/>
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A26" s="4"/>
+      <c r="A26" s="3"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -13290,7 +13285,7 @@
       <c r="AB26" s="1"/>
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A27" s="4"/>
+      <c r="A27" s="3"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -13336,7 +13331,7 @@
       <c r="AB27" s="1"/>
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A28" s="4"/>
+      <c r="A28" s="3"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -13382,7 +13377,7 @@
       <c r="AB28" s="1"/>
     </row>
     <row r="29" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A29" s="4"/>
+      <c r="A29" s="3"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -13428,7 +13423,7 @@
       <c r="AB29" s="1"/>
     </row>
     <row r="30" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A30" s="4"/>
+      <c r="A30" s="3"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -13466,7 +13461,7 @@
       <c r="AB30" s="1"/>
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A31" s="4"/>
+      <c r="A31" s="3"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -13504,7 +13499,7 @@
       <c r="AB31" s="1"/>
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A32" s="4"/>
+      <c r="A32" s="3"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -13542,7 +13537,7 @@
       <c r="AB32" s="1"/>
     </row>
     <row r="33" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A33" s="4"/>
+      <c r="A33" s="3"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -13580,7 +13575,7 @@
       <c r="AB33" s="1"/>
     </row>
     <row r="34" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A34" s="4"/>
+      <c r="A34" s="3"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -13618,7 +13613,7 @@
       <c r="AB34" s="1"/>
     </row>
     <row r="35" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A35" s="4"/>
+      <c r="A35" s="3"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -13656,7 +13651,7 @@
       <c r="AB35" s="1"/>
     </row>
     <row r="36" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A36" s="4"/>
+      <c r="A36" s="3"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -13694,7 +13689,7 @@
       <c r="AB36" s="1"/>
     </row>
     <row r="37" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A37" s="4"/>
+      <c r="A37" s="3"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -13724,7 +13719,7 @@
       <c r="AB37" s="1"/>
     </row>
     <row r="38" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A38" s="4"/>
+      <c r="A38" s="3"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -13754,7 +13749,7 @@
       <c r="AB38" s="1"/>
     </row>
     <row r="39" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A39" s="4"/>
+      <c r="A39" s="3"/>
       <c r="B39" s="1" t="s">
         <v>205</v>
       </c>
@@ -13816,7 +13811,7 @@
       <c r="AB39" s="1"/>
     </row>
     <row r="40" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A40" s="4"/>
+      <c r="A40" s="3"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -13862,7 +13857,7 @@
       <c r="AB40" s="1"/>
     </row>
     <row r="41" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A41" s="4"/>
+      <c r="A41" s="3"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -13908,7 +13903,7 @@
       <c r="AB41" s="1"/>
     </row>
     <row r="42" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A42" s="4"/>
+      <c r="A42" s="3"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -13954,7 +13949,7 @@
       <c r="AB42" s="1"/>
     </row>
     <row r="43" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A43" s="4"/>
+      <c r="A43" s="3"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -14000,7 +13995,7 @@
       <c r="AB43" s="1"/>
     </row>
     <row r="44" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A44" s="4"/>
+      <c r="A44" s="3"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -14046,7 +14041,7 @@
       <c r="AB44" s="1"/>
     </row>
     <row r="45" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A45" s="4"/>
+      <c r="A45" s="3"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -14092,7 +14087,7 @@
       <c r="AB45" s="1"/>
     </row>
     <row r="46" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A46" s="4"/>
+      <c r="A46" s="3"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -14138,7 +14133,7 @@
       <c r="AB46" s="1"/>
     </row>
     <row r="47" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A47" s="4"/>
+      <c r="A47" s="3"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -14184,7 +14179,7 @@
       <c r="AB47" s="1"/>
     </row>
     <row r="48" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A48" s="4"/>
+      <c r="A48" s="3"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -14222,7 +14217,7 @@
       <c r="AB48" s="1"/>
     </row>
     <row r="49" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A49" s="4"/>
+      <c r="A49" s="3"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -14260,7 +14255,7 @@
       <c r="AB49" s="1"/>
     </row>
     <row r="50" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A50" s="4"/>
+      <c r="A50" s="3"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -14298,7 +14293,7 @@
       <c r="AB50" s="1"/>
     </row>
     <row r="51" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A51" s="4"/>
+      <c r="A51" s="3"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -14336,7 +14331,7 @@
       <c r="AB51" s="1"/>
     </row>
     <row r="52" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A52" s="4"/>
+      <c r="A52" s="3"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -14374,7 +14369,7 @@
       <c r="AB52" s="1"/>
     </row>
     <row r="53" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A53" s="4"/>
+      <c r="A53" s="3"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -14412,7 +14407,7 @@
       <c r="AB53" s="1"/>
     </row>
     <row r="54" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A54" s="4"/>
+      <c r="A54" s="3"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -14450,7 +14445,7 @@
       <c r="AB54" s="1"/>
     </row>
     <row r="55" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A55" s="4"/>
+      <c r="A55" s="3"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -14480,7 +14475,7 @@
       <c r="AB55" s="1"/>
     </row>
     <row r="56" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A56" s="4"/>
+      <c r="A56" s="3"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -14510,7 +14505,7 @@
       <c r="AB56" s="1"/>
     </row>
     <row r="57" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A57" s="4"/>
+      <c r="A57" s="3"/>
       <c r="B57" s="1" t="s">
         <v>219</v>
       </c>
@@ -14572,7 +14567,7 @@
       <c r="AB57" s="1"/>
     </row>
     <row r="58" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A58" s="4"/>
+      <c r="A58" s="3"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -14618,7 +14613,7 @@
       <c r="AB58" s="1"/>
     </row>
     <row r="59" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A59" s="4"/>
+      <c r="A59" s="3"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -14664,7 +14659,7 @@
       <c r="AB59" s="1"/>
     </row>
     <row r="60" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A60" s="4"/>
+      <c r="A60" s="3"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -14710,7 +14705,7 @@
       <c r="AB60" s="1"/>
     </row>
     <row r="61" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A61" s="4"/>
+      <c r="A61" s="3"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -14756,7 +14751,7 @@
       <c r="AB61" s="1"/>
     </row>
     <row r="62" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A62" s="4"/>
+      <c r="A62" s="3"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -14802,7 +14797,7 @@
       <c r="AB62" s="1"/>
     </row>
     <row r="63" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A63" s="4"/>
+      <c r="A63" s="3"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -14848,7 +14843,7 @@
       <c r="AB63" s="1"/>
     </row>
     <row r="64" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A64" s="4"/>
+      <c r="A64" s="3"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -14886,7 +14881,7 @@
       <c r="AB64" s="1"/>
     </row>
     <row r="65" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A65" s="4"/>
+      <c r="A65" s="3"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -14924,7 +14919,7 @@
       <c r="AB65" s="1"/>
     </row>
     <row r="66" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A66" s="4"/>
+      <c r="A66" s="3"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -14962,7 +14957,7 @@
       <c r="AB66" s="1"/>
     </row>
     <row r="67" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A67" s="4"/>
+      <c r="A67" s="3"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -15000,7 +14995,7 @@
       <c r="AB67" s="1"/>
     </row>
     <row r="68" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A68" s="4"/>
+      <c r="A68" s="3"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -15038,7 +15033,7 @@
       <c r="AB68" s="1"/>
     </row>
     <row r="69" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A69" s="4"/>
+      <c r="A69" s="3"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -15068,7 +15063,7 @@
       <c r="AB69" s="1"/>
     </row>
     <row r="70" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A70" s="4"/>
+      <c r="A70" s="3"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -15098,7 +15093,7 @@
       <c r="AB70" s="1"/>
     </row>
     <row r="71" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A71" s="4"/>
+      <c r="A71" s="3"/>
       <c r="B71" s="1" t="s">
         <v>221</v>
       </c>
@@ -15160,7 +15155,7 @@
       <c r="AB71" s="1"/>
     </row>
     <row r="72" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A72" s="4"/>
+      <c r="A72" s="3"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -15206,7 +15201,7 @@
       <c r="AB72" s="1"/>
     </row>
     <row r="73" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A73" s="4"/>
+      <c r="A73" s="3"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -15252,7 +15247,7 @@
       <c r="AB73" s="1"/>
     </row>
     <row r="74" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A74" s="4"/>
+      <c r="A74" s="3"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -15298,7 +15293,7 @@
       <c r="AB74" s="1"/>
     </row>
     <row r="75" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A75" s="4"/>
+      <c r="A75" s="3"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -15344,7 +15339,7 @@
       <c r="AB75" s="1"/>
     </row>
     <row r="76" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A76" s="4"/>
+      <c r="A76" s="3"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -15390,7 +15385,7 @@
       <c r="AB76" s="1"/>
     </row>
     <row r="77" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A77" s="4"/>
+      <c r="A77" s="3"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -15428,7 +15423,7 @@
       <c r="AB77" s="1"/>
     </row>
     <row r="78" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A78" s="4"/>
+      <c r="A78" s="3"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -15466,7 +15461,7 @@
       <c r="AB78" s="1"/>
     </row>
     <row r="79" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A79" s="4"/>
+      <c r="A79" s="3"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -15496,7 +15491,7 @@
       <c r="AB79" s="1"/>
     </row>
     <row r="80" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A80" s="4"/>
+      <c r="A80" s="3"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -15526,7 +15521,7 @@
       <c r="AB80" s="1"/>
     </row>
     <row r="81" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A81" s="4"/>
+      <c r="A81" s="3"/>
       <c r="B81" s="1" t="s">
         <v>221</v>
       </c>
@@ -15588,7 +15583,7 @@
       <c r="AB81" s="1"/>
     </row>
     <row r="82" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A82" s="4"/>
+      <c r="A82" s="3"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -15634,7 +15629,7 @@
       <c r="AB82" s="1"/>
     </row>
     <row r="83" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A83" s="4"/>
+      <c r="A83" s="3"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
@@ -15680,7 +15675,7 @@
       <c r="AB83" s="1"/>
     </row>
     <row r="84" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A84" s="4"/>
+      <c r="A84" s="3"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -15726,7 +15721,7 @@
       <c r="AB84" s="1"/>
     </row>
     <row r="85" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A85" s="4"/>
+      <c r="A85" s="3"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
@@ -15772,7 +15767,7 @@
       <c r="AB85" s="1"/>
     </row>
     <row r="86" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A86" s="4"/>
+      <c r="A86" s="3"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -15818,7 +15813,7 @@
       <c r="AB86" s="1"/>
     </row>
     <row r="87" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A87" s="4"/>
+      <c r="A87" s="3"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -15856,7 +15851,7 @@
       <c r="AB87" s="1"/>
     </row>
     <row r="88" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A88" s="4"/>
+      <c r="A88" s="3"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -15894,7 +15889,7 @@
       <c r="AB88" s="1"/>
     </row>
     <row r="89" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A89" s="4"/>
+      <c r="A89" s="3"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -15924,7 +15919,7 @@
       <c r="AB89" s="1"/>
     </row>
     <row r="90" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A90" s="4"/>
+      <c r="A90" s="3"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -15954,7 +15949,7 @@
       <c r="AB90" s="1"/>
     </row>
     <row r="91" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A91" s="4"/>
+      <c r="A91" s="3"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -15984,7 +15979,7 @@
       <c r="AB91" s="1"/>
     </row>
     <row r="92" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A92" s="4"/>
+      <c r="A92" s="3"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -16014,7 +16009,7 @@
       <c r="AB92" s="1"/>
     </row>
     <row r="93" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A93" s="4"/>
+      <c r="A93" s="3"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -16044,7 +16039,7 @@
       <c r="AB93" s="1"/>
     </row>
     <row r="94" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A94" s="4"/>
+      <c r="A94" s="3"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -16074,7 +16069,7 @@
       <c r="AB94" s="1"/>
     </row>
     <row r="95" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A95" s="4"/>
+      <c r="A95" s="3"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
@@ -16104,7 +16099,7 @@
       <c r="AB95" s="1"/>
     </row>
     <row r="96" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A96" s="4"/>
+      <c r="A96" s="3"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -16134,7 +16129,7 @@
       <c r="AB96" s="1"/>
     </row>
     <row r="97" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A97" s="4"/>
+      <c r="A97" s="3"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
@@ -16164,7 +16159,7 @@
       <c r="AB97" s="1"/>
     </row>
     <row r="98" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A98" s="4"/>
+      <c r="A98" s="3"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -16194,7 +16189,7 @@
       <c r="AB98" s="1"/>
     </row>
     <row r="99" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A99" s="4"/>
+      <c r="A99" s="3"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
@@ -16224,7 +16219,7 @@
       <c r="AB99" s="1"/>
     </row>
     <row r="100" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A100" s="4"/>
+      <c r="A100" s="3"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
@@ -16254,7 +16249,7 @@
       <c r="AB100" s="1"/>
     </row>
     <row r="101" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A101" s="4"/>
+      <c r="A101" s="3"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
@@ -16284,7 +16279,7 @@
       <c r="AB101" s="1"/>
     </row>
     <row r="102" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A102" s="4"/>
+      <c r="A102" s="3"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
@@ -16314,7 +16309,7 @@
       <c r="AB102" s="1"/>
     </row>
     <row r="103" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A103" s="4"/>
+      <c r="A103" s="3"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
@@ -16344,7 +16339,7 @@
       <c r="AB103" s="1"/>
     </row>
     <row r="104" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A104" s="4"/>
+      <c r="A104" s="3"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
@@ -16374,7 +16369,7 @@
       <c r="AB104" s="1"/>
     </row>
     <row r="105" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A105" s="4"/>
+      <c r="A105" s="3"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
@@ -16404,7 +16399,7 @@
       <c r="AB105" s="1"/>
     </row>
     <row r="106" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A106" s="4"/>
+      <c r="A106" s="3"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
@@ -16434,7 +16429,7 @@
       <c r="AB106" s="1"/>
     </row>
     <row r="107" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A107" s="4"/>
+      <c r="A107" s="3"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
@@ -16464,7 +16459,7 @@
       <c r="AB107" s="1"/>
     </row>
     <row r="108" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A108" s="4"/>
+      <c r="A108" s="3"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
@@ -16494,7 +16489,7 @@
       <c r="AB108" s="1"/>
     </row>
     <row r="109" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A109" s="4"/>
+      <c r="A109" s="3"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
@@ -16524,7 +16519,7 @@
       <c r="AB109" s="1"/>
     </row>
     <row r="110" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A110" s="4"/>
+      <c r="A110" s="3"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
@@ -16554,7 +16549,7 @@
       <c r="AB110" s="1"/>
     </row>
     <row r="111" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A111" s="4"/>
+      <c r="A111" s="3"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
@@ -16584,7 +16579,7 @@
       <c r="AB111" s="1"/>
     </row>
     <row r="112" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A112" s="4"/>
+      <c r="A112" s="3"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
@@ -16614,7 +16609,7 @@
       <c r="AB112" s="1"/>
     </row>
     <row r="113" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A113" s="4"/>
+      <c r="A113" s="3"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
@@ -16644,7 +16639,7 @@
       <c r="AB113" s="1"/>
     </row>
     <row r="114" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A114" s="4"/>
+      <c r="A114" s="3"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
@@ -16674,7 +16669,7 @@
       <c r="AB114" s="1"/>
     </row>
     <row r="115" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A115" s="4"/>
+      <c r="A115" s="3"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
@@ -16704,7 +16699,7 @@
       <c r="AB115" s="1"/>
     </row>
     <row r="116" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A116" s="4"/>
+      <c r="A116" s="3"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
@@ -16734,7 +16729,7 @@
       <c r="AB116" s="1"/>
     </row>
     <row r="117" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A117" s="4"/>
+      <c r="A117" s="3"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
@@ -16764,7 +16759,7 @@
       <c r="AB117" s="1"/>
     </row>
     <row r="118" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A118" s="4"/>
+      <c r="A118" s="3"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
@@ -16794,7 +16789,7 @@
       <c r="AB118" s="1"/>
     </row>
     <row r="119" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A119" s="4"/>
+      <c r="A119" s="3"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
@@ -16824,7 +16819,7 @@
       <c r="AB119" s="1"/>
     </row>
     <row r="120" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A120" s="4"/>
+      <c r="A120" s="3"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
@@ -16854,7 +16849,7 @@
       <c r="AB120" s="1"/>
     </row>
     <row r="121" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A121" s="4"/>
+      <c r="A121" s="3"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
@@ -16884,7 +16879,7 @@
       <c r="AB121" s="1"/>
     </row>
     <row r="122" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A122" s="4"/>
+      <c r="A122" s="3"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
@@ -16914,7 +16909,7 @@
       <c r="AB122" s="1"/>
     </row>
     <row r="123" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A123" s="4"/>
+      <c r="A123" s="3"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
@@ -16944,7 +16939,7 @@
       <c r="AB123" s="1"/>
     </row>
     <row r="124" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A124" s="4"/>
+      <c r="A124" s="3"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
@@ -16974,7 +16969,7 @@
       <c r="AB124" s="1"/>
     </row>
     <row r="125" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A125" s="4"/>
+      <c r="A125" s="3"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
@@ -17004,7 +16999,7 @@
       <c r="AB125" s="1"/>
     </row>
     <row r="126" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A126" s="4"/>
+      <c r="A126" s="3"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
@@ -17034,7 +17029,7 @@
       <c r="AB126" s="1"/>
     </row>
     <row r="127" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A127" s="4"/>
+      <c r="A127" s="3"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
@@ -17064,7 +17059,7 @@
       <c r="AB127" s="1"/>
     </row>
     <row r="128" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A128" s="4"/>
+      <c r="A128" s="3"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
@@ -17094,7 +17089,7 @@
       <c r="AB128" s="1"/>
     </row>
     <row r="129" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A129" s="4"/>
+      <c r="A129" s="3"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
@@ -17124,7 +17119,7 @@
       <c r="AB129" s="1"/>
     </row>
     <row r="130" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A130" s="4"/>
+      <c r="A130" s="3"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
@@ -17154,7 +17149,7 @@
       <c r="AB130" s="1"/>
     </row>
     <row r="131" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A131" s="4"/>
+      <c r="A131" s="3"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
@@ -17184,7 +17179,7 @@
       <c r="AB131" s="1"/>
     </row>
     <row r="132" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A132" s="4"/>
+      <c r="A132" s="3"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
@@ -17214,7 +17209,7 @@
       <c r="AB132" s="1"/>
     </row>
     <row r="133" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A133" s="4"/>
+      <c r="A133" s="3"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
@@ -17244,7 +17239,7 @@
       <c r="AB133" s="1"/>
     </row>
     <row r="134" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A134" s="4"/>
+      <c r="A134" s="3"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
@@ -17274,7 +17269,7 @@
       <c r="AB134" s="1"/>
     </row>
     <row r="135" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A135" s="4"/>
+      <c r="A135" s="3"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
@@ -17304,7 +17299,7 @@
       <c r="AB135" s="1"/>
     </row>
     <row r="136" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A136" s="4"/>
+      <c r="A136" s="3"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
@@ -17334,7 +17329,7 @@
       <c r="AB136" s="1"/>
     </row>
     <row r="137" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A137" s="4"/>
+      <c r="A137" s="3"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
@@ -17364,7 +17359,7 @@
       <c r="AB137" s="1"/>
     </row>
     <row r="138" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A138" s="4"/>
+      <c r="A138" s="3"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
@@ -17394,7 +17389,7 @@
       <c r="AB138" s="1"/>
     </row>
     <row r="139" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A139" s="4"/>
+      <c r="A139" s="3"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
@@ -17424,7 +17419,7 @@
       <c r="AB139" s="1"/>
     </row>
     <row r="140" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A140" s="4"/>
+      <c r="A140" s="3"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
@@ -17454,7 +17449,7 @@
       <c r="AB140" s="1"/>
     </row>
     <row r="141" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A141" s="4"/>
+      <c r="A141" s="3"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
@@ -17484,7 +17479,7 @@
       <c r="AB141" s="1"/>
     </row>
     <row r="142" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A142" s="4"/>
+      <c r="A142" s="3"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
@@ -17514,7 +17509,7 @@
       <c r="AB142" s="1"/>
     </row>
     <row r="143" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A143" s="4"/>
+      <c r="A143" s="3"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
@@ -17544,7 +17539,7 @@
       <c r="AB143" s="1"/>
     </row>
     <row r="144" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A144" s="4"/>
+      <c r="A144" s="3"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
@@ -17574,7 +17569,7 @@
       <c r="AB144" s="1"/>
     </row>
     <row r="145" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A145" s="4"/>
+      <c r="A145" s="3"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
@@ -17604,7 +17599,7 @@
       <c r="AB145" s="1"/>
     </row>
     <row r="146" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A146" s="4"/>
+      <c r="A146" s="3"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
@@ -17634,7 +17629,7 @@
       <c r="AB146" s="1"/>
     </row>
     <row r="147" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A147" s="4"/>
+      <c r="A147" s="3"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
@@ -17664,7 +17659,7 @@
       <c r="AB147" s="1"/>
     </row>
     <row r="148" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A148" s="4"/>
+      <c r="A148" s="3"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
@@ -17694,7 +17689,7 @@
       <c r="AB148" s="1"/>
     </row>
     <row r="149" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A149" s="4"/>
+      <c r="A149" s="3"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
@@ -17724,7 +17719,7 @@
       <c r="AB149" s="1"/>
     </row>
     <row r="150" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A150" s="4"/>
+      <c r="A150" s="3"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
@@ -17754,7 +17749,7 @@
       <c r="AB150" s="1"/>
     </row>
     <row r="151" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A151" s="4"/>
+      <c r="A151" s="3"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
@@ -17784,7 +17779,7 @@
       <c r="AB151" s="1"/>
     </row>
     <row r="152" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A152" s="4"/>
+      <c r="A152" s="3"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
@@ -17814,7 +17809,7 @@
       <c r="AB152" s="1"/>
     </row>
     <row r="153" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A153" s="4"/>
+      <c r="A153" s="3"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
@@ -17844,7 +17839,7 @@
       <c r="AB153" s="1"/>
     </row>
     <row r="154" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A154" s="4"/>
+      <c r="A154" s="3"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
@@ -17874,7 +17869,7 @@
       <c r="AB154" s="1"/>
     </row>
     <row r="155" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A155" s="4"/>
+      <c r="A155" s="3"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
@@ -17904,7 +17899,7 @@
       <c r="AB155" s="1"/>
     </row>
     <row r="156" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A156" s="4"/>
+      <c r="A156" s="3"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
@@ -17934,7 +17929,7 @@
       <c r="AB156" s="1"/>
     </row>
     <row r="157" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A157" s="4"/>
+      <c r="A157" s="3"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
       <c r="D157" s="1"/>
@@ -17964,7 +17959,7 @@
       <c r="AB157" s="1"/>
     </row>
     <row r="158" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A158" s="4"/>
+      <c r="A158" s="3"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
       <c r="D158" s="1"/>
@@ -17994,7 +17989,7 @@
       <c r="AB158" s="1"/>
     </row>
     <row r="159" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A159" s="4"/>
+      <c r="A159" s="3"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
       <c r="D159" s="1"/>
@@ -18024,7 +18019,7 @@
       <c r="AB159" s="1"/>
     </row>
     <row r="160" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A160" s="4"/>
+      <c r="A160" s="3"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
@@ -18054,7 +18049,7 @@
       <c r="AB160" s="1"/>
     </row>
     <row r="161" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A161" s="4"/>
+      <c r="A161" s="3"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
@@ -18084,7 +18079,7 @@
       <c r="AB161" s="1"/>
     </row>
     <row r="162" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A162" s="4"/>
+      <c r="A162" s="3"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
@@ -18114,7 +18109,7 @@
       <c r="AB162" s="1"/>
     </row>
     <row r="163" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A163" s="4"/>
+      <c r="A163" s="3"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
       <c r="D163" s="1"/>
@@ -18144,7 +18139,7 @@
       <c r="AB163" s="1"/>
     </row>
     <row r="164" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A164" s="4"/>
+      <c r="A164" s="3"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
@@ -18174,7 +18169,7 @@
       <c r="AB164" s="1"/>
     </row>
     <row r="165" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A165" s="4"/>
+      <c r="A165" s="3"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
       <c r="D165" s="1"/>
@@ -18204,7 +18199,7 @@
       <c r="AB165" s="1"/>
     </row>
     <row r="166" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A166" s="4"/>
+      <c r="A166" s="3"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
       <c r="D166" s="1"/>
@@ -18234,7 +18229,7 @@
       <c r="AB166" s="1"/>
     </row>
     <row r="167" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A167" s="4"/>
+      <c r="A167" s="3"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
       <c r="D167" s="1"/>
@@ -18264,7 +18259,7 @@
       <c r="AB167" s="1"/>
     </row>
     <row r="168" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A168" s="4"/>
+      <c r="A168" s="3"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
@@ -18294,7 +18289,7 @@
       <c r="AB168" s="1"/>
     </row>
     <row r="169" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A169" s="4"/>
+      <c r="A169" s="3"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
       <c r="D169" s="1"/>
@@ -18324,7 +18319,7 @@
       <c r="AB169" s="1"/>
     </row>
     <row r="170" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A170" s="4"/>
+      <c r="A170" s="3"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
       <c r="D170" s="1"/>
@@ -18354,7 +18349,7 @@
       <c r="AB170" s="1"/>
     </row>
     <row r="171" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A171" s="4"/>
+      <c r="A171" s="3"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
       <c r="D171" s="1"/>
@@ -18384,7 +18379,7 @@
       <c r="AB171" s="1"/>
     </row>
     <row r="172" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A172" s="4"/>
+      <c r="A172" s="3"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
       <c r="D172" s="1"/>
@@ -18414,7 +18409,7 @@
       <c r="AB172" s="1"/>
     </row>
     <row r="173" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A173" s="4"/>
+      <c r="A173" s="3"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
       <c r="D173" s="1"/>
@@ -18444,7 +18439,7 @@
       <c r="AB173" s="1"/>
     </row>
     <row r="174" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A174" s="4"/>
+      <c r="A174" s="3"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
       <c r="D174" s="1"/>
@@ -18474,7 +18469,7 @@
       <c r="AB174" s="1"/>
     </row>
     <row r="175" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A175" s="4"/>
+      <c r="A175" s="3"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
       <c r="D175" s="1"/>
@@ -18504,7 +18499,7 @@
       <c r="AB175" s="1"/>
     </row>
     <row r="176" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A176" s="4"/>
+      <c r="A176" s="3"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
@@ -18534,7 +18529,7 @@
       <c r="AB176" s="1"/>
     </row>
     <row r="177" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A177" s="4"/>
+      <c r="A177" s="3"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
       <c r="D177" s="1"/>
@@ -18564,7 +18559,7 @@
       <c r="AB177" s="1"/>
     </row>
     <row r="178" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A178" s="4"/>
+      <c r="A178" s="3"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
@@ -18594,7 +18589,7 @@
       <c r="AB178" s="1"/>
     </row>
     <row r="179" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A179" s="4"/>
+      <c r="A179" s="3"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
       <c r="D179" s="1"/>
@@ -18624,7 +18619,7 @@
       <c r="AB179" s="1"/>
     </row>
     <row r="180" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A180" s="4"/>
+      <c r="A180" s="3"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
       <c r="D180" s="1"/>
@@ -18654,7 +18649,7 @@
       <c r="AB180" s="1"/>
     </row>
     <row r="181" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A181" s="4"/>
+      <c r="A181" s="3"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
       <c r="D181" s="1"/>
@@ -18684,7 +18679,7 @@
       <c r="AB181" s="1"/>
     </row>
     <row r="182" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A182" s="4"/>
+      <c r="A182" s="3"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
       <c r="D182" s="1"/>
@@ -18714,7 +18709,7 @@
       <c r="AB182" s="1"/>
     </row>
     <row r="183" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A183" s="4"/>
+      <c r="A183" s="3"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
       <c r="D183" s="1"/>
@@ -18744,7 +18739,7 @@
       <c r="AB183" s="1"/>
     </row>
     <row r="184" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A184" s="4"/>
+      <c r="A184" s="3"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
       <c r="D184" s="1"/>
@@ -18774,7 +18769,7 @@
       <c r="AB184" s="1"/>
     </row>
     <row r="185" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A185" s="4"/>
+      <c r="A185" s="3"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
       <c r="D185" s="1"/>
@@ -18804,7 +18799,7 @@
       <c r="AB185" s="1"/>
     </row>
     <row r="186" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A186" s="4"/>
+      <c r="A186" s="3"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
       <c r="D186" s="1"/>
@@ -18834,7 +18829,7 @@
       <c r="AB186" s="1"/>
     </row>
     <row r="187" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A187" s="4"/>
+      <c r="A187" s="3"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
       <c r="D187" s="1"/>
@@ -18864,7 +18859,7 @@
       <c r="AB187" s="1"/>
     </row>
     <row r="188" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A188" s="4"/>
+      <c r="A188" s="3"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
       <c r="D188" s="1"/>
@@ -18894,7 +18889,7 @@
       <c r="AB188" s="1"/>
     </row>
     <row r="189" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A189" s="4"/>
+      <c r="A189" s="3"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
       <c r="D189" s="1"/>
@@ -18924,7 +18919,7 @@
       <c r="AB189" s="1"/>
     </row>
     <row r="190" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A190" s="4"/>
+      <c r="A190" s="3"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
       <c r="D190" s="1"/>
@@ -18954,7 +18949,7 @@
       <c r="AB190" s="1"/>
     </row>
     <row r="191" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A191" s="4"/>
+      <c r="A191" s="3"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
       <c r="D191" s="1"/>
@@ -18984,7 +18979,7 @@
       <c r="AB191" s="1"/>
     </row>
     <row r="192" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A192" s="4"/>
+      <c r="A192" s="3"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
       <c r="D192" s="1"/>
@@ -19014,7 +19009,7 @@
       <c r="AB192" s="1"/>
     </row>
     <row r="193" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A193" s="4"/>
+      <c r="A193" s="3"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
       <c r="D193" s="1"/>
@@ -19044,7 +19039,7 @@
       <c r="AB193" s="1"/>
     </row>
     <row r="194" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A194" s="4"/>
+      <c r="A194" s="3"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
       <c r="D194" s="1"/>
@@ -19074,7 +19069,7 @@
       <c r="AB194" s="1"/>
     </row>
     <row r="195" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A195" s="4"/>
+      <c r="A195" s="3"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
       <c r="D195" s="1"/>
@@ -19104,7 +19099,7 @@
       <c r="AB195" s="1"/>
     </row>
     <row r="196" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A196" s="4"/>
+      <c r="A196" s="3"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
       <c r="D196" s="1"/>
@@ -19134,7 +19129,7 @@
       <c r="AB196" s="1"/>
     </row>
     <row r="197" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A197" s="4"/>
+      <c r="A197" s="3"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
       <c r="D197" s="1"/>
@@ -19164,7 +19159,7 @@
       <c r="AB197" s="1"/>
     </row>
     <row r="198" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A198" s="4"/>
+      <c r="A198" s="3"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
       <c r="D198" s="1"/>
@@ -19194,7 +19189,7 @@
       <c r="AB198" s="1"/>
     </row>
     <row r="199" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A199" s="4"/>
+      <c r="A199" s="3"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
       <c r="D199" s="1"/>
@@ -19224,7 +19219,7 @@
       <c r="AB199" s="1"/>
     </row>
     <row r="200" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A200" s="4"/>
+      <c r="A200" s="3"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
       <c r="D200" s="1"/>
@@ -19254,7 +19249,7 @@
       <c r="AB200" s="1"/>
     </row>
     <row r="201" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A201" s="4"/>
+      <c r="A201" s="3"/>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
       <c r="D201" s="1"/>
@@ -19284,7 +19279,7 @@
       <c r="AB201" s="1"/>
     </row>
     <row r="202" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A202" s="4"/>
+      <c r="A202" s="3"/>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
       <c r="D202" s="1"/>
@@ -19314,7 +19309,7 @@
       <c r="AB202" s="1"/>
     </row>
     <row r="203" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A203" s="4"/>
+      <c r="A203" s="3"/>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
       <c r="D203" s="1"/>
@@ -19344,7 +19339,7 @@
       <c r="AB203" s="1"/>
     </row>
     <row r="204" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A204" s="4"/>
+      <c r="A204" s="3"/>
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
       <c r="D204" s="1"/>
@@ -19374,7 +19369,7 @@
       <c r="AB204" s="1"/>
     </row>
     <row r="205" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A205" s="4"/>
+      <c r="A205" s="3"/>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
       <c r="D205" s="1"/>
@@ -19404,7 +19399,7 @@
       <c r="AB205" s="1"/>
     </row>
     <row r="206" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A206" s="4"/>
+      <c r="A206" s="3"/>
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
       <c r="D206" s="1"/>
@@ -19434,7 +19429,7 @@
       <c r="AB206" s="1"/>
     </row>
     <row r="207" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A207" s="4"/>
+      <c r="A207" s="3"/>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
       <c r="D207" s="1"/>
@@ -19464,7 +19459,7 @@
       <c r="AB207" s="1"/>
     </row>
     <row r="208" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A208" s="4"/>
+      <c r="A208" s="3"/>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
       <c r="D208" s="1"/>
@@ -19494,7 +19489,7 @@
       <c r="AB208" s="1"/>
     </row>
     <row r="209" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A209" s="4"/>
+      <c r="A209" s="3"/>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
       <c r="D209" s="1"/>
@@ -19524,7 +19519,7 @@
       <c r="AB209" s="1"/>
     </row>
     <row r="210" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A210" s="4"/>
+      <c r="A210" s="3"/>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
       <c r="D210" s="1"/>
@@ -19554,7 +19549,7 @@
       <c r="AB210" s="1"/>
     </row>
     <row r="211" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A211" s="4"/>
+      <c r="A211" s="3"/>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
       <c r="D211" s="1"/>
@@ -19584,7 +19579,7 @@
       <c r="AB211" s="1"/>
     </row>
     <row r="212" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A212" s="4"/>
+      <c r="A212" s="3"/>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
       <c r="D212" s="1"/>
@@ -19614,7 +19609,7 @@
       <c r="AB212" s="1"/>
     </row>
     <row r="213" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A213" s="4"/>
+      <c r="A213" s="3"/>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
       <c r="D213" s="1"/>
@@ -19644,7 +19639,7 @@
       <c r="AB213" s="1"/>
     </row>
     <row r="214" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A214" s="4"/>
+      <c r="A214" s="3"/>
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
       <c r="D214" s="1"/>
@@ -19674,7 +19669,7 @@
       <c r="AB214" s="1"/>
     </row>
     <row r="215" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A215" s="4"/>
+      <c r="A215" s="3"/>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
       <c r="D215" s="1"/>
@@ -19704,7 +19699,7 @@
       <c r="AB215" s="1"/>
     </row>
     <row r="216" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A216" s="4"/>
+      <c r="A216" s="3"/>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
       <c r="D216" s="1"/>
@@ -19734,7 +19729,7 @@
       <c r="AB216" s="1"/>
     </row>
     <row r="217" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A217" s="4"/>
+      <c r="A217" s="3"/>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
       <c r="D217" s="1"/>
@@ -19764,7 +19759,7 @@
       <c r="AB217" s="1"/>
     </row>
     <row r="218" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A218" s="4"/>
+      <c r="A218" s="3"/>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
       <c r="D218" s="1"/>
@@ -19794,7 +19789,7 @@
       <c r="AB218" s="1"/>
     </row>
     <row r="219" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A219" s="4"/>
+      <c r="A219" s="3"/>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
       <c r="D219" s="1"/>
@@ -19824,7 +19819,7 @@
       <c r="AB219" s="1"/>
     </row>
     <row r="220" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A220" s="4"/>
+      <c r="A220" s="3"/>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
       <c r="D220" s="1"/>
@@ -19854,7 +19849,7 @@
       <c r="AB220" s="1"/>
     </row>
     <row r="221" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A221" s="4"/>
+      <c r="A221" s="3"/>
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
       <c r="D221" s="1"/>
@@ -19884,7 +19879,7 @@
       <c r="AB221" s="1"/>
     </row>
     <row r="222" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A222" s="4"/>
+      <c r="A222" s="3"/>
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
       <c r="D222" s="1"/>
@@ -19914,7 +19909,7 @@
       <c r="AB222" s="1"/>
     </row>
     <row r="223" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A223" s="4"/>
+      <c r="A223" s="3"/>
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
       <c r="D223" s="1"/>
@@ -19944,7 +19939,7 @@
       <c r="AB223" s="1"/>
     </row>
     <row r="224" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A224" s="4"/>
+      <c r="A224" s="3"/>
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
       <c r="D224" s="1"/>
@@ -19974,7 +19969,7 @@
       <c r="AB224" s="1"/>
     </row>
     <row r="225" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A225" s="4"/>
+      <c r="A225" s="3"/>
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
       <c r="D225" s="1"/>
@@ -20004,7 +19999,7 @@
       <c r="AB225" s="1"/>
     </row>
     <row r="226" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A226" s="4"/>
+      <c r="A226" s="3"/>
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
       <c r="D226" s="1"/>
@@ -20034,7 +20029,7 @@
       <c r="AB226" s="1"/>
     </row>
     <row r="227" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A227" s="4"/>
+      <c r="A227" s="3"/>
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
       <c r="D227" s="1"/>
@@ -20064,7 +20059,7 @@
       <c r="AB227" s="1"/>
     </row>
     <row r="228" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A228" s="4"/>
+      <c r="A228" s="3"/>
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
       <c r="D228" s="1"/>
@@ -20094,7 +20089,7 @@
       <c r="AB228" s="1"/>
     </row>
     <row r="229" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A229" s="4"/>
+      <c r="A229" s="3"/>
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
       <c r="D229" s="1"/>
@@ -20124,7 +20119,7 @@
       <c r="AB229" s="1"/>
     </row>
     <row r="230" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A230" s="4"/>
+      <c r="A230" s="3"/>
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
       <c r="D230" s="1"/>
@@ -20154,7 +20149,7 @@
       <c r="AB230" s="1"/>
     </row>
     <row r="231" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A231" s="4"/>
+      <c r="A231" s="3"/>
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
       <c r="D231" s="1"/>
@@ -20184,7 +20179,7 @@
       <c r="AB231" s="1"/>
     </row>
     <row r="232" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A232" s="4"/>
+      <c r="A232" s="3"/>
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
       <c r="D232" s="1"/>
@@ -20214,7 +20209,7 @@
       <c r="AB232" s="1"/>
     </row>
     <row r="233" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A233" s="4"/>
+      <c r="A233" s="3"/>
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
       <c r="D233" s="1"/>
@@ -20244,7 +20239,7 @@
       <c r="AB233" s="1"/>
     </row>
     <row r="234" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A234" s="4"/>
+      <c r="A234" s="3"/>
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
       <c r="D234" s="1"/>
@@ -20274,7 +20269,7 @@
       <c r="AB234" s="1"/>
     </row>
     <row r="235" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A235" s="4"/>
+      <c r="A235" s="3"/>
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
       <c r="D235" s="1"/>
@@ -20304,7 +20299,7 @@
       <c r="AB235" s="1"/>
     </row>
     <row r="236" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A236" s="4"/>
+      <c r="A236" s="3"/>
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
       <c r="D236" s="1"/>
@@ -20334,7 +20329,7 @@
       <c r="AB236" s="1"/>
     </row>
     <row r="237" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A237" s="4"/>
+      <c r="A237" s="3"/>
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
       <c r="D237" s="1"/>
@@ -20364,7 +20359,7 @@
       <c r="AB237" s="1"/>
     </row>
     <row r="238" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A238" s="4"/>
+      <c r="A238" s="3"/>
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
       <c r="D238" s="1"/>
@@ -20394,7 +20389,7 @@
       <c r="AB238" s="1"/>
     </row>
     <row r="239" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A239" s="4"/>
+      <c r="A239" s="3"/>
       <c r="B239" s="1"/>
       <c r="C239" s="1"/>
       <c r="D239" s="1"/>
@@ -20424,7 +20419,7 @@
       <c r="AB239" s="1"/>
     </row>
     <row r="240" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A240" s="4"/>
+      <c r="A240" s="3"/>
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
       <c r="D240" s="1"/>
@@ -20454,7 +20449,7 @@
       <c r="AB240" s="1"/>
     </row>
     <row r="241" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A241" s="4"/>
+      <c r="A241" s="3"/>
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
       <c r="D241" s="1"/>
@@ -20484,7 +20479,7 @@
       <c r="AB241" s="1"/>
     </row>
     <row r="242" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A242" s="4"/>
+      <c r="A242" s="3"/>
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
       <c r="D242" s="1"/>
@@ -20514,7 +20509,7 @@
       <c r="AB242" s="1"/>
     </row>
     <row r="243" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A243" s="4"/>
+      <c r="A243" s="3"/>
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
       <c r="D243" s="1"/>
@@ -20544,7 +20539,7 @@
       <c r="AB243" s="1"/>
     </row>
     <row r="244" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A244" s="4"/>
+      <c r="A244" s="3"/>
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
       <c r="D244" s="1"/>
@@ -20574,7 +20569,7 @@
       <c r="AB244" s="1"/>
     </row>
     <row r="245" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A245" s="4"/>
+      <c r="A245" s="3"/>
       <c r="B245" s="1"/>
       <c r="C245" s="1"/>
       <c r="D245" s="1"/>
@@ -20604,7 +20599,7 @@
       <c r="AB245" s="1"/>
     </row>
     <row r="246" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A246" s="4"/>
+      <c r="A246" s="3"/>
       <c r="B246" s="1"/>
       <c r="C246" s="1"/>
       <c r="D246" s="1"/>
@@ -20634,7 +20629,7 @@
       <c r="AB246" s="1"/>
     </row>
     <row r="247" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A247" s="4"/>
+      <c r="A247" s="3"/>
       <c r="B247" s="1"/>
       <c r="C247" s="1"/>
       <c r="D247" s="1"/>
@@ -20664,7 +20659,7 @@
       <c r="AB247" s="1"/>
     </row>
     <row r="248" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A248" s="4"/>
+      <c r="A248" s="3"/>
       <c r="B248" s="1"/>
       <c r="C248" s="1"/>
       <c r="D248" s="1"/>
@@ -20694,7 +20689,7 @@
       <c r="AB248" s="1"/>
     </row>
     <row r="249" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A249" s="4"/>
+      <c r="A249" s="3"/>
       <c r="B249" s="1"/>
       <c r="C249" s="1"/>
       <c r="D249" s="1"/>
@@ -20724,7 +20719,7 @@
       <c r="AB249" s="1"/>
     </row>
     <row r="250" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A250" s="4"/>
+      <c r="A250" s="3"/>
       <c r="B250" s="1"/>
       <c r="C250" s="1"/>
       <c r="D250" s="1"/>
@@ -20754,7 +20749,7 @@
       <c r="AB250" s="1"/>
     </row>
     <row r="251" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A251" s="4"/>
+      <c r="A251" s="3"/>
       <c r="B251" s="1"/>
       <c r="C251" s="1"/>
       <c r="D251" s="1"/>
@@ -20784,7 +20779,7 @@
       <c r="AB251" s="1"/>
     </row>
     <row r="252" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A252" s="4"/>
+      <c r="A252" s="3"/>
       <c r="B252" s="1"/>
       <c r="C252" s="1"/>
       <c r="D252" s="1"/>
@@ -20814,7 +20809,7 @@
       <c r="AB252" s="1"/>
     </row>
     <row r="253" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A253" s="4"/>
+      <c r="A253" s="3"/>
       <c r="B253" s="1"/>
       <c r="C253" s="1"/>
       <c r="D253" s="1"/>
@@ -20844,7 +20839,7 @@
       <c r="AB253" s="1"/>
     </row>
     <row r="254" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A254" s="4"/>
+      <c r="A254" s="3"/>
       <c r="B254" s="1"/>
       <c r="C254" s="1"/>
       <c r="D254" s="1"/>
@@ -20874,7 +20869,7 @@
       <c r="AB254" s="1"/>
     </row>
     <row r="255" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A255" s="4"/>
+      <c r="A255" s="3"/>
       <c r="B255" s="1"/>
       <c r="C255" s="1"/>
       <c r="D255" s="1"/>
@@ -20904,7 +20899,7 @@
       <c r="AB255" s="1"/>
     </row>
     <row r="256" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A256" s="4"/>
+      <c r="A256" s="3"/>
       <c r="B256" s="1"/>
       <c r="C256" s="1"/>
       <c r="D256" s="1"/>
@@ -20934,7 +20929,7 @@
       <c r="AB256" s="1"/>
     </row>
     <row r="257" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A257" s="4"/>
+      <c r="A257" s="3"/>
       <c r="B257" s="1"/>
       <c r="C257" s="1"/>
       <c r="D257" s="1"/>
@@ -20964,7 +20959,7 @@
       <c r="AB257" s="1"/>
     </row>
     <row r="258" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A258" s="4"/>
+      <c r="A258" s="3"/>
       <c r="B258" s="1"/>
       <c r="C258" s="1"/>
       <c r="D258" s="1"/>
@@ -20994,7 +20989,7 @@
       <c r="AB258" s="1"/>
     </row>
     <row r="259" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A259" s="4"/>
+      <c r="A259" s="3"/>
       <c r="B259" s="1"/>
       <c r="C259" s="1"/>
       <c r="D259" s="1"/>
@@ -21024,7 +21019,7 @@
       <c r="AB259" s="1"/>
     </row>
     <row r="260" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A260" s="4"/>
+      <c r="A260" s="3"/>
       <c r="B260" s="1"/>
       <c r="C260" s="1"/>
       <c r="D260" s="1"/>
@@ -21054,7 +21049,7 @@
       <c r="AB260" s="1"/>
     </row>
     <row r="261" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A261" s="4"/>
+      <c r="A261" s="3"/>
       <c r="B261" s="1"/>
       <c r="C261" s="1"/>
       <c r="D261" s="1"/>
@@ -21084,7 +21079,7 @@
       <c r="AB261" s="1"/>
     </row>
     <row r="262" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A262" s="4"/>
+      <c r="A262" s="3"/>
       <c r="B262" s="1"/>
       <c r="C262" s="1"/>
       <c r="D262" s="1"/>
@@ -21114,7 +21109,7 @@
       <c r="AB262" s="1"/>
     </row>
     <row r="263" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A263" s="4"/>
+      <c r="A263" s="3"/>
       <c r="B263" s="1"/>
       <c r="C263" s="1"/>
       <c r="D263" s="1"/>
@@ -21144,7 +21139,7 @@
       <c r="AB263" s="1"/>
     </row>
     <row r="264" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A264" s="4"/>
+      <c r="A264" s="3"/>
       <c r="B264" s="1"/>
       <c r="C264" s="1"/>
       <c r="D264" s="1"/>
@@ -21174,7 +21169,7 @@
       <c r="AB264" s="1"/>
     </row>
     <row r="265" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A265" s="4"/>
+      <c r="A265" s="3"/>
       <c r="B265" s="1"/>
       <c r="C265" s="1"/>
       <c r="D265" s="1"/>
@@ -21204,7 +21199,7 @@
       <c r="AB265" s="1"/>
     </row>
     <row r="266" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A266" s="4"/>
+      <c r="A266" s="3"/>
       <c r="B266" s="1"/>
       <c r="C266" s="1"/>
       <c r="D266" s="1"/>
@@ -21234,7 +21229,7 @@
       <c r="AB266" s="1"/>
     </row>
     <row r="267" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A267" s="4"/>
+      <c r="A267" s="3"/>
       <c r="B267" s="1"/>
       <c r="C267" s="1"/>
       <c r="D267" s="1"/>
@@ -21264,7 +21259,7 @@
       <c r="AB267" s="1"/>
     </row>
     <row r="268" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A268" s="4"/>
+      <c r="A268" s="3"/>
       <c r="B268" s="1"/>
       <c r="C268" s="1"/>
       <c r="D268" s="1"/>
@@ -21294,7 +21289,7 @@
       <c r="AB268" s="1"/>
     </row>
     <row r="269" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A269" s="4"/>
+      <c r="A269" s="3"/>
       <c r="B269" s="1"/>
       <c r="C269" s="1"/>
       <c r="D269" s="1"/>
@@ -21324,7 +21319,7 @@
       <c r="AB269" s="1"/>
     </row>
     <row r="270" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A270" s="4"/>
+      <c r="A270" s="3"/>
       <c r="B270" s="1"/>
       <c r="C270" s="1"/>
       <c r="D270" s="1"/>
@@ -21354,7 +21349,7 @@
       <c r="AB270" s="1"/>
     </row>
     <row r="271" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A271" s="4"/>
+      <c r="A271" s="3"/>
       <c r="B271" s="1"/>
       <c r="C271" s="1"/>
       <c r="D271" s="1"/>
@@ -21384,7 +21379,7 @@
       <c r="AB271" s="1"/>
     </row>
     <row r="272" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A272" s="4"/>
+      <c r="A272" s="3"/>
       <c r="B272" s="1"/>
       <c r="C272" s="1"/>
       <c r="D272" s="1"/>
@@ -21414,7 +21409,7 @@
       <c r="AB272" s="1"/>
     </row>
     <row r="273" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A273" s="4"/>
+      <c r="A273" s="3"/>
       <c r="B273" s="1"/>
       <c r="C273" s="1"/>
       <c r="D273" s="1"/>
@@ -21444,7 +21439,7 @@
       <c r="AB273" s="1"/>
     </row>
     <row r="274" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A274" s="4"/>
+      <c r="A274" s="3"/>
       <c r="B274" s="1"/>
       <c r="C274" s="1"/>
       <c r="D274" s="1"/>
@@ -21474,7 +21469,7 @@
       <c r="AB274" s="1"/>
     </row>
     <row r="275" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A275" s="4"/>
+      <c r="A275" s="3"/>
       <c r="B275" s="1"/>
       <c r="C275" s="1"/>
       <c r="D275" s="1"/>
@@ -21504,7 +21499,7 @@
       <c r="AB275" s="1"/>
     </row>
     <row r="276" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A276" s="4"/>
+      <c r="A276" s="3"/>
       <c r="B276" s="1"/>
       <c r="C276" s="1"/>
       <c r="D276" s="1"/>
@@ -21534,7 +21529,7 @@
       <c r="AB276" s="1"/>
     </row>
     <row r="277" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A277" s="4"/>
+      <c r="A277" s="3"/>
       <c r="B277" s="1"/>
       <c r="C277" s="1"/>
       <c r="D277" s="1"/>
@@ -21564,7 +21559,7 @@
       <c r="AB277" s="1"/>
     </row>
     <row r="278" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A278" s="4"/>
+      <c r="A278" s="3"/>
       <c r="B278" s="1"/>
       <c r="C278" s="1"/>
       <c r="D278" s="1"/>
@@ -21594,7 +21589,7 @@
       <c r="AB278" s="1"/>
     </row>
     <row r="279" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A279" s="4"/>
+      <c r="A279" s="3"/>
       <c r="B279" s="1"/>
       <c r="C279" s="1"/>
       <c r="D279" s="1"/>
@@ -21624,7 +21619,7 @@
       <c r="AB279" s="1"/>
     </row>
     <row r="280" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A280" s="4"/>
+      <c r="A280" s="3"/>
       <c r="B280" s="1"/>
       <c r="C280" s="1"/>
       <c r="D280" s="1"/>
@@ -21654,7 +21649,7 @@
       <c r="AB280" s="1"/>
     </row>
     <row r="281" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A281" s="4"/>
+      <c r="A281" s="3"/>
       <c r="B281" s="1"/>
       <c r="C281" s="1"/>
       <c r="D281" s="1"/>
@@ -21684,7 +21679,7 @@
       <c r="AB281" s="1"/>
     </row>
     <row r="282" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A282" s="4"/>
+      <c r="A282" s="3"/>
       <c r="B282" s="1"/>
       <c r="C282" s="1"/>
       <c r="D282" s="1"/>
@@ -21714,7 +21709,7 @@
       <c r="AB282" s="1"/>
     </row>
     <row r="283" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A283" s="4"/>
+      <c r="A283" s="3"/>
       <c r="B283" s="1"/>
       <c r="C283" s="1"/>
       <c r="D283" s="1"/>
@@ -21744,7 +21739,7 @@
       <c r="AB283" s="1"/>
     </row>
     <row r="284" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A284" s="4"/>
+      <c r="A284" s="3"/>
       <c r="B284" s="1"/>
       <c r="C284" s="1"/>
       <c r="D284" s="1"/>
@@ -21774,7 +21769,7 @@
       <c r="AB284" s="1"/>
     </row>
     <row r="285" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A285" s="4"/>
+      <c r="A285" s="3"/>
       <c r="B285" s="1"/>
       <c r="C285" s="1"/>
       <c r="D285" s="1"/>
@@ -21804,7 +21799,7 @@
       <c r="AB285" s="1"/>
     </row>
     <row r="286" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A286" s="4"/>
+      <c r="A286" s="3"/>
       <c r="B286" s="1"/>
       <c r="C286" s="1"/>
       <c r="D286" s="1"/>
@@ -21834,7 +21829,7 @@
       <c r="AB286" s="1"/>
     </row>
     <row r="287" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A287" s="4"/>
+      <c r="A287" s="3"/>
       <c r="B287" s="1"/>
       <c r="C287" s="1"/>
       <c r="D287" s="1"/>
@@ -21864,7 +21859,7 @@
       <c r="AB287" s="1"/>
     </row>
     <row r="288" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A288" s="4"/>
+      <c r="A288" s="3"/>
       <c r="B288" s="1"/>
       <c r="C288" s="1"/>
       <c r="D288" s="1"/>
@@ -21894,7 +21889,7 @@
       <c r="AB288" s="1"/>
     </row>
     <row r="289" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A289" s="4"/>
+      <c r="A289" s="3"/>
       <c r="B289" s="1"/>
       <c r="C289" s="1"/>
       <c r="D289" s="1"/>
@@ -21924,7 +21919,7 @@
       <c r="AB289" s="1"/>
     </row>
     <row r="290" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A290" s="4"/>
+      <c r="A290" s="3"/>
       <c r="B290" s="1"/>
       <c r="C290" s="1"/>
       <c r="D290" s="1"/>
@@ -21954,7 +21949,7 @@
       <c r="AB290" s="1"/>
     </row>
     <row r="291" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A291" s="4"/>
+      <c r="A291" s="3"/>
       <c r="B291" s="1"/>
       <c r="C291" s="1"/>
       <c r="D291" s="1"/>
@@ -21984,7 +21979,7 @@
       <c r="AB291" s="1"/>
     </row>
     <row r="292" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A292" s="4"/>
+      <c r="A292" s="3"/>
       <c r="B292" s="1"/>
       <c r="C292" s="1"/>
       <c r="D292" s="1"/>
@@ -22014,7 +22009,7 @@
       <c r="AB292" s="1"/>
     </row>
     <row r="293" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A293" s="4"/>
+      <c r="A293" s="3"/>
       <c r="B293" s="1"/>
       <c r="C293" s="1"/>
       <c r="D293" s="1"/>
@@ -22044,7 +22039,7 @@
       <c r="AB293" s="1"/>
     </row>
     <row r="294" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A294" s="4"/>
+      <c r="A294" s="3"/>
       <c r="B294" s="1"/>
       <c r="C294" s="1"/>
       <c r="D294" s="1"/>
@@ -22074,7 +22069,7 @@
       <c r="AB294" s="1"/>
     </row>
     <row r="295" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A295" s="4"/>
+      <c r="A295" s="3"/>
       <c r="B295" s="1"/>
       <c r="C295" s="1"/>
       <c r="D295" s="1"/>
@@ -22104,7 +22099,7 @@
       <c r="AB295" s="1"/>
     </row>
     <row r="296" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A296" s="4"/>
+      <c r="A296" s="3"/>
       <c r="B296" s="1"/>
       <c r="C296" s="1"/>
       <c r="D296" s="1"/>
@@ -22134,7 +22129,7 @@
       <c r="AB296" s="1"/>
     </row>
     <row r="297" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A297" s="4"/>
+      <c r="A297" s="3"/>
       <c r="B297" s="1"/>
       <c r="C297" s="1"/>
       <c r="D297" s="1"/>
@@ -22164,7 +22159,7 @@
       <c r="AB297" s="1"/>
     </row>
     <row r="298" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A298" s="4"/>
+      <c r="A298" s="3"/>
       <c r="B298" s="1"/>
       <c r="C298" s="1"/>
       <c r="D298" s="1"/>
@@ -22194,7 +22189,7 @@
       <c r="AB298" s="1"/>
     </row>
     <row r="299" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A299" s="4"/>
+      <c r="A299" s="3"/>
       <c r="B299" s="1"/>
       <c r="C299" s="1"/>
       <c r="D299" s="1"/>
@@ -22224,7 +22219,7 @@
       <c r="AB299" s="1"/>
     </row>
     <row r="300" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A300" s="4"/>
+      <c r="A300" s="3"/>
       <c r="B300" s="1"/>
       <c r="C300" s="1"/>
       <c r="D300" s="1"/>
@@ -22254,7 +22249,7 @@
       <c r="AB300" s="1"/>
     </row>
     <row r="301" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A301" s="4"/>
+      <c r="A301" s="3"/>
       <c r="B301" s="1"/>
       <c r="C301" s="1"/>
       <c r="D301" s="1"/>
@@ -22284,7 +22279,7 @@
       <c r="AB301" s="1"/>
     </row>
     <row r="302" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A302" s="4"/>
+      <c r="A302" s="3"/>
       <c r="B302" s="1"/>
       <c r="C302" s="1"/>
       <c r="D302" s="1"/>
@@ -22314,7 +22309,7 @@
       <c r="AB302" s="1"/>
     </row>
     <row r="303" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A303" s="4"/>
+      <c r="A303" s="3"/>
       <c r="B303" s="1"/>
       <c r="C303" s="1"/>
       <c r="D303" s="1"/>
@@ -22344,7 +22339,7 @@
       <c r="AB303" s="1"/>
     </row>
     <row r="304" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A304" s="4"/>
+      <c r="A304" s="3"/>
       <c r="B304" s="1"/>
       <c r="C304" s="1"/>
       <c r="D304" s="1"/>
@@ -22374,7 +22369,7 @@
       <c r="AB304" s="1"/>
     </row>
     <row r="305" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A305" s="4"/>
+      <c r="A305" s="3"/>
       <c r="B305" s="1"/>
       <c r="C305" s="1"/>
       <c r="D305" s="1"/>
@@ -22404,7 +22399,7 @@
       <c r="AB305" s="1"/>
     </row>
     <row r="306" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A306" s="4"/>
+      <c r="A306" s="3"/>
       <c r="B306" s="1"/>
       <c r="C306" s="1"/>
       <c r="D306" s="1"/>
@@ -22434,7 +22429,7 @@
       <c r="AB306" s="1"/>
     </row>
     <row r="307" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A307" s="4"/>
+      <c r="A307" s="3"/>
       <c r="B307" s="1"/>
       <c r="C307" s="1"/>
       <c r="D307" s="1"/>
@@ -22464,7 +22459,7 @@
       <c r="AB307" s="1"/>
     </row>
     <row r="308" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A308" s="4"/>
+      <c r="A308" s="3"/>
       <c r="B308" s="1"/>
       <c r="C308" s="1"/>
       <c r="D308" s="1"/>
@@ -22494,7 +22489,7 @@
       <c r="AB308" s="1"/>
     </row>
     <row r="309" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A309" s="4"/>
+      <c r="A309" s="3"/>
       <c r="B309" s="1"/>
       <c r="C309" s="1"/>
       <c r="D309" s="1"/>
@@ -22524,7 +22519,7 @@
       <c r="AB309" s="1"/>
     </row>
     <row r="310" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A310" s="4"/>
+      <c r="A310" s="3"/>
       <c r="B310" s="1"/>
       <c r="C310" s="1"/>
       <c r="D310" s="1"/>
@@ -22554,7 +22549,7 @@
       <c r="AB310" s="1"/>
     </row>
     <row r="311" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A311" s="4"/>
+      <c r="A311" s="3"/>
       <c r="B311" s="1"/>
       <c r="C311" s="1"/>
       <c r="D311" s="1"/>
@@ -22584,7 +22579,7 @@
       <c r="AB311" s="1"/>
     </row>
     <row r="312" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A312" s="4"/>
+      <c r="A312" s="3"/>
       <c r="B312" s="1"/>
       <c r="C312" s="1"/>
       <c r="D312" s="1"/>
@@ -22614,7 +22609,7 @@
       <c r="AB312" s="1"/>
     </row>
     <row r="313" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A313" s="4"/>
+      <c r="A313" s="3"/>
       <c r="B313" s="1"/>
       <c r="C313" s="1"/>
       <c r="D313" s="1"/>
@@ -22644,7 +22639,7 @@
       <c r="AB313" s="1"/>
     </row>
     <row r="314" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A314" s="4"/>
+      <c r="A314" s="3"/>
       <c r="B314" s="1"/>
       <c r="C314" s="1"/>
       <c r="D314" s="1"/>
@@ -22674,7 +22669,7 @@
       <c r="AB314" s="1"/>
     </row>
     <row r="315" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A315" s="4"/>
+      <c r="A315" s="3"/>
       <c r="B315" s="1"/>
       <c r="C315" s="1"/>
       <c r="D315" s="1"/>
@@ -22704,7 +22699,7 @@
       <c r="AB315" s="1"/>
     </row>
     <row r="316" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A316" s="4"/>
+      <c r="A316" s="3"/>
       <c r="B316" s="1"/>
       <c r="C316" s="1"/>
       <c r="D316" s="1"/>
@@ -22734,7 +22729,7 @@
       <c r="AB316" s="1"/>
     </row>
     <row r="317" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A317" s="4"/>
+      <c r="A317" s="3"/>
       <c r="B317" s="1"/>
       <c r="C317" s="1"/>
       <c r="D317" s="1"/>
@@ -22764,7 +22759,7 @@
       <c r="AB317" s="1"/>
     </row>
     <row r="318" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A318" s="4"/>
+      <c r="A318" s="3"/>
       <c r="B318" s="1"/>
       <c r="C318" s="1"/>
       <c r="D318" s="1"/>
@@ -22794,7 +22789,7 @@
       <c r="AB318" s="1"/>
     </row>
     <row r="319" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A319" s="4"/>
+      <c r="A319" s="3"/>
       <c r="B319" s="1"/>
       <c r="C319" s="1"/>
       <c r="D319" s="1"/>
@@ -22824,7 +22819,7 @@
       <c r="AB319" s="1"/>
     </row>
     <row r="320" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A320" s="4"/>
+      <c r="A320" s="3"/>
       <c r="B320" s="1"/>
       <c r="C320" s="1"/>
       <c r="D320" s="1"/>
@@ -22854,7 +22849,7 @@
       <c r="AB320" s="1"/>
     </row>
     <row r="321" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A321" s="4"/>
+      <c r="A321" s="3"/>
       <c r="B321" s="1"/>
       <c r="C321" s="1"/>
       <c r="D321" s="1"/>
@@ -22884,7 +22879,7 @@
       <c r="AB321" s="1"/>
     </row>
     <row r="322" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A322" s="4"/>
+      <c r="A322" s="3"/>
       <c r="B322" s="1"/>
       <c r="C322" s="1"/>
       <c r="D322" s="1"/>
@@ -22914,7 +22909,7 @@
       <c r="AB322" s="1"/>
     </row>
     <row r="323" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A323" s="4"/>
+      <c r="A323" s="3"/>
       <c r="B323" s="1"/>
       <c r="C323" s="1"/>
       <c r="D323" s="1"/>
@@ -22944,7 +22939,7 @@
       <c r="AB323" s="1"/>
     </row>
     <row r="324" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A324" s="4"/>
+      <c r="A324" s="3"/>
       <c r="B324" s="1"/>
       <c r="C324" s="1"/>
       <c r="D324" s="1"/>
@@ -22974,7 +22969,7 @@
       <c r="AB324" s="1"/>
     </row>
     <row r="325" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A325" s="4"/>
+      <c r="A325" s="3"/>
       <c r="B325" s="1"/>
       <c r="C325" s="1"/>
       <c r="D325" s="1"/>
@@ -23004,7 +22999,7 @@
       <c r="AB325" s="1"/>
     </row>
     <row r="326" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A326" s="4"/>
+      <c r="A326" s="3"/>
       <c r="B326" s="1"/>
       <c r="C326" s="1"/>
       <c r="D326" s="1"/>
@@ -23034,7 +23029,7 @@
       <c r="AB326" s="1"/>
     </row>
     <row r="327" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A327" s="4"/>
+      <c r="A327" s="3"/>
       <c r="B327" s="1"/>
       <c r="C327" s="1"/>
       <c r="D327" s="1"/>
@@ -23064,7 +23059,7 @@
       <c r="AB327" s="1"/>
     </row>
     <row r="328" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A328" s="4"/>
+      <c r="A328" s="3"/>
       <c r="B328" s="1"/>
       <c r="C328" s="1"/>
       <c r="D328" s="1"/>
@@ -23094,7 +23089,7 @@
       <c r="AB328" s="1"/>
     </row>
     <row r="329" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A329" s="4"/>
+      <c r="A329" s="3"/>
       <c r="B329" s="1"/>
       <c r="C329" s="1"/>
       <c r="D329" s="1"/>
@@ -23124,7 +23119,7 @@
       <c r="AB329" s="1"/>
     </row>
     <row r="330" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A330" s="4"/>
+      <c r="A330" s="3"/>
       <c r="B330" s="1"/>
       <c r="C330" s="1"/>
       <c r="D330" s="1"/>
@@ -23154,7 +23149,7 @@
       <c r="AB330" s="1"/>
     </row>
     <row r="331" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A331" s="4"/>
+      <c r="A331" s="3"/>
       <c r="B331" s="1"/>
       <c r="C331" s="1"/>
       <c r="D331" s="1"/>
@@ -23184,7 +23179,7 @@
       <c r="AB331" s="1"/>
     </row>
     <row r="332" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A332" s="4"/>
+      <c r="A332" s="3"/>
       <c r="B332" s="1"/>
       <c r="C332" s="1"/>
       <c r="D332" s="1"/>
@@ -23214,7 +23209,7 @@
       <c r="AB332" s="1"/>
     </row>
     <row r="333" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A333" s="4"/>
+      <c r="A333" s="3"/>
       <c r="B333" s="1"/>
       <c r="C333" s="1"/>
       <c r="D333" s="1"/>
@@ -23244,7 +23239,7 @@
       <c r="AB333" s="1"/>
     </row>
     <row r="334" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A334" s="4"/>
+      <c r="A334" s="3"/>
       <c r="B334" s="1"/>
       <c r="C334" s="1"/>
       <c r="D334" s="1"/>
@@ -23274,7 +23269,7 @@
       <c r="AB334" s="1"/>
     </row>
     <row r="335" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A335" s="4"/>
+      <c r="A335" s="3"/>
       <c r="B335" s="1"/>
       <c r="C335" s="1"/>
       <c r="D335" s="1"/>
@@ -23304,7 +23299,7 @@
       <c r="AB335" s="1"/>
     </row>
     <row r="336" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A336" s="4"/>
+      <c r="A336" s="3"/>
       <c r="B336" s="1"/>
       <c r="C336" s="1"/>
       <c r="D336" s="1"/>
@@ -23334,7 +23329,7 @@
       <c r="AB336" s="1"/>
     </row>
     <row r="337" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A337" s="4"/>
+      <c r="A337" s="3"/>
       <c r="B337" s="1"/>
       <c r="C337" s="1"/>
       <c r="D337" s="1"/>
@@ -23364,7 +23359,7 @@
       <c r="AB337" s="1"/>
     </row>
     <row r="338" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A338" s="4"/>
+      <c r="A338" s="3"/>
       <c r="B338" s="1"/>
       <c r="C338" s="1"/>
       <c r="D338" s="1"/>
@@ -23394,7 +23389,7 @@
       <c r="AB338" s="1"/>
     </row>
     <row r="339" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A339" s="4"/>
+      <c r="A339" s="3"/>
       <c r="B339" s="1"/>
       <c r="C339" s="1"/>
       <c r="D339" s="1"/>
@@ -23424,7 +23419,7 @@
       <c r="AB339" s="1"/>
     </row>
     <row r="340" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A340" s="4"/>
+      <c r="A340" s="3"/>
       <c r="B340" s="1"/>
       <c r="C340" s="1"/>
       <c r="D340" s="1"/>
@@ -23454,7 +23449,7 @@
       <c r="AB340" s="1"/>
     </row>
     <row r="341" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A341" s="4"/>
+      <c r="A341" s="3"/>
       <c r="B341" s="1"/>
       <c r="C341" s="1"/>
       <c r="D341" s="1"/>
@@ -23484,7 +23479,7 @@
       <c r="AB341" s="1"/>
     </row>
     <row r="342" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A342" s="4"/>
+      <c r="A342" s="3"/>
       <c r="B342" s="1"/>
       <c r="C342" s="1"/>
       <c r="D342" s="1"/>
@@ -23514,7 +23509,7 @@
       <c r="AB342" s="1"/>
     </row>
     <row r="343" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A343" s="4"/>
+      <c r="A343" s="3"/>
       <c r="B343" s="1"/>
       <c r="C343" s="1"/>
       <c r="D343" s="1"/>
@@ -23544,7 +23539,7 @@
       <c r="AB343" s="1"/>
     </row>
     <row r="344" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A344" s="4"/>
+      <c r="A344" s="3"/>
       <c r="B344" s="1"/>
       <c r="C344" s="1"/>
       <c r="D344" s="1"/>
@@ -23574,7 +23569,7 @@
       <c r="AB344" s="1"/>
     </row>
     <row r="345" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A345" s="4"/>
+      <c r="A345" s="3"/>
       <c r="B345" s="1"/>
       <c r="C345" s="1"/>
       <c r="D345" s="1"/>
@@ -23604,7 +23599,7 @@
       <c r="AB345" s="1"/>
     </row>
     <row r="346" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A346" s="4"/>
+      <c r="A346" s="3"/>
       <c r="B346" s="1"/>
       <c r="C346" s="1"/>
       <c r="D346" s="1"/>
@@ -23634,7 +23629,7 @@
       <c r="AB346" s="1"/>
     </row>
     <row r="347" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A347" s="4"/>
+      <c r="A347" s="3"/>
       <c r="B347" s="1"/>
       <c r="C347" s="1"/>
       <c r="D347" s="1"/>
@@ -23664,7 +23659,7 @@
       <c r="AB347" s="1"/>
     </row>
     <row r="348" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A348" s="4"/>
+      <c r="A348" s="3"/>
       <c r="B348" s="1"/>
       <c r="C348" s="1"/>
       <c r="D348" s="1"/>
@@ -23694,7 +23689,7 @@
       <c r="AB348" s="1"/>
     </row>
     <row r="349" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A349" s="4"/>
+      <c r="A349" s="3"/>
       <c r="B349" s="1"/>
       <c r="C349" s="1"/>
       <c r="D349" s="1"/>
@@ -23724,7 +23719,7 @@
       <c r="AB349" s="1"/>
     </row>
     <row r="350" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A350" s="4"/>
+      <c r="A350" s="3"/>
       <c r="B350" s="1"/>
       <c r="C350" s="1"/>
       <c r="D350" s="1"/>
@@ -23754,7 +23749,7 @@
       <c r="AB350" s="1"/>
     </row>
     <row r="351" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A351" s="4"/>
+      <c r="A351" s="3"/>
       <c r="B351" s="1"/>
       <c r="C351" s="1"/>
       <c r="D351" s="1"/>
@@ -23784,7 +23779,7 @@
       <c r="AB351" s="1"/>
     </row>
     <row r="352" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A352" s="4"/>
+      <c r="A352" s="3"/>
       <c r="B352" s="1"/>
       <c r="C352" s="1"/>
       <c r="D352" s="1"/>
@@ -23814,7 +23809,7 @@
       <c r="AB352" s="1"/>
     </row>
     <row r="353" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A353" s="4"/>
+      <c r="A353" s="3"/>
       <c r="B353" s="1"/>
       <c r="C353" s="1"/>
       <c r="D353" s="1"/>
@@ -23844,7 +23839,7 @@
       <c r="AB353" s="1"/>
     </row>
     <row r="354" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A354" s="4"/>
+      <c r="A354" s="3"/>
       <c r="B354" s="1"/>
       <c r="C354" s="1"/>
       <c r="D354" s="1"/>
@@ -23874,7 +23869,7 @@
       <c r="AB354" s="1"/>
     </row>
     <row r="355" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A355" s="4"/>
+      <c r="A355" s="3"/>
       <c r="B355" s="1"/>
       <c r="C355" s="1"/>
       <c r="D355" s="1"/>
@@ -23904,7 +23899,7 @@
       <c r="AB355" s="1"/>
     </row>
     <row r="356" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A356" s="4"/>
+      <c r="A356" s="3"/>
       <c r="B356" s="1"/>
       <c r="C356" s="1"/>
       <c r="D356" s="1"/>
@@ -23934,7 +23929,7 @@
       <c r="AB356" s="1"/>
     </row>
     <row r="357" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A357" s="4"/>
+      <c r="A357" s="3"/>
       <c r="B357" s="1"/>
       <c r="C357" s="1"/>
       <c r="D357" s="1"/>
@@ -23964,7 +23959,7 @@
       <c r="AB357" s="1"/>
     </row>
     <row r="358" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A358" s="4"/>
+      <c r="A358" s="3"/>
       <c r="B358" s="1"/>
       <c r="C358" s="1"/>
       <c r="D358" s="1"/>
@@ -23994,7 +23989,7 @@
       <c r="AB358" s="1"/>
     </row>
     <row r="359" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A359" s="4"/>
+      <c r="A359" s="3"/>
       <c r="B359" s="1"/>
       <c r="C359" s="1"/>
       <c r="D359" s="1"/>
@@ -24024,7 +24019,7 @@
       <c r="AB359" s="1"/>
     </row>
     <row r="360" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A360" s="4"/>
+      <c r="A360" s="3"/>
       <c r="B360" s="1"/>
       <c r="C360" s="1"/>
       <c r="D360" s="1"/>
@@ -24054,7 +24049,7 @@
       <c r="AB360" s="1"/>
     </row>
     <row r="361" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A361" s="4"/>
+      <c r="A361" s="3"/>
       <c r="B361" s="1"/>
       <c r="C361" s="1"/>
       <c r="D361" s="1"/>
@@ -24084,7 +24079,7 @@
       <c r="AB361" s="1"/>
     </row>
     <row r="362" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A362" s="4"/>
+      <c r="A362" s="3"/>
       <c r="B362" s="1"/>
       <c r="C362" s="1"/>
       <c r="D362" s="1"/>
@@ -24114,7 +24109,7 @@
       <c r="AB362" s="1"/>
     </row>
     <row r="363" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A363" s="4"/>
+      <c r="A363" s="3"/>
       <c r="B363" s="1"/>
       <c r="C363" s="1"/>
       <c r="D363" s="1"/>
@@ -24144,7 +24139,7 @@
       <c r="AB363" s="1"/>
     </row>
     <row r="364" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A364" s="4"/>
+      <c r="A364" s="3"/>
       <c r="B364" s="1"/>
       <c r="C364" s="1"/>
       <c r="D364" s="1"/>
@@ -24174,7 +24169,7 @@
       <c r="AB364" s="1"/>
     </row>
     <row r="365" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A365" s="4"/>
+      <c r="A365" s="3"/>
       <c r="B365" s="1"/>
       <c r="C365" s="1"/>
       <c r="D365" s="1"/>
@@ -24204,7 +24199,7 @@
       <c r="AB365" s="1"/>
     </row>
     <row r="366" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A366" s="4"/>
+      <c r="A366" s="3"/>
       <c r="B366" s="1"/>
       <c r="C366" s="1"/>
       <c r="D366" s="1"/>
@@ -24234,7 +24229,7 @@
       <c r="AB366" s="1"/>
     </row>
     <row r="367" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A367" s="4"/>
+      <c r="A367" s="3"/>
       <c r="B367" s="1"/>
       <c r="C367" s="1"/>
       <c r="D367" s="1"/>
@@ -24264,7 +24259,7 @@
       <c r="AB367" s="1"/>
     </row>
     <row r="368" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A368" s="4"/>
+      <c r="A368" s="3"/>
       <c r="B368" s="1"/>
       <c r="C368" s="1"/>
       <c r="D368" s="1"/>
@@ -24294,7 +24289,7 @@
       <c r="AB368" s="1"/>
     </row>
     <row r="369" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A369" s="4"/>
+      <c r="A369" s="3"/>
       <c r="B369" s="1"/>
       <c r="C369" s="1"/>
       <c r="D369" s="1"/>
@@ -24324,7 +24319,7 @@
       <c r="AB369" s="1"/>
     </row>
     <row r="370" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A370" s="4"/>
+      <c r="A370" s="3"/>
       <c r="B370" s="1"/>
       <c r="C370" s="1"/>
       <c r="D370" s="1"/>
@@ -24354,7 +24349,7 @@
       <c r="AB370" s="1"/>
     </row>
     <row r="371" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A371" s="4"/>
+      <c r="A371" s="3"/>
       <c r="B371" s="1"/>
       <c r="C371" s="1"/>
       <c r="D371" s="1"/>
@@ -24384,7 +24379,7 @@
       <c r="AB371" s="1"/>
     </row>
     <row r="372" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A372" s="4"/>
+      <c r="A372" s="3"/>
       <c r="B372" s="1"/>
       <c r="C372" s="1"/>
       <c r="D372" s="1"/>
@@ -24414,7 +24409,7 @@
       <c r="AB372" s="1"/>
     </row>
     <row r="373" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A373" s="4"/>
+      <c r="A373" s="3"/>
       <c r="B373" s="1"/>
       <c r="C373" s="1"/>
       <c r="D373" s="1"/>
@@ -24444,7 +24439,7 @@
       <c r="AB373" s="1"/>
     </row>
     <row r="374" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A374" s="4"/>
+      <c r="A374" s="3"/>
       <c r="B374" s="1"/>
       <c r="C374" s="1"/>
       <c r="D374" s="1"/>
@@ -24474,7 +24469,7 @@
       <c r="AB374" s="1"/>
     </row>
     <row r="375" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A375" s="4"/>
+      <c r="A375" s="3"/>
       <c r="B375" s="1"/>
       <c r="C375" s="1"/>
       <c r="D375" s="1"/>
@@ -24504,7 +24499,7 @@
       <c r="AB375" s="1"/>
     </row>
     <row r="376" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A376" s="4"/>
+      <c r="A376" s="3"/>
       <c r="B376" s="1"/>
       <c r="C376" s="1"/>
       <c r="D376" s="1"/>
@@ -24534,7 +24529,7 @@
       <c r="AB376" s="1"/>
     </row>
     <row r="377" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A377" s="4"/>
+      <c r="A377" s="3"/>
       <c r="B377" s="1"/>
       <c r="C377" s="1"/>
       <c r="D377" s="1"/>
@@ -24564,7 +24559,7 @@
       <c r="AB377" s="1"/>
     </row>
     <row r="378" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A378" s="4"/>
+      <c r="A378" s="3"/>
       <c r="B378" s="1"/>
       <c r="C378" s="1"/>
       <c r="D378" s="1"/>
@@ -24594,7 +24589,7 @@
       <c r="AB378" s="1"/>
     </row>
     <row r="379" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A379" s="4"/>
+      <c r="A379" s="3"/>
       <c r="B379" s="1"/>
       <c r="C379" s="1"/>
       <c r="D379" s="1"/>
@@ -24624,7 +24619,7 @@
       <c r="AB379" s="1"/>
     </row>
     <row r="380" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A380" s="4"/>
+      <c r="A380" s="3"/>
       <c r="B380" s="1"/>
       <c r="C380" s="1"/>
       <c r="D380" s="1"/>
@@ -24654,7 +24649,7 @@
       <c r="AB380" s="1"/>
     </row>
     <row r="381" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A381" s="4"/>
+      <c r="A381" s="3"/>
       <c r="B381" s="1"/>
       <c r="C381" s="1"/>
       <c r="D381" s="1"/>
@@ -24684,7 +24679,7 @@
       <c r="AB381" s="1"/>
     </row>
     <row r="382" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A382" s="4"/>
+      <c r="A382" s="3"/>
       <c r="B382" s="1"/>
       <c r="C382" s="1"/>
       <c r="D382" s="1"/>
@@ -24714,7 +24709,7 @@
       <c r="AB382" s="1"/>
     </row>
     <row r="383" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A383" s="4"/>
+      <c r="A383" s="3"/>
       <c r="B383" s="1"/>
       <c r="C383" s="1"/>
       <c r="D383" s="1"/>
@@ -24744,7 +24739,7 @@
       <c r="AB383" s="1"/>
     </row>
     <row r="384" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A384" s="4"/>
+      <c r="A384" s="3"/>
       <c r="B384" s="1"/>
       <c r="C384" s="1"/>
       <c r="D384" s="1"/>
@@ -24774,7 +24769,7 @@
       <c r="AB384" s="1"/>
     </row>
     <row r="385" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A385" s="4"/>
+      <c r="A385" s="3"/>
       <c r="B385" s="1"/>
       <c r="C385" s="1"/>
       <c r="D385" s="1"/>
@@ -24804,7 +24799,7 @@
       <c r="AB385" s="1"/>
     </row>
     <row r="386" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A386" s="4"/>
+      <c r="A386" s="3"/>
       <c r="B386" s="1"/>
       <c r="C386" s="1"/>
       <c r="D386" s="1"/>
@@ -24834,7 +24829,7 @@
       <c r="AB386" s="1"/>
     </row>
     <row r="387" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A387" s="4"/>
+      <c r="A387" s="3"/>
       <c r="B387" s="1"/>
       <c r="C387" s="1"/>
       <c r="D387" s="1"/>
@@ -24864,7 +24859,7 @@
       <c r="AB387" s="1"/>
     </row>
     <row r="388" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A388" s="4"/>
+      <c r="A388" s="3"/>
       <c r="B388" s="1"/>
       <c r="C388" s="1"/>
       <c r="D388" s="1"/>
@@ -24894,7 +24889,7 @@
       <c r="AB388" s="1"/>
     </row>
     <row r="389" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A389" s="4"/>
+      <c r="A389" s="3"/>
       <c r="B389" s="1"/>
       <c r="C389" s="1"/>
       <c r="D389" s="1"/>
@@ -24924,7 +24919,7 @@
       <c r="AB389" s="1"/>
     </row>
     <row r="390" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A390" s="4"/>
+      <c r="A390" s="3"/>
       <c r="B390" s="1"/>
       <c r="C390" s="1"/>
       <c r="D390" s="1"/>
@@ -24954,7 +24949,7 @@
       <c r="AB390" s="1"/>
     </row>
     <row r="391" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A391" s="4"/>
+      <c r="A391" s="3"/>
       <c r="B391" s="1"/>
       <c r="C391" s="1"/>
       <c r="D391" s="1"/>
@@ -24984,7 +24979,7 @@
       <c r="AB391" s="1"/>
     </row>
     <row r="392" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A392" s="4"/>
+      <c r="A392" s="3"/>
       <c r="B392" s="1"/>
       <c r="C392" s="1"/>
       <c r="D392" s="1"/>
@@ -25014,7 +25009,7 @@
       <c r="AB392" s="1"/>
     </row>
     <row r="393" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A393" s="4"/>
+      <c r="A393" s="3"/>
       <c r="B393" s="1"/>
       <c r="C393" s="1"/>
       <c r="D393" s="1"/>
@@ -25044,7 +25039,7 @@
       <c r="AB393" s="1"/>
     </row>
     <row r="394" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A394" s="4"/>
+      <c r="A394" s="3"/>
       <c r="B394" s="1"/>
       <c r="C394" s="1"/>
       <c r="D394" s="1"/>
@@ -25074,7 +25069,7 @@
       <c r="AB394" s="1"/>
     </row>
     <row r="395" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A395" s="4"/>
+      <c r="A395" s="3"/>
       <c r="B395" s="1"/>
       <c r="C395" s="1"/>
       <c r="D395" s="1"/>
@@ -25104,7 +25099,7 @@
       <c r="AB395" s="1"/>
     </row>
     <row r="396" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A396" s="4"/>
+      <c r="A396" s="3"/>
       <c r="B396" s="1"/>
       <c r="C396" s="1"/>
       <c r="D396" s="1"/>
@@ -25134,7 +25129,7 @@
       <c r="AB396" s="1"/>
     </row>
     <row r="397" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A397" s="4"/>
+      <c r="A397" s="3"/>
       <c r="B397" s="1"/>
       <c r="C397" s="1"/>
       <c r="D397" s="1"/>
@@ -25164,7 +25159,7 @@
       <c r="AB397" s="1"/>
     </row>
     <row r="398" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A398" s="4"/>
+      <c r="A398" s="3"/>
       <c r="B398" s="1"/>
       <c r="C398" s="1"/>
       <c r="D398" s="1"/>
@@ -25194,7 +25189,7 @@
       <c r="AB398" s="1"/>
     </row>
     <row r="399" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A399" s="4"/>
+      <c r="A399" s="3"/>
       <c r="B399" s="1"/>
       <c r="C399" s="1"/>
       <c r="D399" s="1"/>
@@ -25224,7 +25219,7 @@
       <c r="AB399" s="1"/>
     </row>
     <row r="400" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A400" s="4"/>
+      <c r="A400" s="3"/>
       <c r="B400" s="1"/>
       <c r="C400" s="1"/>
       <c r="D400" s="1"/>
@@ -25254,7 +25249,7 @@
       <c r="AB400" s="1"/>
     </row>
     <row r="401" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A401" s="4"/>
+      <c r="A401" s="3"/>
       <c r="B401" s="1"/>
       <c r="C401" s="1"/>
       <c r="D401" s="1"/>
@@ -25284,7 +25279,7 @@
       <c r="AB401" s="1"/>
     </row>
     <row r="402" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A402" s="4"/>
+      <c r="A402" s="3"/>
       <c r="B402" s="1"/>
       <c r="C402" s="1"/>
       <c r="D402" s="1"/>
@@ -25314,7 +25309,7 @@
       <c r="AB402" s="1"/>
     </row>
     <row r="403" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A403" s="4"/>
+      <c r="A403" s="3"/>
       <c r="B403" s="1"/>
       <c r="C403" s="1"/>
       <c r="D403" s="1"/>
@@ -25344,7 +25339,7 @@
       <c r="AB403" s="1"/>
     </row>
     <row r="404" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A404" s="4"/>
+      <c r="A404" s="3"/>
       <c r="B404" s="1"/>
       <c r="C404" s="1"/>
       <c r="D404" s="1"/>
@@ -25374,7 +25369,7 @@
       <c r="AB404" s="1"/>
     </row>
     <row r="405" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A405" s="4"/>
+      <c r="A405" s="3"/>
       <c r="B405" s="1"/>
       <c r="C405" s="1"/>
       <c r="D405" s="1"/>
@@ -25404,7 +25399,7 @@
       <c r="AB405" s="1"/>
     </row>
     <row r="406" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A406" s="4"/>
+      <c r="A406" s="3"/>
       <c r="B406" s="1"/>
       <c r="C406" s="1"/>
       <c r="D406" s="1"/>
@@ -25434,7 +25429,7 @@
       <c r="AB406" s="1"/>
     </row>
     <row r="407" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A407" s="4"/>
+      <c r="A407" s="3"/>
       <c r="B407" s="1"/>
       <c r="C407" s="1"/>
       <c r="D407" s="1"/>
@@ -25464,7 +25459,7 @@
       <c r="AB407" s="1"/>
     </row>
     <row r="408" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A408" s="4"/>
+      <c r="A408" s="3"/>
       <c r="B408" s="1"/>
       <c r="C408" s="1"/>
       <c r="D408" s="1"/>
@@ -25494,7 +25489,7 @@
       <c r="AB408" s="1"/>
     </row>
     <row r="409" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A409" s="4"/>
+      <c r="A409" s="3"/>
       <c r="B409" s="1"/>
       <c r="C409" s="1"/>
       <c r="D409" s="1"/>
@@ -25524,7 +25519,7 @@
       <c r="AB409" s="1"/>
     </row>
     <row r="410" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A410" s="4"/>
+      <c r="A410" s="3"/>
       <c r="B410" s="1"/>
       <c r="C410" s="1"/>
       <c r="D410" s="1"/>
@@ -25554,7 +25549,7 @@
       <c r="AB410" s="1"/>
     </row>
     <row r="411" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A411" s="4"/>
+      <c r="A411" s="3"/>
       <c r="B411" s="1"/>
       <c r="C411" s="1"/>
       <c r="D411" s="1"/>
@@ -25584,7 +25579,7 @@
       <c r="AB411" s="1"/>
     </row>
     <row r="412" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A412" s="4"/>
+      <c r="A412" s="3"/>
       <c r="B412" s="1"/>
       <c r="C412" s="1"/>
       <c r="D412" s="1"/>
@@ -25614,7 +25609,7 @@
       <c r="AB412" s="1"/>
     </row>
     <row r="413" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A413" s="4"/>
+      <c r="A413" s="3"/>
       <c r="B413" s="1"/>
       <c r="C413" s="1"/>
       <c r="D413" s="1"/>
@@ -25644,7 +25639,7 @@
       <c r="AB413" s="1"/>
     </row>
     <row r="414" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A414" s="4"/>
+      <c r="A414" s="3"/>
       <c r="B414" s="1"/>
       <c r="C414" s="1"/>
       <c r="D414" s="1"/>
@@ -25674,7 +25669,7 @@
       <c r="AB414" s="1"/>
     </row>
     <row r="415" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A415" s="4"/>
+      <c r="A415" s="3"/>
       <c r="B415" s="1"/>
       <c r="C415" s="1"/>
       <c r="D415" s="1"/>
@@ -25704,7 +25699,7 @@
       <c r="AB415" s="1"/>
     </row>
     <row r="416" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A416" s="4"/>
+      <c r="A416" s="3"/>
       <c r="B416" s="1"/>
       <c r="C416" s="1"/>
       <c r="D416" s="1"/>
@@ -25734,7 +25729,7 @@
       <c r="AB416" s="1"/>
     </row>
     <row r="417" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A417" s="4"/>
+      <c r="A417" s="3"/>
       <c r="B417" s="1"/>
       <c r="C417" s="1"/>
       <c r="D417" s="1"/>
@@ -25764,7 +25759,7 @@
       <c r="AB417" s="1"/>
     </row>
     <row r="418" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A418" s="4"/>
+      <c r="A418" s="3"/>
       <c r="B418" s="1"/>
       <c r="C418" s="1"/>
       <c r="D418" s="1"/>
@@ -25794,7 +25789,7 @@
       <c r="AB418" s="1"/>
     </row>
     <row r="419" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A419" s="4"/>
+      <c r="A419" s="3"/>
       <c r="B419" s="1"/>
       <c r="C419" s="1"/>
       <c r="D419" s="1"/>
@@ -25824,7 +25819,7 @@
       <c r="AB419" s="1"/>
     </row>
     <row r="420" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A420" s="4"/>
+      <c r="A420" s="3"/>
       <c r="B420" s="1"/>
       <c r="C420" s="1"/>
       <c r="D420" s="1"/>
@@ -25854,7 +25849,7 @@
       <c r="AB420" s="1"/>
     </row>
     <row r="421" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A421" s="4"/>
+      <c r="A421" s="3"/>
       <c r="B421" s="1"/>
       <c r="C421" s="1"/>
       <c r="D421" s="1"/>
@@ -25884,7 +25879,7 @@
       <c r="AB421" s="1"/>
     </row>
     <row r="422" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A422" s="4"/>
+      <c r="A422" s="3"/>
       <c r="B422" s="1"/>
       <c r="C422" s="1"/>
       <c r="D422" s="1"/>
@@ -25914,7 +25909,7 @@
       <c r="AB422" s="1"/>
     </row>
     <row r="423" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A423" s="4"/>
+      <c r="A423" s="3"/>
       <c r="B423" s="1"/>
       <c r="C423" s="1"/>
       <c r="D423" s="1"/>
@@ -25944,7 +25939,7 @@
       <c r="AB423" s="1"/>
     </row>
     <row r="424" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A424" s="4"/>
+      <c r="A424" s="3"/>
       <c r="B424" s="1"/>
       <c r="C424" s="1"/>
       <c r="D424" s="1"/>
@@ -25974,7 +25969,7 @@
       <c r="AB424" s="1"/>
     </row>
     <row r="425" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A425" s="4"/>
+      <c r="A425" s="3"/>
       <c r="B425" s="1"/>
       <c r="C425" s="1"/>
       <c r="D425" s="1"/>
@@ -26004,7 +25999,7 @@
       <c r="AB425" s="1"/>
     </row>
     <row r="426" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A426" s="4"/>
+      <c r="A426" s="3"/>
       <c r="B426" s="1"/>
       <c r="C426" s="1"/>
       <c r="D426" s="1"/>
@@ -26034,7 +26029,7 @@
       <c r="AB426" s="1"/>
     </row>
     <row r="427" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A427" s="4"/>
+      <c r="A427" s="3"/>
       <c r="B427" s="1"/>
       <c r="C427" s="1"/>
       <c r="D427" s="1"/>
@@ -26064,7 +26059,7 @@
       <c r="AB427" s="1"/>
     </row>
     <row r="428" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A428" s="4"/>
+      <c r="A428" s="3"/>
       <c r="B428" s="1"/>
       <c r="C428" s="1"/>
       <c r="D428" s="1"/>
@@ -26094,7 +26089,7 @@
       <c r="AB428" s="1"/>
     </row>
     <row r="429" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A429" s="4"/>
+      <c r="A429" s="3"/>
       <c r="B429" s="1"/>
       <c r="C429" s="1"/>
       <c r="D429" s="1"/>
@@ -26124,7 +26119,7 @@
       <c r="AB429" s="1"/>
     </row>
     <row r="430" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A430" s="4"/>
+      <c r="A430" s="3"/>
       <c r="B430" s="1"/>
       <c r="C430" s="1"/>
       <c r="D430" s="1"/>
@@ -26154,7 +26149,7 @@
       <c r="AB430" s="1"/>
     </row>
     <row r="431" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A431" s="4"/>
+      <c r="A431" s="3"/>
       <c r="B431" s="1"/>
       <c r="C431" s="1"/>
       <c r="D431" s="1"/>
@@ -26184,7 +26179,7 @@
       <c r="AB431" s="1"/>
     </row>
     <row r="432" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A432" s="4"/>
+      <c r="A432" s="3"/>
       <c r="B432" s="1"/>
       <c r="C432" s="1"/>
       <c r="D432" s="1"/>
@@ -26214,7 +26209,7 @@
       <c r="AB432" s="1"/>
     </row>
     <row r="433" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A433" s="4"/>
+      <c r="A433" s="3"/>
       <c r="B433" s="1"/>
       <c r="C433" s="1"/>
       <c r="D433" s="1"/>
@@ -26244,7 +26239,7 @@
       <c r="AB433" s="1"/>
     </row>
     <row r="434" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A434" s="4"/>
+      <c r="A434" s="3"/>
       <c r="B434" s="1"/>
       <c r="C434" s="1"/>
       <c r="D434" s="1"/>
@@ -26274,7 +26269,7 @@
       <c r="AB434" s="1"/>
     </row>
     <row r="435" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A435" s="4"/>
+      <c r="A435" s="3"/>
       <c r="B435" s="1"/>
       <c r="C435" s="1"/>
       <c r="D435" s="1"/>
@@ -26304,7 +26299,7 @@
       <c r="AB435" s="1"/>
     </row>
     <row r="436" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A436" s="4"/>
+      <c r="A436" s="3"/>
       <c r="B436" s="1"/>
       <c r="C436" s="1"/>
       <c r="D436" s="1"/>
@@ -26334,7 +26329,7 @@
       <c r="AB436" s="1"/>
     </row>
     <row r="437" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A437" s="4"/>
+      <c r="A437" s="3"/>
       <c r="B437" s="1"/>
       <c r="C437" s="1"/>
       <c r="D437" s="1"/>
@@ -26364,7 +26359,7 @@
       <c r="AB437" s="1"/>
     </row>
     <row r="438" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A438" s="4"/>
+      <c r="A438" s="3"/>
       <c r="B438" s="1"/>
       <c r="C438" s="1"/>
       <c r="D438" s="1"/>
@@ -26394,7 +26389,7 @@
       <c r="AB438" s="1"/>
     </row>
     <row r="439" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A439" s="4"/>
+      <c r="A439" s="3"/>
       <c r="B439" s="1"/>
       <c r="C439" s="1"/>
       <c r="D439" s="1"/>
@@ -26424,7 +26419,7 @@
       <c r="AB439" s="1"/>
     </row>
     <row r="440" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A440" s="4"/>
+      <c r="A440" s="3"/>
       <c r="B440" s="1"/>
       <c r="C440" s="1"/>
       <c r="D440" s="1"/>
@@ -26454,7 +26449,7 @@
       <c r="AB440" s="1"/>
     </row>
     <row r="441" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A441" s="4"/>
+      <c r="A441" s="3"/>
       <c r="B441" s="1"/>
       <c r="C441" s="1"/>
       <c r="D441" s="1"/>
@@ -26484,7 +26479,7 @@
       <c r="AB441" s="1"/>
     </row>
     <row r="442" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A442" s="4"/>
+      <c r="A442" s="3"/>
       <c r="B442" s="1"/>
       <c r="C442" s="1"/>
       <c r="D442" s="1"/>
@@ -26514,7 +26509,7 @@
       <c r="AB442" s="1"/>
     </row>
     <row r="443" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A443" s="4"/>
+      <c r="A443" s="3"/>
       <c r="B443" s="1"/>
       <c r="C443" s="1"/>
       <c r="D443" s="1"/>
@@ -26544,7 +26539,7 @@
       <c r="AB443" s="1"/>
     </row>
     <row r="444" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A444" s="4"/>
+      <c r="A444" s="3"/>
       <c r="B444" s="1"/>
       <c r="C444" s="1"/>
       <c r="D444" s="1"/>
@@ -26574,7 +26569,7 @@
       <c r="AB444" s="1"/>
     </row>
     <row r="445" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A445" s="4"/>
+      <c r="A445" s="3"/>
       <c r="B445" s="1"/>
       <c r="C445" s="1"/>
       <c r="D445" s="1"/>
@@ -26604,7 +26599,7 @@
       <c r="AB445" s="1"/>
     </row>
     <row r="446" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A446" s="4"/>
+      <c r="A446" s="3"/>
       <c r="B446" s="1"/>
       <c r="C446" s="1"/>
       <c r="D446" s="1"/>
@@ -26634,7 +26629,7 @@
       <c r="AB446" s="1"/>
     </row>
     <row r="447" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A447" s="4"/>
+      <c r="A447" s="3"/>
       <c r="B447" s="1"/>
       <c r="C447" s="1"/>
       <c r="D447" s="1"/>
@@ -26664,7 +26659,7 @@
       <c r="AB447" s="1"/>
     </row>
     <row r="448" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A448" s="4"/>
+      <c r="A448" s="3"/>
       <c r="B448" s="1"/>
       <c r="C448" s="1"/>
       <c r="D448" s="1"/>
@@ -26694,7 +26689,7 @@
       <c r="AB448" s="1"/>
     </row>
     <row r="449" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A449" s="4"/>
+      <c r="A449" s="3"/>
       <c r="B449" s="1"/>
       <c r="C449" s="1"/>
       <c r="D449" s="1"/>
@@ -26724,7 +26719,7 @@
       <c r="AB449" s="1"/>
     </row>
     <row r="450" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A450" s="4"/>
+      <c r="A450" s="3"/>
       <c r="B450" s="1"/>
       <c r="C450" s="1"/>
       <c r="D450" s="1"/>
@@ -26754,7 +26749,7 @@
       <c r="AB450" s="1"/>
     </row>
     <row r="451" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A451" s="4"/>
+      <c r="A451" s="3"/>
       <c r="B451" s="1"/>
       <c r="C451" s="1"/>
       <c r="D451" s="1"/>
@@ -26784,7 +26779,7 @@
       <c r="AB451" s="1"/>
     </row>
     <row r="452" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A452" s="4"/>
+      <c r="A452" s="3"/>
       <c r="B452" s="1"/>
       <c r="C452" s="1"/>
       <c r="D452" s="1"/>
@@ -26814,7 +26809,7 @@
       <c r="AB452" s="1"/>
     </row>
     <row r="453" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A453" s="4"/>
+      <c r="A453" s="3"/>
       <c r="B453" s="1"/>
       <c r="C453" s="1"/>
       <c r="D453" s="1"/>
@@ -26844,7 +26839,7 @@
       <c r="AB453" s="1"/>
     </row>
     <row r="454" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A454" s="4"/>
+      <c r="A454" s="3"/>
       <c r="B454" s="1"/>
       <c r="C454" s="1"/>
       <c r="D454" s="1"/>
@@ -26874,7 +26869,7 @@
       <c r="AB454" s="1"/>
     </row>
     <row r="455" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A455" s="4"/>
+      <c r="A455" s="3"/>
       <c r="B455" s="1"/>
       <c r="C455" s="1"/>
       <c r="D455" s="1"/>
@@ -26904,7 +26899,7 @@
       <c r="AB455" s="1"/>
     </row>
     <row r="456" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A456" s="4"/>
+      <c r="A456" s="3"/>
       <c r="B456" s="1"/>
       <c r="C456" s="1"/>
       <c r="D456" s="1"/>
@@ -26934,7 +26929,7 @@
       <c r="AB456" s="1"/>
     </row>
     <row r="457" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A457" s="4"/>
+      <c r="A457" s="3"/>
       <c r="B457" s="1"/>
       <c r="C457" s="1"/>
       <c r="D457" s="1"/>
@@ -26964,7 +26959,7 @@
       <c r="AB457" s="1"/>
     </row>
     <row r="458" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A458" s="4"/>
+      <c r="A458" s="3"/>
       <c r="B458" s="1"/>
       <c r="C458" s="1"/>
       <c r="D458" s="1"/>
@@ -26994,7 +26989,7 @@
       <c r="AB458" s="1"/>
     </row>
     <row r="459" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A459" s="4"/>
+      <c r="A459" s="3"/>
       <c r="B459" s="1"/>
       <c r="C459" s="1"/>
       <c r="D459" s="1"/>
@@ -27024,7 +27019,7 @@
       <c r="AB459" s="1"/>
     </row>
     <row r="460" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A460" s="4"/>
+      <c r="A460" s="3"/>
       <c r="B460" s="1"/>
       <c r="C460" s="1"/>
       <c r="D460" s="1"/>
@@ -27054,7 +27049,7 @@
       <c r="AB460" s="1"/>
     </row>
     <row r="461" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A461" s="4"/>
+      <c r="A461" s="3"/>
       <c r="B461" s="1"/>
       <c r="C461" s="1"/>
       <c r="D461" s="1"/>
@@ -27084,7 +27079,7 @@
       <c r="AB461" s="1"/>
     </row>
     <row r="462" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A462" s="4"/>
+      <c r="A462" s="3"/>
       <c r="B462" s="1"/>
       <c r="C462" s="1"/>
       <c r="D462" s="1"/>
@@ -27114,7 +27109,7 @@
       <c r="AB462" s="1"/>
     </row>
     <row r="463" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A463" s="4"/>
+      <c r="A463" s="3"/>
       <c r="B463" s="1"/>
       <c r="C463" s="1"/>
       <c r="D463" s="1"/>
@@ -27144,7 +27139,7 @@
       <c r="AB463" s="1"/>
     </row>
     <row r="464" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A464" s="4"/>
+      <c r="A464" s="3"/>
       <c r="B464" s="1"/>
       <c r="C464" s="1"/>
       <c r="D464" s="1"/>
@@ -27174,7 +27169,7 @@
       <c r="AB464" s="1"/>
     </row>
     <row r="465" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A465" s="4"/>
+      <c r="A465" s="3"/>
       <c r="B465" s="1"/>
       <c r="C465" s="1"/>
       <c r="D465" s="1"/>
@@ -27204,7 +27199,7 @@
       <c r="AB465" s="1"/>
     </row>
     <row r="466" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A466" s="4"/>
+      <c r="A466" s="3"/>
       <c r="B466" s="1"/>
       <c r="C466" s="1"/>
       <c r="D466" s="1"/>
@@ -27234,7 +27229,7 @@
       <c r="AB466" s="1"/>
     </row>
     <row r="467" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A467" s="4"/>
+      <c r="A467" s="3"/>
       <c r="B467" s="1"/>
       <c r="C467" s="1"/>
       <c r="D467" s="1"/>
@@ -27264,7 +27259,7 @@
       <c r="AB467" s="1"/>
     </row>
     <row r="468" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A468" s="4"/>
+      <c r="A468" s="3"/>
       <c r="B468" s="1"/>
       <c r="C468" s="1"/>
       <c r="D468" s="1"/>
@@ -27294,7 +27289,7 @@
       <c r="AB468" s="1"/>
     </row>
     <row r="469" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A469" s="4"/>
+      <c r="A469" s="3"/>
       <c r="B469" s="1"/>
       <c r="C469" s="1"/>
       <c r="D469" s="1"/>
@@ -27324,7 +27319,7 @@
       <c r="AB469" s="1"/>
     </row>
     <row r="470" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A470" s="4"/>
+      <c r="A470" s="3"/>
       <c r="B470" s="1"/>
       <c r="C470" s="1"/>
       <c r="D470" s="1"/>
@@ -27354,7 +27349,7 @@
       <c r="AB470" s="1"/>
     </row>
     <row r="471" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A471" s="4"/>
+      <c r="A471" s="3"/>
       <c r="B471" s="1"/>
       <c r="C471" s="1"/>
       <c r="D471" s="1"/>
@@ -27384,7 +27379,7 @@
       <c r="AB471" s="1"/>
     </row>
     <row r="472" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A472" s="4"/>
+      <c r="A472" s="3"/>
       <c r="B472" s="1"/>
       <c r="C472" s="1"/>
       <c r="D472" s="1"/>
@@ -27414,7 +27409,7 @@
       <c r="AB472" s="1"/>
     </row>
     <row r="473" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A473" s="4"/>
+      <c r="A473" s="3"/>
       <c r="B473" s="1"/>
       <c r="C473" s="1"/>
       <c r="D473" s="1"/>
@@ -27444,7 +27439,7 @@
       <c r="AB473" s="1"/>
     </row>
     <row r="474" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A474" s="4"/>
+      <c r="A474" s="3"/>
       <c r="B474" s="1"/>
       <c r="C474" s="1"/>
       <c r="D474" s="1"/>
@@ -27474,7 +27469,7 @@
       <c r="AB474" s="1"/>
     </row>
     <row r="475" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A475" s="4"/>
+      <c r="A475" s="3"/>
       <c r="B475" s="1"/>
       <c r="C475" s="1"/>
       <c r="D475" s="1"/>
@@ -27504,7 +27499,7 @@
       <c r="AB475" s="1"/>
     </row>
     <row r="476" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A476" s="4"/>
+      <c r="A476" s="3"/>
       <c r="B476" s="1"/>
       <c r="C476" s="1"/>
       <c r="D476" s="1"/>
@@ -27534,7 +27529,7 @@
       <c r="AB476" s="1"/>
     </row>
     <row r="477" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A477" s="4"/>
+      <c r="A477" s="3"/>
       <c r="B477" s="1"/>
       <c r="C477" s="1"/>
       <c r="D477" s="1"/>
@@ -27564,7 +27559,7 @@
       <c r="AB477" s="1"/>
     </row>
     <row r="478" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A478" s="4"/>
+      <c r="A478" s="3"/>
       <c r="B478" s="1"/>
       <c r="C478" s="1"/>
       <c r="D478" s="1"/>
@@ -27594,7 +27589,7 @@
       <c r="AB478" s="1"/>
     </row>
     <row r="479" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A479" s="4"/>
+      <c r="A479" s="3"/>
       <c r="B479" s="1"/>
       <c r="C479" s="1"/>
       <c r="D479" s="1"/>
@@ -27624,7 +27619,7 @@
       <c r="AB479" s="1"/>
     </row>
     <row r="480" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A480" s="4"/>
+      <c r="A480" s="3"/>
       <c r="B480" s="1"/>
       <c r="C480" s="1"/>
       <c r="D480" s="1"/>
@@ -27654,7 +27649,7 @@
       <c r="AB480" s="1"/>
     </row>
     <row r="481" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A481" s="4"/>
+      <c r="A481" s="3"/>
       <c r="B481" s="1"/>
       <c r="C481" s="1"/>
       <c r="D481" s="1"/>
@@ -27684,7 +27679,7 @@
       <c r="AB481" s="1"/>
     </row>
     <row r="482" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A482" s="4"/>
+      <c r="A482" s="3"/>
       <c r="B482" s="1"/>
       <c r="C482" s="1"/>
       <c r="D482" s="1"/>
@@ -27714,7 +27709,7 @@
       <c r="AB482" s="1"/>
     </row>
     <row r="483" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A483" s="4"/>
+      <c r="A483" s="3"/>
       <c r="B483" s="1"/>
       <c r="C483" s="1"/>
       <c r="D483" s="1"/>
@@ -27744,7 +27739,7 @@
       <c r="AB483" s="1"/>
     </row>
     <row r="484" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A484" s="4"/>
+      <c r="A484" s="3"/>
       <c r="B484" s="1"/>
       <c r="C484" s="1"/>
       <c r="D484" s="1"/>
@@ -27774,7 +27769,7 @@
       <c r="AB484" s="1"/>
     </row>
     <row r="485" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A485" s="4"/>
+      <c r="A485" s="3"/>
       <c r="B485" s="1"/>
       <c r="C485" s="1"/>
       <c r="D485" s="1"/>
@@ -27804,7 +27799,7 @@
       <c r="AB485" s="1"/>
     </row>
     <row r="486" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A486" s="4"/>
+      <c r="A486" s="3"/>
       <c r="B486" s="1"/>
       <c r="C486" s="1"/>
       <c r="D486" s="1"/>
@@ -27834,7 +27829,7 @@
       <c r="AB486" s="1"/>
     </row>
     <row r="487" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A487" s="4"/>
+      <c r="A487" s="3"/>
       <c r="B487" s="1"/>
       <c r="C487" s="1"/>
       <c r="D487" s="1"/>
@@ -27864,7 +27859,7 @@
       <c r="AB487" s="1"/>
     </row>
     <row r="488" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A488" s="4"/>
+      <c r="A488" s="3"/>
       <c r="B488" s="1"/>
       <c r="C488" s="1"/>
       <c r="D488" s="1"/>
@@ -27894,7 +27889,7 @@
       <c r="AB488" s="1"/>
     </row>
     <row r="489" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A489" s="4"/>
+      <c r="A489" s="3"/>
       <c r="B489" s="1"/>
       <c r="C489" s="1"/>
       <c r="D489" s="1"/>
@@ -27924,7 +27919,7 @@
       <c r="AB489" s="1"/>
     </row>
     <row r="490" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A490" s="4"/>
+      <c r="A490" s="3"/>
       <c r="B490" s="1"/>
       <c r="C490" s="1"/>
       <c r="D490" s="1"/>
@@ -27954,7 +27949,7 @@
       <c r="AB490" s="1"/>
     </row>
     <row r="491" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A491" s="4"/>
+      <c r="A491" s="3"/>
       <c r="B491" s="1"/>
       <c r="C491" s="1"/>
       <c r="D491" s="1"/>
@@ -27984,7 +27979,7 @@
       <c r="AB491" s="1"/>
     </row>
     <row r="492" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A492" s="4"/>
+      <c r="A492" s="3"/>
       <c r="B492" s="1"/>
       <c r="C492" s="1"/>
       <c r="D492" s="1"/>
@@ -28014,7 +28009,7 @@
       <c r="AB492" s="1"/>
     </row>
     <row r="493" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A493" s="4"/>
+      <c r="A493" s="3"/>
       <c r="B493" s="1"/>
       <c r="C493" s="1"/>
       <c r="D493" s="1"/>
@@ -28044,7 +28039,7 @@
       <c r="AB493" s="1"/>
     </row>
     <row r="494" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A494" s="4"/>
+      <c r="A494" s="3"/>
       <c r="B494" s="1"/>
       <c r="C494" s="1"/>
       <c r="D494" s="1"/>
@@ -28074,7 +28069,7 @@
       <c r="AB494" s="1"/>
     </row>
     <row r="495" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A495" s="4"/>
+      <c r="A495" s="3"/>
       <c r="B495" s="1"/>
       <c r="C495" s="1"/>
       <c r="D495" s="1"/>
@@ -28104,7 +28099,7 @@
       <c r="AB495" s="1"/>
     </row>
     <row r="496" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A496" s="4"/>
+      <c r="A496" s="3"/>
       <c r="B496" s="1"/>
       <c r="C496" s="1"/>
       <c r="D496" s="1"/>
@@ -28134,7 +28129,7 @@
       <c r="AB496" s="1"/>
     </row>
     <row r="497" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A497" s="4"/>
+      <c r="A497" s="3"/>
       <c r="B497" s="1"/>
       <c r="C497" s="1"/>
       <c r="D497" s="1"/>
@@ -28164,7 +28159,7 @@
       <c r="AB497" s="1"/>
     </row>
     <row r="498" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A498" s="4"/>
+      <c r="A498" s="3"/>
       <c r="B498" s="1"/>
       <c r="C498" s="1"/>
       <c r="D498" s="1"/>
@@ -28194,7 +28189,7 @@
       <c r="AB498" s="1"/>
     </row>
     <row r="499" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A499" s="4"/>
+      <c r="A499" s="3"/>
       <c r="B499" s="1"/>
       <c r="C499" s="1"/>
       <c r="D499" s="1"/>
@@ -28224,7 +28219,7 @@
       <c r="AB499" s="1"/>
     </row>
     <row r="500" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A500" s="4"/>
+      <c r="A500" s="3"/>
       <c r="B500" s="1"/>
       <c r="C500" s="1"/>
       <c r="D500" s="1"/>
@@ -28254,7 +28249,7 @@
       <c r="AB500" s="1"/>
     </row>
     <row r="501" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A501" s="4"/>
+      <c r="A501" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -28301,68 +28296,68 @@
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
-      <c r="T1" s="6" t="s">
+      <c r="T1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="U1" s="7"/>
-      <c r="V1" s="7"/>
-      <c r="W1" s="7"/>
-      <c r="X1" s="7"/>
-      <c r="Y1" s="7"/>
-      <c r="Z1" s="6" t="s">
+      <c r="U1" s="8"/>
+      <c r="V1" s="8"/>
+      <c r="W1" s="8"/>
+      <c r="X1" s="8"/>
+      <c r="Y1" s="8"/>
+      <c r="Z1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="AA1" s="7"/>
+      <c r="AA1" s="8"/>
       <c r="AB1" s="1"/>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="6" t="s">
+      <c r="E2" s="8"/>
+      <c r="F2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="6" t="s">
+      <c r="G2" s="8"/>
+      <c r="H2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
       <c r="L2" s="1"/>
-      <c r="M2" s="6" t="s">
+      <c r="M2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="7"/>
-      <c r="O2" s="6" t="s">
+      <c r="N2" s="8"/>
+      <c r="O2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="P2" s="7"/>
+      <c r="P2" s="8"/>
       <c r="Q2" s="1" t="s">
         <v>14</v>
       </c>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
-      <c r="T2" s="6" t="s">
+      <c r="T2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="U2" s="7"/>
-      <c r="V2" s="6" t="s">
+      <c r="U2" s="8"/>
+      <c r="V2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="W2" s="7"/>
-      <c r="X2" s="6" t="s">
+      <c r="W2" s="8"/>
+      <c r="X2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="Y2" s="7"/>
-      <c r="Z2" s="6" t="s">
+      <c r="Y2" s="8"/>
+      <c r="Z2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="AA2" s="7"/>
+      <c r="AA2" s="8"/>
       <c r="AB2" s="1"/>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.45">
